--- a/Jogos_da_Semana_FlashScore_2025-04-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-27.xlsx
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
         <v>1.25</v>
@@ -1638,16 +1638,16 @@
         <v>11</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="O10" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1671,7 +1671,7 @@
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -1680,7 +1680,7 @@
         <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
         <v>7</v>
@@ -2132,10 +2132,10 @@
         <v>3.5</v>
       </c>
       <c r="N14" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="O14" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="P14" t="n">
         <v>1.36</v>
@@ -3460,10 +3460,10 @@
         <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L25" t="n">
         <v>1.5</v>
@@ -3948,22 +3948,22 @@
         <v>3.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M29" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N29" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
         <v>1.62</v>
@@ -4186,22 +4186,22 @@
         <v>2.25</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J31" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M31" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="N31" t="n">
         <v>2.7</v>
@@ -4210,16 +4210,16 @@
         <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R31" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S31" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T31" t="n">
         <v>5.5</v>
@@ -4228,7 +4228,7 @@
         <v>9</v>
       </c>
       <c r="V31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W31" t="n">
         <v>21</v>
@@ -4240,22 +4240,22 @@
         <v>41</v>
       </c>
       <c r="Z31" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA31" t="n">
         <v>6</v>
       </c>
       <c r="AB31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="n">
         <v>101</v>
       </c>
       <c r="AE31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF31" t="n">
         <v>15</v>
@@ -4267,7 +4267,7 @@
         <v>41</v>
       </c>
       <c r="AI31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ31" t="n">
         <v>51</v>
@@ -4796,16 +4796,16 @@
         <v>2.35</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I36" t="n">
         <v>2.63</v>
       </c>
       <c r="J36" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K36" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L36" t="n">
         <v>1.1</v>
@@ -4814,16 +4814,16 @@
         <v>7</v>
       </c>
       <c r="N36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O36" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P36" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Q36" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="R36" t="n">
         <v>1.33</v>
@@ -4850,7 +4850,7 @@
         <v>17</v>
       </c>
       <c r="Z36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA36" t="n">
         <v>9</v>
@@ -5835,25 +5835,25 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H47" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="I47" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J47" t="n">
         <v>1.05</v>
       </c>
       <c r="K47" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="L47" t="n">
         <v>1.25</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="N47" t="n">
         <v>1.75</v>
@@ -5862,43 +5862,43 @@
         <v>2.1</v>
       </c>
       <c r="P47" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q47" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R47" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S47" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T47" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="U47" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="V47" t="n">
         <v>8.5</v>
       </c>
       <c r="W47" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="X47" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z47" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AA47" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB47" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC47" t="n">
         <v>80</v>
@@ -5907,22 +5907,22 @@
         <v>600</v>
       </c>
       <c r="AE47" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF47" t="n">
         <v>37</v>
       </c>
       <c r="AG47" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH47" t="n">
         <v>120</v>
       </c>
       <c r="AI47" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="48">
@@ -5957,13 +5957,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J48" t="n">
         <v>1.05</v>
@@ -5978,10 +5978,10 @@
         <v>3.75</v>
       </c>
       <c r="N48" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O48" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P48" t="n">
         <v>1.36</v>
@@ -6008,7 +6008,7 @@
         <v>29</v>
       </c>
       <c r="X48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y48" t="n">
         <v>29</v>
@@ -6032,10 +6032,10 @@
         <v>9.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG48" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH48" t="n">
         <v>23</v>
@@ -6875,7 +6875,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="H57" t="n">
         <v>4</v>
@@ -6896,10 +6896,10 @@
         <v>3.4</v>
       </c>
       <c r="N57" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="O57" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="P57" t="n">
         <v>1.4</v>
@@ -6997,7 +6997,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H58" t="n">
         <v>3.5</v>
@@ -7119,13 +7119,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H59" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J59" t="n">
         <v>1.06</v>
@@ -7152,10 +7152,10 @@
         <v>3</v>
       </c>
       <c r="R59" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S59" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T59" t="n">
         <v>6.5</v>
@@ -7167,7 +7167,7 @@
         <v>8.5</v>
       </c>
       <c r="W59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X59" t="n">
         <v>13</v>
@@ -7185,16 +7185,16 @@
         <v>19</v>
       </c>
       <c r="AC59" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD59" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE59" t="n">
         <v>13</v>
       </c>
       <c r="AF59" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG59" t="n">
         <v>17</v>
@@ -7241,7 +7241,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H60" t="n">
         <v>3.4</v>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H61" t="n">
         <v>3.1</v>
@@ -7485,19 +7485,19 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="H62" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I62" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="J62" t="n">
         <v>1.11</v>
       </c>
       <c r="K62" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L62" t="n">
         <v>1.47</v>
@@ -7515,19 +7515,19 @@
         <v>1.57</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R62" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S62" t="n">
         <v>1.75</v>
       </c>
       <c r="T62" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="U62" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="V62" t="n">
         <v>10.25</v>
@@ -7542,37 +7542,37 @@
         <v>40</v>
       </c>
       <c r="Z62" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AA62" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB62" t="n">
         <v>16</v>
       </c>
       <c r="AC62" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD62" t="n">
         <v>900</v>
       </c>
       <c r="AE62" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AF62" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG62" t="n">
         <v>10.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI62" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ62" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63">
@@ -7729,37 +7729,37 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="I64" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J64" t="n">
         <v>1.14</v>
       </c>
       <c r="K64" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L64" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="M64" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="N64" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="O64" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P64" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R64" t="n">
         <v>2.12</v>
@@ -7768,55 +7768,55 @@
         <v>1.65</v>
       </c>
       <c r="T64" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="U64" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="V64" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W64" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X64" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y64" t="n">
         <v>40</v>
       </c>
       <c r="Z64" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AA64" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB64" t="n">
         <v>17.5</v>
       </c>
       <c r="AC64" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD64" t="n">
         <v>101</v>
       </c>
       <c r="AE64" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AF64" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG64" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH64" t="n">
         <v>120</v>
       </c>
       <c r="AI64" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ64" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
@@ -8285,7 +8285,7 @@
         <v>101</v>
       </c>
       <c r="AE68" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AF68" t="n">
         <v>16</v>
@@ -8335,7 +8335,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="H69" t="n">
         <v>3.35</v>
@@ -8362,16 +8362,16 @@
         <v>1.78</v>
       </c>
       <c r="P69" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q69" t="n">
         <v>2.65</v>
       </c>
       <c r="R69" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S69" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T69" t="n">
         <v>8.5</v>
@@ -8398,13 +8398,13 @@
         <v>6.7</v>
       </c>
       <c r="AB69" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC69" t="n">
         <v>75</v>
       </c>
       <c r="AD69" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE69" t="n">
         <v>7.8</v>
@@ -8419,7 +8419,7 @@
         <v>28</v>
       </c>
       <c r="AI69" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ69" t="n">
         <v>35</v>
@@ -8701,13 +8701,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>3.3</v>
       </c>
       <c r="I72" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J72" t="n">
         <v>1.05</v>
@@ -9332,10 +9332,10 @@
         <v>3.75</v>
       </c>
       <c r="N77" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="O77" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="P77" t="n">
         <v>1.36</v>
@@ -9558,28 +9558,28 @@
         <v>1.73</v>
       </c>
       <c r="H79" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I79" t="n">
         <v>4.2</v>
       </c>
-      <c r="I79" t="n">
-        <v>4.1</v>
-      </c>
       <c r="J79" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K79" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L79" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M79" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N79" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="O79" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="P79" t="n">
         <v>1.25</v>
@@ -9588,16 +9588,16 @@
         <v>3.75</v>
       </c>
       <c r="R79" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S79" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T79" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U79" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V79" t="n">
         <v>8.5</v>
@@ -9606,31 +9606,31 @@
         <v>15</v>
       </c>
       <c r="X79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y79" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z79" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA79" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB79" t="n">
         <v>13</v>
       </c>
       <c r="AC79" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD79" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE79" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF79" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG79" t="n">
         <v>13</v>
@@ -9795,16 +9795,16 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="H81" t="n">
         <v>3.05</v>
       </c>
       <c r="I81" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="J81" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K81" t="n">
         <v>6</v>
@@ -9825,7 +9825,7 @@
         <v>1.52</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R81" t="n">
         <v>2.05</v>
@@ -9834,31 +9834,31 @@
         <v>1.62</v>
       </c>
       <c r="T81" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="U81" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="V81" t="n">
         <v>10.75</v>
       </c>
       <c r="W81" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X81" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y81" t="n">
         <v>50</v>
       </c>
       <c r="Z81" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AA81" t="n">
         <v>6</v>
       </c>
       <c r="AB81" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC81" t="n">
         <v>120</v>
@@ -9867,16 +9867,16 @@
         <v>101</v>
       </c>
       <c r="AE81" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AF81" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AG81" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH81" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI81" t="n">
         <v>27</v>
@@ -9926,10 +9926,10 @@
         <v>5.2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K82" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L82" t="n">
         <v>1.5</v>
@@ -9944,10 +9944,10 @@
         <v>1.42</v>
       </c>
       <c r="P82" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R82" t="n">
         <v>2.22</v>
@@ -9956,7 +9956,7 @@
         <v>1.52</v>
       </c>
       <c r="T82" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="U82" t="n">
         <v>6.8</v>
@@ -9968,7 +9968,7 @@
         <v>14</v>
       </c>
       <c r="X82" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y82" t="n">
         <v>45</v>
@@ -9983,13 +9983,13 @@
         <v>22</v>
       </c>
       <c r="AC82" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AD82" t="n">
         <v>101</v>
       </c>
       <c r="AE82" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF82" t="n">
         <v>29</v>
@@ -10001,10 +10001,10 @@
         <v>120</v>
       </c>
       <c r="AI82" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ82" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83">
@@ -10039,18 +10039,18 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I83" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M83" t="n">
         <v>3.4</v>
@@ -10070,10 +10070,10 @@
         <v>1.6</v>
       </c>
       <c r="T83" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="U83" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="V83" t="n">
         <v>8.5</v>
@@ -10088,7 +10088,7 @@
         <v>32</v>
       </c>
       <c r="Z83" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AA83" t="n">
         <v>9.25</v>
@@ -10097,16 +10097,16 @@
         <v>23</v>
       </c>
       <c r="AC83" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD83" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AE83" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF83" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG83" t="n">
         <v>32</v>
@@ -10880,7 +10880,7 @@
         <v>3.85</v>
       </c>
       <c r="H90" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I90" t="n">
         <v>1.88</v>
@@ -10891,7 +10891,7 @@
         <v>1.34</v>
       </c>
       <c r="M90" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="N90" t="n">
         <v>2</v>
@@ -10930,10 +10930,10 @@
         <v>50</v>
       </c>
       <c r="Z90" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA90" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB90" t="n">
         <v>17</v>
@@ -11248,13 +11248,13 @@
         <v>1.83</v>
       </c>
       <c r="J93" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K93" t="n">
         <v>9</v>
       </c>
       <c r="L93" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
@@ -11370,13 +11370,13 @@
         <v>4.75</v>
       </c>
       <c r="J94" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K94" t="n">
         <v>9</v>
       </c>
       <c r="L94" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
@@ -11676,13 +11676,13 @@
         <v>4.33</v>
       </c>
       <c r="J97" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K97" t="n">
         <v>9</v>
       </c>
       <c r="L97" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M97" t="n">
         <v>2.75</v>
@@ -11798,13 +11798,13 @@
         <v>4.5</v>
       </c>
       <c r="J98" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K98" t="n">
         <v>12</v>
       </c>
       <c r="L98" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
@@ -11920,13 +11920,13 @@
         <v>2.9</v>
       </c>
       <c r="J99" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K99" t="n">
         <v>12</v>
       </c>
       <c r="L99" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M99" t="n">
         <v>3.75</v>
@@ -12298,10 +12298,10 @@
         <v>3.75</v>
       </c>
       <c r="N102" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O102" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P102" t="n">
         <v>1.36</v>
@@ -12652,16 +12652,16 @@
         <v>3.1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K105" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L105" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M105" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N105" t="n">
         <v>1.53</v>
@@ -12896,13 +12896,13 @@
         <v>3.75</v>
       </c>
       <c r="J107" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K107" t="n">
         <v>11</v>
       </c>
       <c r="L107" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M107" t="n">
         <v>3.75</v>
@@ -13018,13 +13018,13 @@
         <v>2.05</v>
       </c>
       <c r="J108" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K108" t="n">
         <v>8.5</v>
       </c>
       <c r="L108" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
@@ -13140,16 +13140,16 @@
         <v>3.6</v>
       </c>
       <c r="J109" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K109" t="n">
         <v>8</v>
       </c>
       <c r="L109" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M109" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N109" t="n">
         <v>2.4</v>
@@ -13262,13 +13262,13 @@
         <v>3.3</v>
       </c>
       <c r="J110" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K110" t="n">
         <v>8.5</v>
       </c>
       <c r="L110" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M110" t="n">
         <v>3</v>
@@ -13375,22 +13375,22 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H111" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I111" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J111" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K111" t="n">
         <v>12</v>
       </c>
       <c r="L111" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
@@ -13417,19 +13417,19 @@
         <v>7.5</v>
       </c>
       <c r="U111" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V111" t="n">
         <v>8.5</v>
       </c>
       <c r="W111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X111" t="n">
         <v>12</v>
       </c>
       <c r="Y111" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z111" t="n">
         <v>12</v>
@@ -13444,7 +13444,7 @@
         <v>51</v>
       </c>
       <c r="AD111" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE111" t="n">
         <v>17</v>
@@ -14316,10 +14316,10 @@
         <v>4.33</v>
       </c>
       <c r="N120" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O120" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P120" t="n">
         <v>1.33</v>
@@ -15148,36 +15148,92 @@
           <t>Iraklis 1908</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
+      <c r="G127" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="H127" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2.57</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
-      <c r="Z127" t="inlineStr"/>
-      <c r="AA127" t="inlineStr"/>
-      <c r="AB127" t="inlineStr"/>
-      <c r="AC127" t="inlineStr"/>
-      <c r="AD127" t="inlineStr"/>
-      <c r="AE127" t="inlineStr"/>
-      <c r="AF127" t="inlineStr"/>
-      <c r="AG127" t="inlineStr"/>
-      <c r="AH127" t="inlineStr"/>
-      <c r="AI127" t="inlineStr"/>
-      <c r="AJ127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M127" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P127" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S127" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T127" t="n">
+        <v>9</v>
+      </c>
+      <c r="U127" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V127" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W127" t="n">
+        <v>29</v>
+      </c>
+      <c r="X127" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15210,36 +15266,80 @@
           <t>AEL Larissa</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
+      <c r="G128" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H128" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1.53</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O128" t="n">
+        <v>2.07</v>
+      </c>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
       <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
-      <c r="Z128" t="inlineStr"/>
-      <c r="AA128" t="inlineStr"/>
-      <c r="AB128" t="inlineStr"/>
-      <c r="AC128" t="inlineStr"/>
-      <c r="AD128" t="inlineStr"/>
-      <c r="AE128" t="inlineStr"/>
-      <c r="AF128" t="inlineStr"/>
-      <c r="AG128" t="inlineStr"/>
-      <c r="AH128" t="inlineStr"/>
-      <c r="AI128" t="inlineStr"/>
-      <c r="AJ128" t="inlineStr"/>
+      <c r="T128" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="U128" t="n">
+        <v>25</v>
+      </c>
+      <c r="V128" t="n">
+        <v>13</v>
+      </c>
+      <c r="W128" t="n">
+        <v>65</v>
+      </c>
+      <c r="X128" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15272,36 +15372,76 @@
           <t>Ethnikos Neou</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H129" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I129" t="n">
+        <v>15.5</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
-      <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O129" t="n">
+        <v>1.93</v>
+      </c>
       <c r="P129" t="inlineStr"/>
       <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
-      <c r="Z129" t="inlineStr"/>
-      <c r="AA129" t="inlineStr"/>
-      <c r="AB129" t="inlineStr"/>
-      <c r="AC129" t="inlineStr"/>
+      <c r="T129" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="U129" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="V129" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W129" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X129" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>300</v>
+      </c>
       <c r="AD129" t="inlineStr"/>
-      <c r="AE129" t="inlineStr"/>
-      <c r="AF129" t="inlineStr"/>
-      <c r="AG129" t="inlineStr"/>
+      <c r="AE129" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>50</v>
+      </c>
       <c r="AH129" t="inlineStr"/>
-      <c r="AI129" t="inlineStr"/>
-      <c r="AJ129" t="inlineStr"/>
+      <c r="AI129" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15334,36 +15474,84 @@
           <t>Diagoras</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
+      <c r="G130" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H130" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2.22</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O130" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P130" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>2.35</v>
+      </c>
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
-      <c r="Z130" t="inlineStr"/>
-      <c r="AA130" t="inlineStr"/>
-      <c r="AB130" t="inlineStr"/>
-      <c r="AC130" t="inlineStr"/>
-      <c r="AD130" t="inlineStr"/>
-      <c r="AE130" t="inlineStr"/>
-      <c r="AF130" t="inlineStr"/>
-      <c r="AG130" t="inlineStr"/>
-      <c r="AH130" t="inlineStr"/>
-      <c r="AI130" t="inlineStr"/>
-      <c r="AJ130" t="inlineStr"/>
+      <c r="T130" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U130" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V130" t="n">
+        <v>9</v>
+      </c>
+      <c r="W130" t="n">
+        <v>26</v>
+      </c>
+      <c r="X130" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -16378,10 +16566,10 @@
         <v>3.75</v>
       </c>
       <c r="N139" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O139" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P139" t="n">
         <v>1.36</v>
@@ -16479,13 +16667,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H140" t="n">
         <v>3</v>
       </c>
       <c r="I140" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J140" t="n">
         <v>1.11</v>
@@ -16524,10 +16712,10 @@
         <v>11</v>
       </c>
       <c r="V140" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W140" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X140" t="n">
         <v>23</v>
@@ -16554,7 +16742,7 @@
         <v>7.5</v>
       </c>
       <c r="AF140" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG140" t="n">
         <v>12</v>
@@ -16601,13 +16789,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H141" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I141" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J141" t="n">
         <v>1.08</v>
@@ -16616,22 +16804,22 @@
         <v>6.6</v>
       </c>
       <c r="L141" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M141" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="N141" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O141" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P141" t="n">
         <v>1.42</v>
       </c>
       <c r="Q141" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R141" t="n">
         <v>1.85</v>
@@ -16640,19 +16828,19 @@
         <v>1.85</v>
       </c>
       <c r="T141" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U141" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="V141" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W141" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X141" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Y141" t="n">
         <v>32</v>
@@ -16667,25 +16855,25 @@
         <v>15</v>
       </c>
       <c r="AC141" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD141" t="n">
         <v>700</v>
       </c>
       <c r="AE141" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF141" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AG141" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH141" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI141" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ141" t="n">
         <v>40</v>
@@ -16723,13 +16911,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="H142" t="n">
         <v>3.45</v>
       </c>
       <c r="I142" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="J142" t="n">
         <v>1.07</v>
@@ -16756,25 +16944,25 @@
         <v>2.62</v>
       </c>
       <c r="R142" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S142" t="n">
         <v>1.83</v>
       </c>
-      <c r="S142" t="n">
-        <v>1.87</v>
-      </c>
       <c r="T142" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="U142" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V142" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W142" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="X142" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y142" t="n">
         <v>30</v>
@@ -16783,34 +16971,34 @@
         <v>7.1</v>
       </c>
       <c r="AA142" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AB142" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC142" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD142" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE142" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AF142" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AG142" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH142" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI142" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AJ142" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="143">
@@ -16845,13 +17033,13 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H143" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I143" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="J143" t="n">
         <v>1.1</v>
@@ -16875,37 +17063,37 @@
         <v>1.53</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R143" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S143" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T143" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="U143" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V143" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W143" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X143" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Y143" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z143" t="n">
         <v>5.8</v>
       </c>
       <c r="AA143" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB143" t="n">
         <v>19.5</v>
@@ -16917,16 +17105,16 @@
         <v>900</v>
       </c>
       <c r="AE143" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AF143" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG143" t="n">
         <v>9.5</v>
       </c>
       <c r="AH143" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI143" t="n">
         <v>21</v>
@@ -16967,19 +17155,19 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="H144" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="I144" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J144" t="n">
         <v>1.11</v>
       </c>
       <c r="K144" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L144" t="n">
         <v>1.5</v>
@@ -17006,7 +17194,7 @@
         <v>1.7</v>
       </c>
       <c r="T144" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U144" t="n">
         <v>9.75</v>
@@ -17015,19 +17203,19 @@
         <v>9.25</v>
       </c>
       <c r="W144" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X144" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y144" t="n">
         <v>40</v>
       </c>
       <c r="Z144" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA144" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB144" t="n">
         <v>17</v>
@@ -17039,13 +17227,13 @@
         <v>101</v>
       </c>
       <c r="AE144" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AF144" t="n">
         <v>16</v>
       </c>
       <c r="AG144" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH144" t="n">
         <v>50</v>
@@ -17054,7 +17242,7 @@
         <v>37</v>
       </c>
       <c r="AJ144" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145">
@@ -17089,25 +17277,25 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I145" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J145" t="n">
         <v>1.08</v>
       </c>
       <c r="K145" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="L145" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M145" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="N145" t="n">
         <v>2.05</v>
@@ -17119,64 +17307,64 @@
         <v>1.42</v>
       </c>
       <c r="Q145" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R145" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S145" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="T145" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="U145" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="V145" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W145" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="X145" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y145" t="n">
         <v>29</v>
       </c>
       <c r="Z145" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AA145" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB145" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC145" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD145" t="n">
         <v>600</v>
       </c>
       <c r="AE145" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF145" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AG145" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AH145" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI145" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ145" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146">
@@ -17211,19 +17399,19 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.45</v>
+        <v>2.62</v>
       </c>
       <c r="H146" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I146" t="n">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="J146" t="n">
         <v>1.07</v>
       </c>
       <c r="K146" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="L146" t="n">
         <v>1.35</v>
@@ -17235,43 +17423,43 @@
         <v>2.02</v>
       </c>
       <c r="O146" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P146" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R146" t="n">
         <v>1.8</v>
       </c>
       <c r="S146" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T146" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="U146" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="V146" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W146" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="X146" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y146" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z146" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AA146" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB146" t="n">
         <v>14.5</v>
@@ -17283,22 +17471,22 @@
         <v>600</v>
       </c>
       <c r="AE146" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AF146" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG146" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AH146" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ146" t="n">
         <v>32</v>
-      </c>
-      <c r="AI146" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ146" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="147">
@@ -17333,25 +17521,25 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="H147" t="n">
         <v>3.35</v>
       </c>
       <c r="I147" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J147" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K147" t="n">
         <v>7.1</v>
       </c>
       <c r="L147" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M147" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="N147" t="n">
         <v>1.9</v>
@@ -17366,25 +17554,25 @@
         <v>2.62</v>
       </c>
       <c r="R147" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S147" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T147" t="n">
         <v>6.7</v>
       </c>
       <c r="U147" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="V147" t="n">
         <v>8</v>
       </c>
       <c r="W147" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X147" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y147" t="n">
         <v>26</v>
@@ -17393,34 +17581,34 @@
         <v>7.1</v>
       </c>
       <c r="AA147" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB147" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC147" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AD147" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE147" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF147" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG147" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH147" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI147" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ147" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148">
@@ -17455,13 +17643,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H148" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I148" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="J148" t="n">
         <v>1.08</v>
@@ -17494,22 +17682,22 @@
         <v>1.85</v>
       </c>
       <c r="T148" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U148" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="V148" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="W148" t="n">
         <v>50</v>
       </c>
       <c r="X148" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y148" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z148" t="n">
         <v>6.4</v>
@@ -17521,16 +17709,16 @@
         <v>15</v>
       </c>
       <c r="AC148" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD148" t="n">
         <v>700</v>
       </c>
       <c r="AE148" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AF148" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AG148" t="n">
         <v>8.75</v>
@@ -17539,10 +17727,10 @@
         <v>19.5</v>
       </c>
       <c r="AI148" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ148" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149">
@@ -17577,94 +17765,94 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="H149" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="I149" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="J149" t="n">
         <v>1.07</v>
       </c>
       <c r="K149" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="L149" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M149" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="N149" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="O149" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="P149" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="R149" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S149" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T149" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="U149" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="V149" t="n">
         <v>8.25</v>
       </c>
       <c r="W149" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="X149" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y149" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z149" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AA149" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AB149" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AC149" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD149" t="n">
         <v>900</v>
       </c>
       <c r="AE149" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF149" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AG149" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AH149" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AI149" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AJ149" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150">
@@ -17699,13 +17887,13 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="H150" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I150" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="J150" t="n">
         <v>1.09</v>
@@ -17732,25 +17920,25 @@
         <v>2.42</v>
       </c>
       <c r="R150" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S150" t="n">
         <v>1.72</v>
       </c>
       <c r="T150" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="U150" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V150" t="n">
         <v>9</v>
       </c>
-      <c r="V150" t="n">
-        <v>9.25</v>
-      </c>
       <c r="W150" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X150" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y150" t="n">
         <v>37</v>
@@ -17759,31 +17947,31 @@
         <v>6.3</v>
       </c>
       <c r="AA150" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB150" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC150" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD150" t="n">
         <v>800</v>
       </c>
       <c r="AE150" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF150" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG150" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH150" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI150" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AJ150" t="n">
         <v>50</v>
@@ -18309,13 +18497,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="H155" t="n">
         <v>2.57</v>
       </c>
       <c r="I155" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="J155" t="n">
         <v>1.1</v>
@@ -18351,19 +18539,19 @@
         <v>8.25</v>
       </c>
       <c r="U155" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V155" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W155" t="n">
         <v>40</v>
       </c>
       <c r="X155" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y155" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z155" t="n">
         <v>5.8</v>
@@ -18381,19 +18569,19 @@
         <v>500</v>
       </c>
       <c r="AE155" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AF155" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG155" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH155" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI155" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ155" t="n">
         <v>32</v>
@@ -18431,13 +18619,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H156" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I156" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J156" t="n">
         <v>1.08</v>
@@ -18464,25 +18652,25 @@
         <v>2.62</v>
       </c>
       <c r="R156" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S156" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T156" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="U156" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V156" t="n">
         <v>9.25</v>
       </c>
-      <c r="V156" t="n">
-        <v>9</v>
-      </c>
       <c r="W156" t="n">
+        <v>20</v>
+      </c>
+      <c r="X156" t="n">
         <v>19</v>
-      </c>
-      <c r="X156" t="n">
-        <v>18.5</v>
       </c>
       <c r="Y156" t="n">
         <v>35</v>
@@ -18503,19 +18691,19 @@
         <v>800</v>
       </c>
       <c r="AE156" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF156" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG156" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH156" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI156" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ156" t="n">
         <v>45</v>
@@ -18553,7 +18741,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H157" t="n">
         <v>2.77</v>
@@ -18592,22 +18780,22 @@
         <v>1.93</v>
       </c>
       <c r="T157" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="U157" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V157" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W157" t="n">
         <v>35</v>
       </c>
       <c r="X157" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y157" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z157" t="n">
         <v>6.1</v>
@@ -18625,22 +18813,22 @@
         <v>500</v>
       </c>
       <c r="AE157" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AF157" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG157" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH157" t="n">
         <v>35</v>
       </c>
       <c r="AI157" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ157" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158">
@@ -18675,13 +18863,13 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="H158" t="n">
         <v>3.25</v>
       </c>
       <c r="I158" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="J158" t="n">
         <v>1.06</v>
@@ -18714,16 +18902,16 @@
         <v>2</v>
       </c>
       <c r="T158" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="U158" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="V158" t="n">
         <v>9</v>
       </c>
       <c r="W158" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X158" t="n">
         <v>18</v>
@@ -18747,13 +18935,13 @@
         <v>450</v>
       </c>
       <c r="AE158" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF158" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG158" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH158" t="n">
         <v>37</v>
@@ -18800,18 +18988,18 @@
         <v>1.47</v>
       </c>
       <c r="H159" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I159" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M159" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N159" t="n">
         <v>1.88</v>
@@ -18823,13 +19011,13 @@
         <v>1.4</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R159" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S159" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="T159" t="n">
         <v>5.1</v>
@@ -18838,7 +19026,7 @@
         <v>5.5</v>
       </c>
       <c r="V159" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="W159" t="n">
         <v>8.25</v>
@@ -18850,7 +19038,7 @@
         <v>24</v>
       </c>
       <c r="Z159" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA159" t="n">
         <v>6.5</v>
@@ -18877,7 +19065,7 @@
         <v>110</v>
       </c>
       <c r="AI159" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ159" t="n">
         <v>60</v>
@@ -18915,10 +19103,10 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H160" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I160" t="n">
         <v>2.02</v>
@@ -18971,7 +19159,7 @@
         <v>8</v>
       </c>
       <c r="AA160" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB160" t="n">
         <v>13</v>
@@ -18980,19 +19168,19 @@
         <v>60</v>
       </c>
       <c r="AD160" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE160" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AF160" t="n">
         <v>7.7</v>
       </c>
       <c r="AG160" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AH160" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI160" t="n">
         <v>14</v>
@@ -19277,13 +19465,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H163" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I163" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -19291,7 +19479,7 @@
         <v>1.2</v>
       </c>
       <c r="M163" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="N163" t="n">
         <v>1.6</v>
@@ -19302,22 +19490,22 @@
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S163" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="T163" t="n">
         <v>8.75</v>
       </c>
       <c r="U163" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V163" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W163" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="X163" t="n">
         <v>12.5</v>
@@ -19329,7 +19517,7 @@
         <v>13</v>
       </c>
       <c r="AA163" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB163" t="n">
         <v>13.5</v>
@@ -19344,19 +19532,19 @@
         <v>14</v>
       </c>
       <c r="AF163" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG163" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH163" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI163" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ163" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="164">
@@ -19394,10 +19582,10 @@
         <v>1.65</v>
       </c>
       <c r="H164" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I164" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -19437,16 +19625,16 @@
         <v>12</v>
       </c>
       <c r="Y164" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z164" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA164" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AB164" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC164" t="n">
         <v>55</v>
@@ -19455,10 +19643,10 @@
         <v>350</v>
       </c>
       <c r="AE164" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF164" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG164" t="n">
         <v>14.5</v>
@@ -19526,10 +19714,10 @@
         <v>5.5</v>
       </c>
       <c r="N165" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O165" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P165" t="n">
         <v>1.25</v>
@@ -19749,31 +19937,31 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H167" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I167" t="n">
         <v>10</v>
       </c>
       <c r="J167" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K167" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L167" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M167" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N167" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O167" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P167" t="n">
         <v>1.29</v>
@@ -19782,10 +19970,10 @@
         <v>3.5</v>
       </c>
       <c r="R167" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S167" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T167" t="n">
         <v>7.5</v>
@@ -19812,7 +20000,7 @@
         <v>12</v>
       </c>
       <c r="AB167" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC167" t="n">
         <v>81</v>
@@ -19821,7 +20009,7 @@
         <v>501</v>
       </c>
       <c r="AE167" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF167" t="n">
         <v>51</v>
@@ -19830,7 +20018,7 @@
         <v>29</v>
       </c>
       <c r="AH167" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI167" t="n">
         <v>67</v>
@@ -20502,10 +20690,10 @@
         <v>4.33</v>
       </c>
       <c r="N173" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O173" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P173" t="n">
         <v>1.3</v>
@@ -20603,7 +20791,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H174" t="n">
         <v>4</v>
@@ -20612,22 +20800,22 @@
         <v>1.83</v>
       </c>
       <c r="J174" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K174" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L174" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M174" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N174" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="O174" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="P174" t="n">
         <v>1.33</v>
@@ -20666,19 +20854,19 @@
         <v>8</v>
       </c>
       <c r="AB174" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC174" t="n">
         <v>51</v>
       </c>
       <c r="AD174" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE174" t="n">
         <v>8</v>
       </c>
       <c r="AF174" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG174" t="n">
         <v>8.5</v>
@@ -20740,16 +20928,16 @@
         <v>15</v>
       </c>
       <c r="L175" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M175" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N175" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O175" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P175" t="n">
         <v>1.3</v>
@@ -21346,10 +21534,10 @@
         <v>4.75</v>
       </c>
       <c r="J181" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K181" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L181" t="n">
         <v>1.33</v>
@@ -22441,7 +22629,7 @@
         <v>11</v>
       </c>
       <c r="I190" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J190" t="n">
         <v>1.01</v>
@@ -22468,10 +22656,10 @@
         <v>5</v>
       </c>
       <c r="R190" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S190" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T190" t="n">
         <v>12</v>
@@ -22483,16 +22671,16 @@
         <v>13</v>
       </c>
       <c r="W190" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X190" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y190" t="n">
         <v>34</v>
       </c>
       <c r="Z190" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA190" t="n">
         <v>21</v>
@@ -22503,7 +22691,9 @@
       <c r="AC190" t="n">
         <v>101</v>
       </c>
-      <c r="AD190" t="inlineStr"/>
+      <c r="AD190" t="n">
+        <v>1000</v>
+      </c>
       <c r="AE190" t="n">
         <v>41</v>
       </c>
@@ -22511,16 +22701,16 @@
         <v>101</v>
       </c>
       <c r="AG190" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH190" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AI190" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ190" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="191">
@@ -22677,13 +22867,13 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H192" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I192" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="J192" t="n">
         <v>1.03</v>
@@ -22692,10 +22882,10 @@
         <v>17</v>
       </c>
       <c r="L192" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M192" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N192" t="n">
         <v>1.53</v>
@@ -22710,13 +22900,13 @@
         <v>3.75</v>
       </c>
       <c r="R192" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S192" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T192" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="U192" t="n">
         <v>51</v>
@@ -22734,7 +22924,7 @@
         <v>67</v>
       </c>
       <c r="Z192" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA192" t="n">
         <v>12</v>
@@ -22743,10 +22933,10 @@
         <v>26</v>
       </c>
       <c r="AC192" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD192" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE192" t="n">
         <v>8</v>
@@ -22755,10 +22945,10 @@
         <v>6.5</v>
       </c>
       <c r="AG192" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH192" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI192" t="n">
         <v>11</v>
@@ -22808,10 +22998,10 @@
         <v>2.88</v>
       </c>
       <c r="J193" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K193" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L193" t="n">
         <v>1.33</v>
@@ -22820,10 +23010,10 @@
         <v>3.25</v>
       </c>
       <c r="N193" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O193" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P193" t="n">
         <v>1.4</v>
@@ -24109,7 +24299,7 @@
         <v>1.39</v>
       </c>
       <c r="M209" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="N209" t="n">
         <v>2.15</v>
@@ -24130,19 +24320,19 @@
         <v>1.78</v>
       </c>
       <c r="T209" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="U209" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V209" t="n">
         <v>9</v>
       </c>
       <c r="W209" t="n">
+        <v>17</v>
+      </c>
+      <c r="X209" t="n">
         <v>17.5</v>
-      </c>
-      <c r="X209" t="n">
-        <v>17</v>
       </c>
       <c r="Y209" t="n">
         <v>35</v>
@@ -24151,7 +24341,7 @@
         <v>6.7</v>
       </c>
       <c r="AA209" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB209" t="n">
         <v>18</v>
@@ -24169,7 +24359,7 @@
         <v>24</v>
       </c>
       <c r="AG209" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH209" t="n">
         <v>80</v>
@@ -24219,7 +24409,7 @@
         <v>3.35</v>
       </c>
       <c r="I210" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J210" t="n">
         <v>1.05</v>
@@ -24231,43 +24421,43 @@
         <v>1.26</v>
       </c>
       <c r="M210" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="N210" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O210" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P210" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q210" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="R210" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S210" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T210" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U210" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V210" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W210" t="n">
+        <v>26</v>
+      </c>
+      <c r="X210" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y210" t="n">
         <v>25</v>
-      </c>
-      <c r="X210" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y210" t="n">
-        <v>26</v>
       </c>
       <c r="Z210" t="n">
         <v>8.25</v>
@@ -24279,13 +24469,13 @@
         <v>13</v>
       </c>
       <c r="AC210" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD210" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE210" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF210" t="n">
         <v>18</v>
@@ -24297,7 +24487,7 @@
         <v>40</v>
       </c>
       <c r="AI210" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ210" t="n">
         <v>32</v>
@@ -24460,10 +24650,10 @@
         <v>2.6</v>
       </c>
       <c r="H212" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I212" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="J212" t="n">
         <v>1.07</v>
@@ -24484,7 +24674,7 @@
         <v>1.75</v>
       </c>
       <c r="P212" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q212" t="n">
         <v>2.57</v>
@@ -24496,22 +24686,22 @@
         <v>2</v>
       </c>
       <c r="T212" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U212" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V212" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W212" t="n">
         <v>29</v>
       </c>
       <c r="X212" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y212" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z212" t="n">
         <v>6.9</v>
@@ -24526,13 +24716,13 @@
         <v>60</v>
       </c>
       <c r="AD212" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE212" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF212" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG212" t="n">
         <v>9.75</v>
@@ -24541,10 +24731,10 @@
         <v>30</v>
       </c>
       <c r="AI212" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ212" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="213">
@@ -24954,22 +25144,22 @@
         <v>2.8</v>
       </c>
       <c r="J216" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K216" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L216" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M216" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N216" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O216" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P216" t="n">
         <v>1.44</v>
@@ -25198,10 +25388,10 @@
         <v>4.33</v>
       </c>
       <c r="J218" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K218" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L218" t="n">
         <v>1.33</v>
@@ -25314,10 +25504,10 @@
         <v>1.83</v>
       </c>
       <c r="H219" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I219" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J219" t="n">
         <v>1.03</v>
@@ -25332,25 +25522,25 @@
         <v>4.5</v>
       </c>
       <c r="N219" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O219" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P219" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q219" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R219" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S219" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T219" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U219" t="n">
         <v>10</v>
@@ -25368,10 +25558,10 @@
         <v>21</v>
       </c>
       <c r="Z219" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA219" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB219" t="n">
         <v>13</v>
@@ -25380,13 +25570,13 @@
         <v>41</v>
       </c>
       <c r="AD219" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE219" t="n">
         <v>15</v>
       </c>
       <c r="AF219" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG219" t="n">
         <v>13</v>
@@ -25398,7 +25588,7 @@
         <v>29</v>
       </c>
       <c r="AJ219" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="220">
@@ -25433,46 +25623,46 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H220" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I220" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J220" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K220" t="n">
+        <v>11</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M220" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N220" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P220" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>3</v>
+      </c>
+      <c r="R220" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T220" t="n">
         <v>10</v>
-      </c>
-      <c r="L220" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M220" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N220" t="n">
-        <v>2</v>
-      </c>
-      <c r="O220" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P220" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q220" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R220" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S220" t="n">
-        <v>2</v>
-      </c>
-      <c r="T220" t="n">
-        <v>9.5</v>
       </c>
       <c r="U220" t="n">
         <v>15</v>
@@ -25484,13 +25674,13 @@
         <v>29</v>
       </c>
       <c r="X220" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y220" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z220" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA220" t="n">
         <v>6</v>
@@ -25502,13 +25692,13 @@
         <v>41</v>
       </c>
       <c r="AD220" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE220" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF220" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG220" t="n">
         <v>10</v>
@@ -25677,13 +25867,13 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H222" t="n">
         <v>3.3</v>
       </c>
       <c r="I222" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J222" t="n">
         <v>1.07</v>
@@ -25710,22 +25900,22 @@
         <v>2.63</v>
       </c>
       <c r="R222" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S222" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T222" t="n">
         <v>6</v>
       </c>
       <c r="U222" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V222" t="n">
         <v>9</v>
       </c>
       <c r="W222" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X222" t="n">
         <v>17</v>
@@ -25749,13 +25939,13 @@
         <v>1000</v>
       </c>
       <c r="AE222" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF222" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG222" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH222" t="n">
         <v>51</v>
@@ -25764,7 +25954,7 @@
         <v>41</v>
       </c>
       <c r="AJ222" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="223">
@@ -26043,13 +26233,13 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H225" t="n">
         <v>2.88</v>
       </c>
       <c r="I225" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J225" t="n">
         <v>1.1</v>
@@ -26082,10 +26272,10 @@
         <v>1.67</v>
       </c>
       <c r="T225" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U225" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V225" t="n">
         <v>13</v>
@@ -26094,7 +26284,7 @@
         <v>34</v>
       </c>
       <c r="X225" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y225" t="n">
         <v>41</v>
@@ -26124,7 +26314,7 @@
         <v>11</v>
       </c>
       <c r="AH225" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI225" t="n">
         <v>23</v>
@@ -27141,19 +27331,19 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H234" t="n">
         <v>3.6</v>
       </c>
       <c r="I234" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J234" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K234" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L234" t="n">
         <v>1.2</v>
@@ -27162,10 +27352,10 @@
         <v>4.33</v>
       </c>
       <c r="N234" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O234" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P234" t="n">
         <v>1.3</v>
@@ -27195,7 +27385,7 @@
         <v>23</v>
       </c>
       <c r="Y234" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z234" t="n">
         <v>13</v>
@@ -27204,7 +27394,7 @@
         <v>7</v>
       </c>
       <c r="AB234" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC234" t="n">
         <v>41</v>
@@ -27216,7 +27406,7 @@
         <v>9.5</v>
       </c>
       <c r="AF234" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG234" t="n">
         <v>9</v>
@@ -27225,7 +27415,7 @@
         <v>21</v>
       </c>
       <c r="AI234" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ234" t="n">
         <v>23</v>
@@ -27760,37 +27950,37 @@
         <v>2.55</v>
       </c>
       <c r="J239" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K239" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L239" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M239" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N239" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="O239" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="P239" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q239" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R239" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S239" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T239" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U239" t="n">
         <v>13</v>
@@ -27802,13 +27992,13 @@
         <v>26</v>
       </c>
       <c r="X239" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y239" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z239" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA239" t="n">
         <v>6</v>
@@ -27820,13 +28010,13 @@
         <v>51</v>
       </c>
       <c r="AD239" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE239" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF239" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG239" t="n">
         <v>10</v>
@@ -27838,7 +28028,7 @@
         <v>21</v>
       </c>
       <c r="AJ239" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="240">
@@ -27876,43 +28066,43 @@
         <v>2.1</v>
       </c>
       <c r="H240" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I240" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K240" t="n">
+        <v>12</v>
+      </c>
+      <c r="L240" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M240" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N240" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O240" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q240" t="n">
         <v>3.25</v>
       </c>
-      <c r="J240" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K240" t="n">
-        <v>11</v>
-      </c>
-      <c r="L240" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M240" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N240" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O240" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P240" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q240" t="n">
-        <v>2.75</v>
-      </c>
       <c r="R240" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S240" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T240" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U240" t="n">
         <v>11</v>
@@ -27927,10 +28117,10 @@
         <v>17</v>
       </c>
       <c r="Y240" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z240" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA240" t="n">
         <v>6.5</v>
@@ -27942,25 +28132,25 @@
         <v>41</v>
       </c>
       <c r="AD240" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE240" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF240" t="n">
         <v>17</v>
       </c>
       <c r="AG240" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH240" t="n">
         <v>34</v>
       </c>
       <c r="AI240" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ240" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="241">
@@ -28016,10 +28206,10 @@
         <v>3.75</v>
       </c>
       <c r="N241" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O241" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P241" t="n">
         <v>1.36</v>
@@ -29093,19 +29283,19 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H250" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I250" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="J250" t="n">
         <v>1.03</v>
       </c>
       <c r="K250" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L250" t="n">
         <v>1.17</v>
@@ -29349,7 +29539,7 @@
         <v>1.03</v>
       </c>
       <c r="K252" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L252" t="n">
         <v>1.17</v>
@@ -30536,10 +30726,10 @@
         <v>1.72</v>
       </c>
       <c r="T262" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U262" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="V262" t="n">
         <v>9.5</v>
@@ -30569,7 +30759,7 @@
         <v>900</v>
       </c>
       <c r="AE262" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AF262" t="n">
         <v>14.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-27.xlsx
@@ -656,10 +656,10 @@
         <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
         <v>1.22</v>
@@ -704,7 +704,7 @@
         <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>8.5</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
         <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L5" t="n">
         <v>1.2</v>
@@ -1034,10 +1034,10 @@
         <v>4.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P5" t="n">
         <v>1.29</v>
@@ -1055,7 +1055,7 @@
         <v>8.5</v>
       </c>
       <c r="U5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V5" t="n">
         <v>8.5</v>
@@ -1082,13 +1082,13 @@
         <v>41</v>
       </c>
       <c r="AD5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG5" t="n">
         <v>17</v>
@@ -1507,7 +1507,7 @@
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1638,16 +1638,16 @@
         <v>11</v>
       </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N10" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="O10" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -2254,10 +2254,10 @@
         <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P15" t="n">
         <v>1.29</v>
@@ -2365,7 +2365,7 @@
         <v>1.03</v>
       </c>
       <c r="K16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L16" t="n">
         <v>1.17</v>
@@ -2374,10 +2374,10 @@
         <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="P16" t="n">
         <v>1.25</v>
@@ -2597,25 +2597,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N18" t="n">
         <v>2.05</v>
@@ -2654,10 +2654,10 @@
         <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB18" t="n">
         <v>17</v>
@@ -2666,13 +2666,13 @@
         <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
@@ -2681,7 +2681,7 @@
         <v>51</v>
       </c>
       <c r="AI18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ18" t="n">
         <v>41</v>
@@ -2728,10 +2728,10 @@
         <v>5.75</v>
       </c>
       <c r="J19" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L19" t="n">
         <v>1.17</v>
@@ -3094,10 +3094,10 @@
         <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>1.22</v>
@@ -3216,10 +3216,10 @@
         <v>4.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L23" t="n">
         <v>1.44</v>
@@ -5978,10 +5978,10 @@
         <v>3.75</v>
       </c>
       <c r="N48" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O48" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P48" t="n">
         <v>1.36</v>
@@ -6875,19 +6875,19 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I57" t="n">
         <v>8</v>
       </c>
       <c r="J57" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L57" t="n">
         <v>1.33</v>
@@ -6908,10 +6908,10 @@
         <v>2.75</v>
       </c>
       <c r="R57" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S57" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T57" t="n">
         <v>6</v>
@@ -6920,7 +6920,7 @@
         <v>6</v>
       </c>
       <c r="V57" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W57" t="n">
         <v>9.5</v>
@@ -6935,13 +6935,13 @@
         <v>9</v>
       </c>
       <c r="AA57" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB57" t="n">
         <v>21</v>
       </c>
       <c r="AC57" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD57" t="n">
         <v>501</v>
@@ -6956,10 +6956,10 @@
         <v>23</v>
       </c>
       <c r="AH57" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ57" t="n">
         <v>67</v>
@@ -6997,7 +6997,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H58" t="n">
         <v>3.5</v>
@@ -7119,7 +7119,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H59" t="n">
         <v>4</v>
@@ -7128,10 +7128,10 @@
         <v>5.25</v>
       </c>
       <c r="J59" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L59" t="n">
         <v>1.3</v>
@@ -7241,13 +7241,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H60" t="n">
         <v>3.4</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J60" t="n">
         <v>1.08</v>
@@ -7262,10 +7262,10 @@
         <v>2.75</v>
       </c>
       <c r="N60" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O60" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P60" t="n">
         <v>1.5</v>
@@ -7289,7 +7289,7 @@
         <v>10</v>
       </c>
       <c r="W60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X60" t="n">
         <v>21</v>
@@ -7298,13 +7298,13 @@
         <v>34</v>
       </c>
       <c r="Z60" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA60" t="n">
         <v>6.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC60" t="n">
         <v>67</v>
@@ -7319,13 +7319,13 @@
         <v>13</v>
       </c>
       <c r="AG60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH60" t="n">
         <v>34</v>
       </c>
       <c r="AI60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ60" t="n">
         <v>41</v>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H61" t="n">
         <v>3.1</v>
@@ -7729,94 +7729,94 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="H64" t="n">
-        <v>2.7</v>
+        <v>2.57</v>
       </c>
       <c r="I64" t="n">
-        <v>5.4</v>
+        <v>4.35</v>
       </c>
       <c r="J64" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="K64" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L64" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M64" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="N64" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="O64" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P64" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R64" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S64" t="n">
         <v>1.65</v>
       </c>
       <c r="T64" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="U64" t="n">
-        <v>7.8</v>
+        <v>9.25</v>
       </c>
       <c r="V64" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W64" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="X64" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Y64" t="n">
         <v>40</v>
       </c>
       <c r="Z64" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AA64" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AB64" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC64" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD64" t="n">
         <v>101</v>
       </c>
       <c r="AE64" t="n">
-        <v>10.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF64" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AG64" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AI64" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AJ64" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65">
@@ -8701,13 +8701,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H72" t="n">
         <v>3.3</v>
       </c>
       <c r="I72" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J72" t="n">
         <v>1.05</v>
@@ -8740,7 +8740,7 @@
         <v>2.1</v>
       </c>
       <c r="T72" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U72" t="n">
         <v>12</v>
@@ -8749,10 +8749,10 @@
         <v>9.5</v>
       </c>
       <c r="W72" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X72" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y72" t="n">
         <v>26</v>
@@ -8773,7 +8773,7 @@
         <v>151</v>
       </c>
       <c r="AE72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF72" t="n">
         <v>15</v>
@@ -8782,10 +8782,10 @@
         <v>11</v>
       </c>
       <c r="AH72" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI72" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ72" t="n">
         <v>29</v>
@@ -9332,10 +9332,10 @@
         <v>3.75</v>
       </c>
       <c r="N77" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="O77" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="P77" t="n">
         <v>1.36</v>
@@ -9555,10 +9555,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H79" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I79" t="n">
         <v>4.2</v>
@@ -9567,37 +9567,37 @@
         <v>1.03</v>
       </c>
       <c r="K79" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L79" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M79" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N79" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O79" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P79" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q79" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R79" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S79" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U79" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V79" t="n">
         <v>8.5</v>
@@ -9612,7 +9612,7 @@
         <v>21</v>
       </c>
       <c r="Z79" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA79" t="n">
         <v>8</v>
@@ -9624,7 +9624,7 @@
         <v>41</v>
       </c>
       <c r="AD79" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE79" t="n">
         <v>15</v>
@@ -9642,7 +9642,7 @@
         <v>29</v>
       </c>
       <c r="AJ79" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
@@ -10039,80 +10039,80 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="H83" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I83" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M83" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="N83" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="O83" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S83" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="T83" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="U83" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="V83" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W83" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X83" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y83" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA83" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB83" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC83" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AD83" t="n">
         <v>1000</v>
       </c>
       <c r="AE83" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AF83" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AG83" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH83" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AI83" t="n">
         <v>150</v>
@@ -11248,13 +11248,13 @@
         <v>1.83</v>
       </c>
       <c r="J93" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K93" t="n">
         <v>9</v>
       </c>
       <c r="L93" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
@@ -11370,13 +11370,13 @@
         <v>4.75</v>
       </c>
       <c r="J94" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K94" t="n">
         <v>9</v>
       </c>
       <c r="L94" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
@@ -11482,36 +11482,96 @@
           <t>Sesvete</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
-      <c r="AA95" t="inlineStr"/>
-      <c r="AB95" t="inlineStr"/>
-      <c r="AC95" t="inlineStr"/>
-      <c r="AD95" t="inlineStr"/>
-      <c r="AE95" t="inlineStr"/>
-      <c r="AF95" t="inlineStr"/>
-      <c r="AG95" t="inlineStr"/>
-      <c r="AH95" t="inlineStr"/>
-      <c r="AI95" t="inlineStr"/>
-      <c r="AJ95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H95" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K95" t="n">
+        <v>7</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N95" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T95" t="n">
+        <v>6</v>
+      </c>
+      <c r="U95" t="n">
+        <v>9</v>
+      </c>
+      <c r="V95" t="n">
+        <v>10</v>
+      </c>
+      <c r="W95" t="n">
+        <v>19</v>
+      </c>
+      <c r="X95" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11676,16 +11736,16 @@
         <v>4.33</v>
       </c>
       <c r="J97" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K97" t="n">
         <v>9</v>
       </c>
       <c r="L97" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M97" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N97" t="n">
         <v>2.2</v>
@@ -11798,13 +11858,13 @@
         <v>4.5</v>
       </c>
       <c r="J98" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K98" t="n">
         <v>12</v>
       </c>
       <c r="L98" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
@@ -11920,13 +11980,13 @@
         <v>2.9</v>
       </c>
       <c r="J99" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K99" t="n">
         <v>12</v>
       </c>
       <c r="L99" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M99" t="n">
         <v>3.75</v>
@@ -12155,31 +12215,31 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H101" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J101" t="n">
         <v>1.06</v>
       </c>
       <c r="K101" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L101" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M101" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N101" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O101" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P101" t="n">
         <v>1.4</v>
@@ -12188,31 +12248,31 @@
         <v>2.75</v>
       </c>
       <c r="R101" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S101" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T101" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U101" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V101" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W101" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X101" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y101" t="n">
         <v>29</v>
       </c>
       <c r="Z101" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA101" t="n">
         <v>6.5</v>
@@ -12227,22 +12287,22 @@
         <v>251</v>
       </c>
       <c r="AE101" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF101" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AG101" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH101" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI101" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ101" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102">
@@ -12521,19 +12581,19 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H104" t="n">
         <v>3.5</v>
       </c>
       <c r="I104" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J104" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K104" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L104" t="n">
         <v>1.36</v>
@@ -12566,7 +12626,7 @@
         <v>15</v>
       </c>
       <c r="V104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W104" t="n">
         <v>34</v>
@@ -12596,13 +12656,13 @@
         <v>7</v>
       </c>
       <c r="AF104" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG104" t="n">
         <v>9.5</v>
       </c>
       <c r="AH104" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI104" t="n">
         <v>19</v>
@@ -12643,13 +12703,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H105" t="n">
         <v>3.9</v>
       </c>
       <c r="I105" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J105" t="n">
         <v>1.03</v>
@@ -12658,10 +12718,10 @@
         <v>17</v>
       </c>
       <c r="L105" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M105" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N105" t="n">
         <v>1.53</v>
@@ -12727,7 +12787,7 @@
         <v>34</v>
       </c>
       <c r="AI105" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ105" t="n">
         <v>23</v>
@@ -12765,13 +12825,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H106" t="n">
         <v>3.9</v>
       </c>
       <c r="I106" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J106" t="n">
         <v>1.03</v>
@@ -12792,10 +12852,10 @@
         <v>2.35</v>
       </c>
       <c r="P106" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q106" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R106" t="n">
         <v>1.57</v>
@@ -12804,16 +12864,16 @@
         <v>2.25</v>
       </c>
       <c r="T106" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U106" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V106" t="n">
         <v>8.5</v>
       </c>
       <c r="W106" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X106" t="n">
         <v>12</v>
@@ -12840,16 +12900,16 @@
         <v>17</v>
       </c>
       <c r="AF106" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG106" t="n">
         <v>15</v>
       </c>
       <c r="AH106" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI106" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ106" t="n">
         <v>34</v>
@@ -12896,13 +12956,13 @@
         <v>3.75</v>
       </c>
       <c r="J107" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K107" t="n">
         <v>11</v>
       </c>
       <c r="L107" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M107" t="n">
         <v>3.75</v>
@@ -13018,13 +13078,13 @@
         <v>2.05</v>
       </c>
       <c r="J108" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K108" t="n">
         <v>8.5</v>
       </c>
       <c r="L108" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
@@ -13140,16 +13200,16 @@
         <v>3.6</v>
       </c>
       <c r="J109" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K109" t="n">
         <v>8</v>
       </c>
       <c r="L109" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M109" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N109" t="n">
         <v>2.4</v>
@@ -13262,13 +13322,13 @@
         <v>3.3</v>
       </c>
       <c r="J110" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K110" t="n">
         <v>8.5</v>
       </c>
       <c r="L110" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M110" t="n">
         <v>3</v>
@@ -13375,22 +13435,22 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H111" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I111" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J111" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K111" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L111" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
@@ -13414,22 +13474,22 @@
         <v>1.91</v>
       </c>
       <c r="T111" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U111" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V111" t="n">
         <v>8.5</v>
       </c>
       <c r="W111" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X111" t="n">
         <v>12</v>
       </c>
       <c r="Y111" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z111" t="n">
         <v>12</v>
@@ -13444,7 +13504,7 @@
         <v>51</v>
       </c>
       <c r="AD111" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE111" t="n">
         <v>17</v>
@@ -13453,16 +13513,16 @@
         <v>34</v>
       </c>
       <c r="AG111" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH111" t="n">
         <v>67</v>
       </c>
       <c r="AI111" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ111" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112">
@@ -13497,41 +13557,87 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.16</v>
+        <v>1.88</v>
       </c>
       <c r="H112" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I112" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1.9</v>
+      </c>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
-      <c r="AA112" t="inlineStr"/>
-      <c r="AB112" t="inlineStr"/>
-      <c r="AC112" t="inlineStr"/>
-      <c r="AD112" t="inlineStr"/>
-      <c r="AE112" t="inlineStr"/>
-      <c r="AF112" t="inlineStr"/>
-      <c r="AG112" t="inlineStr"/>
-      <c r="AH112" t="inlineStr"/>
-      <c r="AI112" t="inlineStr"/>
-      <c r="AJ112" t="inlineStr"/>
+      <c r="R112" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S112" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="T112" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U112" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V112" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="W112" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X112" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13565,41 +13671,87 @@
         </is>
       </c>
       <c r="G113" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H113" t="n">
         <v>3.65</v>
       </c>
-      <c r="H113" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I113" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M113" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1.98</v>
+      </c>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="inlineStr"/>
-      <c r="AA113" t="inlineStr"/>
-      <c r="AB113" t="inlineStr"/>
-      <c r="AC113" t="inlineStr"/>
-      <c r="AD113" t="inlineStr"/>
-      <c r="AE113" t="inlineStr"/>
-      <c r="AF113" t="inlineStr"/>
-      <c r="AG113" t="inlineStr"/>
-      <c r="AH113" t="inlineStr"/>
-      <c r="AI113" t="inlineStr"/>
-      <c r="AJ113" t="inlineStr"/>
+      <c r="R113" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S113" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="T113" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="U113" t="n">
+        <v>16</v>
+      </c>
+      <c r="V113" t="n">
+        <v>10</v>
+      </c>
+      <c r="W113" t="n">
+        <v>35</v>
+      </c>
+      <c r="X113" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14173,19 +14325,19 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H119" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I119" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J119" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K119" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L119" t="n">
         <v>1.11</v>
@@ -14194,10 +14346,10 @@
         <v>6.5</v>
       </c>
       <c r="N119" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O119" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="P119" t="n">
         <v>1.2</v>
@@ -14221,7 +14373,7 @@
         <v>9</v>
       </c>
       <c r="W119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X119" t="n">
         <v>11</v>
@@ -14239,7 +14391,7 @@
         <v>15</v>
       </c>
       <c r="AC119" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD119" t="n">
         <v>101</v>
@@ -14257,10 +14409,10 @@
         <v>51</v>
       </c>
       <c r="AI119" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ119" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120">
@@ -14316,10 +14468,10 @@
         <v>4.33</v>
       </c>
       <c r="N120" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O120" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P120" t="n">
         <v>1.33</v>
@@ -14554,16 +14706,16 @@
         <v>15</v>
       </c>
       <c r="L122" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M122" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N122" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O122" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P122" t="n">
         <v>1.3</v>
@@ -15149,90 +15301,90 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.57</v>
+        <v>2.9</v>
       </c>
       <c r="H127" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I127" t="n">
-        <v>2.57</v>
+        <v>2.27</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="M127" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N127" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="O127" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="P127" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="Q127" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="R127" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="S127" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="T127" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="U127" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V127" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="W127" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="X127" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Y127" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="Z127" t="n">
-        <v>10.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA127" t="n">
         <v>6.3</v>
       </c>
       <c r="AB127" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AC127" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AD127" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AE127" t="n">
-        <v>8.75</v>
+        <v>7</v>
       </c>
       <c r="AF127" t="n">
-        <v>13.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG127" t="n">
         <v>9.5</v>
       </c>
       <c r="AH127" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AI127" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ127" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128">
@@ -15267,78 +15419,78 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.9</v>
+        <v>7.6</v>
       </c>
       <c r="H128" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I128" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="O128" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="U128" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="V128" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="W128" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="X128" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="Y128" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="Z128" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA128" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB128" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC128" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AD128" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AE128" t="n">
-        <v>6.9</v>
+        <v>5.2</v>
       </c>
       <c r="AF128" t="n">
-        <v>6.9</v>
+        <v>5.2</v>
       </c>
       <c r="AG128" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AH128" t="n">
-        <v>9.75</v>
+        <v>7.3</v>
       </c>
       <c r="AI128" t="n">
         <v>9.75</v>
       </c>
       <c r="AJ128" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129">
@@ -15373,74 +15525,80 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="H129" t="n">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="I129" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="n">
-        <v>1.7</v>
+        <v>2.22</v>
       </c>
       <c r="O129" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
+        <v>1.52</v>
+      </c>
+      <c r="P129" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>2.3</v>
+      </c>
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="n">
-        <v>4.85</v>
+        <v>3.5</v>
       </c>
       <c r="U129" t="n">
-        <v>4.05</v>
+        <v>3.5</v>
       </c>
       <c r="V129" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="W129" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="X129" t="n">
-        <v>11.25</v>
+        <v>14.5</v>
       </c>
       <c r="Y129" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB129" t="n">
         <v>50</v>
       </c>
-      <c r="Z129" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA129" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB129" t="n">
-        <v>40</v>
-      </c>
       <c r="AC129" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="AD129" t="inlineStr"/>
       <c r="AE129" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AF129" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG129" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH129" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>200</v>
+      </c>
       <c r="AI129" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AJ129" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
     </row>
     <row r="130">
@@ -15475,18 +15633,22 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.87</v>
+        <v>2.02</v>
       </c>
       <c r="H130" t="n">
-        <v>3.2</v>
+        <v>2.57</v>
       </c>
       <c r="I130" t="n">
-        <v>2.22</v>
+        <v>4.4</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M130" t="n">
+        <v>2.15</v>
+      </c>
       <c r="N130" t="n">
         <v>2.05</v>
       </c>
@@ -15494,63 +15656,63 @@
         <v>1.62</v>
       </c>
       <c r="P130" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.35</v>
+        <v>2.07</v>
       </c>
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="n">
-        <v>6.9</v>
+        <v>4.4</v>
       </c>
       <c r="U130" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="V130" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="W130" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="X130" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="Y130" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z130" t="n">
-        <v>8.25</v>
+        <v>5.3</v>
       </c>
       <c r="AA130" t="n">
-        <v>5.5</v>
+        <v>4.65</v>
       </c>
       <c r="AB130" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC130" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AD130" t="n">
         <v>450</v>
       </c>
       <c r="AE130" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AF130" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AG130" t="n">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="AH130" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AI130" t="n">
-        <v>15.5</v>
+        <v>40</v>
       </c>
       <c r="AJ130" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131">
@@ -16667,13 +16829,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H140" t="n">
         <v>3</v>
       </c>
       <c r="I140" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J140" t="n">
         <v>1.11</v>
@@ -16712,10 +16874,10 @@
         <v>11</v>
       </c>
       <c r="V140" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W140" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X140" t="n">
         <v>23</v>
@@ -17402,16 +17564,16 @@
         <v>2.62</v>
       </c>
       <c r="H146" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I146" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="J146" t="n">
         <v>1.07</v>
       </c>
       <c r="K146" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="L146" t="n">
         <v>1.35</v>
@@ -17426,16 +17588,16 @@
         <v>1.7</v>
       </c>
       <c r="P146" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R146" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S146" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T146" t="n">
         <v>8</v>
@@ -17447,7 +17609,7 @@
         <v>10</v>
       </c>
       <c r="W146" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X146" t="n">
         <v>23</v>
@@ -17456,22 +17618,22 @@
         <v>35</v>
       </c>
       <c r="Z146" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AA146" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB146" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC146" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD146" t="n">
         <v>600</v>
       </c>
       <c r="AE146" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AF146" t="n">
         <v>12</v>
@@ -17480,10 +17642,10 @@
         <v>9.75</v>
       </c>
       <c r="AH146" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI146" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ146" t="n">
         <v>32</v>
@@ -17765,25 +17927,25 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I149" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J149" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K149" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="L149" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M149" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="N149" t="n">
         <v>2.05</v>
@@ -17795,40 +17957,40 @@
         <v>1.42</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R149" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S149" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T149" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="U149" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="V149" t="n">
         <v>8.25</v>
       </c>
       <c r="W149" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X149" t="n">
         <v>14.5</v>
       </c>
       <c r="Y149" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z149" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AA149" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AB149" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC149" t="n">
         <v>100</v>
@@ -17837,22 +17999,22 @@
         <v>900</v>
       </c>
       <c r="AE149" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF149" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG149" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH149" t="n">
         <v>100</v>
       </c>
       <c r="AI149" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ149" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="150">
@@ -18009,70 +18171,70 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="H151" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="I151" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="J151" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="K151" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="L151" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M151" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N151" t="n">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="O151" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="P151" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="R151" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S151" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="T151" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="U151" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="V151" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W151" t="n">
+        <v>20</v>
+      </c>
+      <c r="X151" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB151" t="n">
         <v>15.5</v>
-      </c>
-      <c r="X151" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y151" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z151" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AA151" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB151" t="n">
-        <v>16</v>
       </c>
       <c r="AC151" t="n">
         <v>80</v>
@@ -18081,13 +18243,13 @@
         <v>700</v>
       </c>
       <c r="AE151" t="n">
-        <v>10.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF151" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AG151" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH151" t="n">
         <v>50</v>
@@ -18497,94 +18659,94 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H155" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="I155" t="n">
         <v>2.67</v>
       </c>
       <c r="J155" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K155" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L155" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M155" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="N155" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O155" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P155" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q155" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="R155" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S155" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T155" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U155" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="V155" t="n">
         <v>10.25</v>
       </c>
       <c r="W155" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X155" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y155" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z155" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AA155" t="n">
         <v>5.1</v>
       </c>
       <c r="AB155" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC155" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD155" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE155" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AF155" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG155" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH155" t="n">
         <v>35</v>
       </c>
       <c r="AI155" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ155" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156">
@@ -18619,49 +18781,49 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H156" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="I156" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="J156" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K156" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="L156" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="M156" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N156" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="O156" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="P156" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.62</v>
+        <v>2.37</v>
       </c>
       <c r="R156" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S156" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T156" t="n">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="U156" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="V156" t="n">
         <v>9.25</v>
@@ -18670,22 +18832,22 @@
         <v>20</v>
       </c>
       <c r="X156" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y156" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z156" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="AA156" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AB156" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AC156" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AD156" t="n">
         <v>800</v>
@@ -18694,19 +18856,19 @@
         <v>8.25</v>
       </c>
       <c r="AF156" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AG156" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH156" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI156" t="n">
         <v>37</v>
       </c>
-      <c r="AI156" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ156" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157">
@@ -18741,94 +18903,94 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="H157" t="n">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="I157" t="n">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="J157" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="K157" t="n">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="L157" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="M157" t="n">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="N157" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="O157" t="n">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="P157" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="Q157" t="n">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="R157" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="S157" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="T157" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="U157" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V157" t="n">
+        <v>9</v>
+      </c>
+      <c r="W157" t="n">
+        <v>28</v>
+      </c>
+      <c r="X157" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE157" t="n">
         <v>9.75</v>
       </c>
-      <c r="W157" t="n">
-        <v>35</v>
-      </c>
-      <c r="X157" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y157" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z157" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AA157" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB157" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC157" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD157" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE157" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AF157" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AG157" t="n">
         <v>10</v>
       </c>
       <c r="AH157" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AI157" t="n">
         <v>25</v>
       </c>
       <c r="AJ157" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158">
@@ -18875,7 +19037,7 @@
         <v>1.06</v>
       </c>
       <c r="K158" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="L158" t="n">
         <v>1.3</v>
@@ -18884,7 +19046,7 @@
         <v>3.2</v>
       </c>
       <c r="N158" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O158" t="n">
         <v>1.82</v>
@@ -18893,34 +19055,34 @@
         <v>1.42</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R158" t="n">
         <v>1.72</v>
       </c>
       <c r="S158" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T158" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U158" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="V158" t="n">
         <v>9</v>
       </c>
       <c r="W158" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X158" t="n">
         <v>18</v>
       </c>
       <c r="Y158" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z158" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA158" t="n">
         <v>6.4</v>
@@ -18935,19 +19097,19 @@
         <v>450</v>
       </c>
       <c r="AE158" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF158" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG158" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH158" t="n">
         <v>37</v>
       </c>
       <c r="AI158" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ158" t="n">
         <v>32</v>
@@ -19221,31 +19383,31 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H161" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I161" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K161" t="n">
+        <v>9</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M161" t="n">
         <v>3.4</v>
       </c>
-      <c r="I161" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J161" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K161" t="n">
-        <v>11</v>
-      </c>
-      <c r="L161" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M161" t="n">
-        <v>3.5</v>
-      </c>
       <c r="N161" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O161" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="P161" t="n">
         <v>1.4</v>
@@ -19254,10 +19416,10 @@
         <v>2.75</v>
       </c>
       <c r="R161" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S161" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T161" t="n">
         <v>8.5</v>
@@ -19278,19 +19440,19 @@
         <v>29</v>
       </c>
       <c r="Z161" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA161" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB161" t="n">
         <v>13</v>
       </c>
       <c r="AC161" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD161" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE161" t="n">
         <v>9</v>
@@ -19299,16 +19461,16 @@
         <v>13</v>
       </c>
       <c r="AG161" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH161" t="n">
         <v>29</v>
       </c>
       <c r="AI161" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ161" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162">
@@ -19349,7 +19511,7 @@
         <v>3.5</v>
       </c>
       <c r="I162" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J162" t="n">
         <v>1.04</v>
@@ -19370,10 +19532,10 @@
         <v>2.1</v>
       </c>
       <c r="P162" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q162" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R162" t="n">
         <v>1.62</v>
@@ -19388,7 +19550,7 @@
         <v>11</v>
       </c>
       <c r="V162" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W162" t="n">
         <v>19</v>
@@ -19403,10 +19565,10 @@
         <v>13</v>
       </c>
       <c r="AA162" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB162" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC162" t="n">
         <v>41</v>
@@ -19418,10 +19580,10 @@
         <v>13</v>
       </c>
       <c r="AF162" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG162" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH162" t="n">
         <v>41</v>
@@ -19514,7 +19676,7 @@
         <v>21</v>
       </c>
       <c r="Z163" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA163" t="n">
         <v>7.5</v>
@@ -19532,13 +19694,13 @@
         <v>14</v>
       </c>
       <c r="AF163" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG163" t="n">
         <v>14</v>
       </c>
       <c r="AH163" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI163" t="n">
         <v>37</v>
@@ -19582,10 +19744,10 @@
         <v>1.65</v>
       </c>
       <c r="H164" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I164" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -19604,10 +19766,10 @@
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S164" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T164" t="n">
         <v>8.5</v>
@@ -19616,43 +19778,43 @@
         <v>8.75</v>
       </c>
       <c r="V164" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W164" t="n">
         <v>13</v>
       </c>
       <c r="X164" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y164" t="n">
         <v>21</v>
       </c>
       <c r="Z164" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB164" t="n">
         <v>14</v>
       </c>
-      <c r="AA164" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AB164" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AC164" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD164" t="n">
         <v>350</v>
       </c>
       <c r="AE164" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF164" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG164" t="n">
         <v>14.5</v>
       </c>
       <c r="AH164" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI164" t="n">
         <v>37</v>
@@ -19702,10 +19864,10 @@
         <v>6</v>
       </c>
       <c r="J165" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K165" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L165" t="n">
         <v>1.14</v>
@@ -19714,10 +19876,10 @@
         <v>5.5</v>
       </c>
       <c r="N165" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O165" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P165" t="n">
         <v>1.25</v>
@@ -20190,16 +20352,16 @@
         <v>1.91</v>
       </c>
       <c r="J169" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K169" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L169" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M169" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N169" t="n">
         <v>2.1</v>
@@ -20860,13 +21022,13 @@
         <v>51</v>
       </c>
       <c r="AD174" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE174" t="n">
         <v>8</v>
       </c>
       <c r="AF174" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG174" t="n">
         <v>8.5</v>
@@ -21059,7 +21221,7 @@
         <v>2.5</v>
       </c>
       <c r="O176" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P176" t="n">
         <v>1.57</v>
@@ -21181,7 +21343,7 @@
         <v>2.4</v>
       </c>
       <c r="O177" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P177" t="n">
         <v>1.5</v>
@@ -22046,7 +22208,7 @@
         <v>3</v>
       </c>
       <c r="R185" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S185" t="n">
         <v>2.05</v>
@@ -22144,22 +22306,22 @@
         <v>2.55</v>
       </c>
       <c r="J186" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K186" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L186" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M186" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N186" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O186" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P186" t="n">
         <v>1.44</v>
@@ -22168,10 +22330,10 @@
         <v>2.63</v>
       </c>
       <c r="R186" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S186" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T186" t="n">
         <v>8</v>
@@ -22290,7 +22452,7 @@
         <v>3.4</v>
       </c>
       <c r="R187" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S187" t="n">
         <v>2.2</v>
@@ -22412,10 +22574,10 @@
         <v>2.75</v>
       </c>
       <c r="R188" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S188" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T188" t="n">
         <v>11</v>
@@ -22692,7 +22854,7 @@
         <v>101</v>
       </c>
       <c r="AD190" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE190" t="n">
         <v>41</v>
@@ -22745,13 +22907,13 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H191" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I191" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J191" t="n">
         <v>1.04</v>
@@ -22772,10 +22934,10 @@
         <v>2.03</v>
       </c>
       <c r="P191" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q191" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R191" t="n">
         <v>1.95</v>
@@ -22793,10 +22955,10 @@
         <v>8.5</v>
       </c>
       <c r="W191" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X191" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y191" t="n">
         <v>26</v>
@@ -22808,7 +22970,7 @@
         <v>8</v>
       </c>
       <c r="AB191" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC191" t="n">
         <v>51</v>
@@ -22879,7 +23041,7 @@
         <v>1.03</v>
       </c>
       <c r="K192" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L192" t="n">
         <v>1.17</v>
@@ -22900,13 +23062,13 @@
         <v>3.75</v>
       </c>
       <c r="R192" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S192" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T192" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U192" t="n">
         <v>51</v>
@@ -22915,13 +23077,13 @@
         <v>34</v>
       </c>
       <c r="W192" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="X192" t="n">
+        <v>101</v>
+      </c>
+      <c r="Y192" t="n">
         <v>81</v>
-      </c>
-      <c r="Y192" t="n">
-        <v>67</v>
       </c>
       <c r="Z192" t="n">
         <v>15</v>
@@ -22936,16 +23098,16 @@
         <v>81</v>
       </c>
       <c r="AD192" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE192" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF192" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG192" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH192" t="n">
         <v>7</v>
@@ -22989,19 +23151,19 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H193" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I193" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J193" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K193" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L193" t="n">
         <v>1.33</v>
@@ -23016,10 +23178,10 @@
         <v>1.73</v>
       </c>
       <c r="P193" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q193" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R193" t="n">
         <v>1.8</v>
@@ -23037,13 +23199,13 @@
         <v>10</v>
       </c>
       <c r="W193" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X193" t="n">
         <v>21</v>
       </c>
       <c r="Y193" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z193" t="n">
         <v>9</v>
@@ -23061,7 +23223,7 @@
         <v>251</v>
       </c>
       <c r="AE193" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF193" t="n">
         <v>13</v>
@@ -23123,7 +23285,7 @@
         <v>1.06</v>
       </c>
       <c r="K194" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L194" t="n">
         <v>1.3</v>
@@ -23132,10 +23294,10 @@
         <v>3.4</v>
       </c>
       <c r="N194" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O194" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P194" t="n">
         <v>1.4</v>
@@ -23364,10 +23526,10 @@
         <v>1.62</v>
       </c>
       <c r="J196" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K196" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L196" t="n">
         <v>1.33</v>
@@ -24094,36 +24256,92 @@
           <t>OFK Beograd</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr"/>
+      <c r="G206" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H206" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I206" t="n">
+        <v>8.75</v>
+      </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="inlineStr"/>
-      <c r="N206" t="inlineStr"/>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="inlineStr"/>
-      <c r="T206" t="inlineStr"/>
-      <c r="U206" t="inlineStr"/>
-      <c r="V206" t="inlineStr"/>
-      <c r="W206" t="inlineStr"/>
-      <c r="X206" t="inlineStr"/>
-      <c r="Y206" t="inlineStr"/>
-      <c r="Z206" t="inlineStr"/>
-      <c r="AA206" t="inlineStr"/>
-      <c r="AB206" t="inlineStr"/>
-      <c r="AC206" t="inlineStr"/>
-      <c r="AD206" t="inlineStr"/>
-      <c r="AE206" t="inlineStr"/>
-      <c r="AF206" t="inlineStr"/>
-      <c r="AG206" t="inlineStr"/>
-      <c r="AH206" t="inlineStr"/>
-      <c r="AI206" t="inlineStr"/>
-      <c r="AJ206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M206" t="n">
+        <v>6</v>
+      </c>
+      <c r="N206" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O206" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="P206" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="R206" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S206" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T206" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U206" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V206" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W206" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X206" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>250</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -24156,36 +24374,96 @@
           <t>Radnicki 1923</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="inlineStr"/>
-      <c r="N207" t="inlineStr"/>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="inlineStr"/>
-      <c r="T207" t="inlineStr"/>
-      <c r="U207" t="inlineStr"/>
-      <c r="V207" t="inlineStr"/>
-      <c r="W207" t="inlineStr"/>
-      <c r="X207" t="inlineStr"/>
-      <c r="Y207" t="inlineStr"/>
-      <c r="Z207" t="inlineStr"/>
-      <c r="AA207" t="inlineStr"/>
-      <c r="AB207" t="inlineStr"/>
-      <c r="AC207" t="inlineStr"/>
-      <c r="AD207" t="inlineStr"/>
-      <c r="AE207" t="inlineStr"/>
-      <c r="AF207" t="inlineStr"/>
-      <c r="AG207" t="inlineStr"/>
-      <c r="AH207" t="inlineStr"/>
-      <c r="AI207" t="inlineStr"/>
-      <c r="AJ207" t="inlineStr"/>
+      <c r="G207" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H207" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I207" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K207" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="L207" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M207" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N207" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O207" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R207" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S207" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T207" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U207" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V207" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W207" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X207" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -24218,36 +24496,96 @@
           <t>TSC</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="inlineStr"/>
-      <c r="N208" t="inlineStr"/>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="inlineStr"/>
-      <c r="T208" t="inlineStr"/>
-      <c r="U208" t="inlineStr"/>
-      <c r="V208" t="inlineStr"/>
-      <c r="W208" t="inlineStr"/>
-      <c r="X208" t="inlineStr"/>
-      <c r="Y208" t="inlineStr"/>
-      <c r="Z208" t="inlineStr"/>
-      <c r="AA208" t="inlineStr"/>
-      <c r="AB208" t="inlineStr"/>
-      <c r="AC208" t="inlineStr"/>
-      <c r="AD208" t="inlineStr"/>
-      <c r="AE208" t="inlineStr"/>
-      <c r="AF208" t="inlineStr"/>
-      <c r="AG208" t="inlineStr"/>
-      <c r="AH208" t="inlineStr"/>
-      <c r="AI208" t="inlineStr"/>
-      <c r="AJ208" t="inlineStr"/>
+      <c r="G208" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I208" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K208" t="n">
+        <v>8</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M208" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N208" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O208" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R208" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T208" t="n">
+        <v>9</v>
+      </c>
+      <c r="U208" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="V208" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W208" t="n">
+        <v>19</v>
+      </c>
+      <c r="X208" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -24281,7 +24619,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H209" t="n">
         <v>3.3</v>
@@ -24308,10 +24646,10 @@
         <v>1.65</v>
       </c>
       <c r="P209" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="Q209" t="n">
-        <v>2.82</v>
+        <v>2.57</v>
       </c>
       <c r="R209" t="n">
         <v>1.93</v>
@@ -25135,19 +25473,19 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H216" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I216" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J216" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K216" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L216" t="n">
         <v>1.36</v>
@@ -25174,10 +25512,10 @@
         <v>1.83</v>
       </c>
       <c r="T216" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U216" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V216" t="n">
         <v>10</v>
@@ -25192,7 +25530,7 @@
         <v>34</v>
       </c>
       <c r="Z216" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA216" t="n">
         <v>6</v>
@@ -25204,10 +25542,10 @@
         <v>51</v>
       </c>
       <c r="AD216" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE216" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF216" t="n">
         <v>13</v>
@@ -25219,7 +25557,7 @@
         <v>29</v>
       </c>
       <c r="AI216" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ216" t="n">
         <v>34</v>
@@ -25516,16 +25854,16 @@
         <v>15</v>
       </c>
       <c r="L219" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M219" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N219" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O219" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P219" t="n">
         <v>1.29</v>
@@ -25876,10 +26214,10 @@
         <v>4.33</v>
       </c>
       <c r="J222" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K222" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L222" t="n">
         <v>1.4</v>
@@ -25888,10 +26226,10 @@
         <v>2.75</v>
       </c>
       <c r="N222" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O222" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P222" t="n">
         <v>1.44</v>
@@ -25936,7 +26274,7 @@
         <v>67</v>
       </c>
       <c r="AD222" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE222" t="n">
         <v>10</v>
@@ -26608,22 +26946,22 @@
         <v>3</v>
       </c>
       <c r="J228" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K228" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L228" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M228" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N228" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O228" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P228" t="n">
         <v>1.44</v>
@@ -26668,7 +27006,7 @@
         <v>51</v>
       </c>
       <c r="AD228" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE228" t="n">
         <v>9</v>
@@ -27340,10 +27678,10 @@
         <v>2.15</v>
       </c>
       <c r="J234" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K234" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L234" t="n">
         <v>1.2</v>
@@ -27950,22 +28288,22 @@
         <v>2.55</v>
       </c>
       <c r="J239" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K239" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L239" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M239" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N239" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O239" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P239" t="n">
         <v>1.4</v>
@@ -28063,19 +28401,19 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H240" t="n">
         <v>3.4</v>
       </c>
       <c r="I240" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J240" t="n">
         <v>1.04</v>
       </c>
       <c r="K240" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L240" t="n">
         <v>1.25</v>
@@ -28084,10 +28422,10 @@
         <v>3.75</v>
       </c>
       <c r="N240" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O240" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P240" t="n">
         <v>1.33</v>
@@ -28102,10 +28440,10 @@
         <v>2.1</v>
       </c>
       <c r="T240" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U240" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V240" t="n">
         <v>9</v>
@@ -28206,10 +28544,10 @@
         <v>3.75</v>
       </c>
       <c r="N241" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O241" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P241" t="n">
         <v>1.36</v>
@@ -28551,13 +28889,13 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="H244" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I244" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="J244" t="n">
         <v>1.05</v>
@@ -28566,22 +28904,22 @@
         <v>7.9</v>
       </c>
       <c r="L244" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M244" t="n">
         <v>3.6</v>
       </c>
       <c r="N244" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O244" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P244" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q244" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="R244" t="n">
         <v>1.6</v>
@@ -28590,10 +28928,10 @@
         <v>2.18</v>
       </c>
       <c r="T244" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="U244" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V244" t="n">
         <v>10</v>
@@ -28623,16 +28961,16 @@
         <v>300</v>
       </c>
       <c r="AE244" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF244" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG244" t="n">
         <v>9</v>
       </c>
       <c r="AH244" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI244" t="n">
         <v>17.5</v>
@@ -29045,13 +29383,13 @@
         <v>8</v>
       </c>
       <c r="I248" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J248" t="n">
         <v>1.01</v>
       </c>
       <c r="K248" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L248" t="n">
         <v>1.11</v>
@@ -29072,10 +29410,10 @@
         <v>4.33</v>
       </c>
       <c r="R248" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S248" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T248" t="n">
         <v>10</v>
@@ -29111,16 +29449,16 @@
         <v>351</v>
       </c>
       <c r="AE248" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF248" t="n">
         <v>51</v>
       </c>
       <c r="AG248" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH248" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI248" t="n">
         <v>67</v>
@@ -29173,7 +29511,7 @@
         <v>1.04</v>
       </c>
       <c r="K249" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L249" t="n">
         <v>1.22</v>
@@ -29295,7 +29633,7 @@
         <v>1.03</v>
       </c>
       <c r="K250" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L250" t="n">
         <v>1.17</v>
@@ -29548,10 +29886,10 @@
         <v>5</v>
       </c>
       <c r="N252" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O252" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P252" t="n">
         <v>1.25</v>
@@ -31048,36 +31386,96 @@
           <t>Al Sharjah</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="inlineStr"/>
-      <c r="N265" t="inlineStr"/>
-      <c r="O265" t="inlineStr"/>
-      <c r="P265" t="inlineStr"/>
-      <c r="Q265" t="inlineStr"/>
-      <c r="R265" t="inlineStr"/>
-      <c r="S265" t="inlineStr"/>
-      <c r="T265" t="inlineStr"/>
-      <c r="U265" t="inlineStr"/>
-      <c r="V265" t="inlineStr"/>
-      <c r="W265" t="inlineStr"/>
-      <c r="X265" t="inlineStr"/>
-      <c r="Y265" t="inlineStr"/>
-      <c r="Z265" t="inlineStr"/>
-      <c r="AA265" t="inlineStr"/>
-      <c r="AB265" t="inlineStr"/>
-      <c r="AC265" t="inlineStr"/>
-      <c r="AD265" t="inlineStr"/>
-      <c r="AE265" t="inlineStr"/>
-      <c r="AF265" t="inlineStr"/>
-      <c r="AG265" t="inlineStr"/>
-      <c r="AH265" t="inlineStr"/>
-      <c r="AI265" t="inlineStr"/>
-      <c r="AJ265" t="inlineStr"/>
+      <c r="G265" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H265" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K265" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L265" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M265" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="N265" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O265" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P265" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R265" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S265" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T265" t="n">
+        <v>13</v>
+      </c>
+      <c r="U265" t="n">
+        <v>21</v>
+      </c>
+      <c r="V265" t="n">
+        <v>12</v>
+      </c>
+      <c r="W265" t="n">
+        <v>50</v>
+      </c>
+      <c r="X265" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -31110,36 +31508,96 @@
           <t>Shabab Al-Ahli Dubai</t>
         </is>
       </c>
-      <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="inlineStr"/>
-      <c r="N266" t="inlineStr"/>
-      <c r="O266" t="inlineStr"/>
-      <c r="P266" t="inlineStr"/>
-      <c r="Q266" t="inlineStr"/>
-      <c r="R266" t="inlineStr"/>
-      <c r="S266" t="inlineStr"/>
-      <c r="T266" t="inlineStr"/>
-      <c r="U266" t="inlineStr"/>
-      <c r="V266" t="inlineStr"/>
-      <c r="W266" t="inlineStr"/>
-      <c r="X266" t="inlineStr"/>
-      <c r="Y266" t="inlineStr"/>
-      <c r="Z266" t="inlineStr"/>
-      <c r="AA266" t="inlineStr"/>
-      <c r="AB266" t="inlineStr"/>
-      <c r="AC266" t="inlineStr"/>
-      <c r="AD266" t="inlineStr"/>
-      <c r="AE266" t="inlineStr"/>
-      <c r="AF266" t="inlineStr"/>
-      <c r="AG266" t="inlineStr"/>
-      <c r="AH266" t="inlineStr"/>
-      <c r="AI266" t="inlineStr"/>
-      <c r="AJ266" t="inlineStr"/>
+      <c r="G266" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H266" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I266" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J266" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K266" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L266" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M266" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N266" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O266" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P266" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R266" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S266" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T266" t="n">
+        <v>12</v>
+      </c>
+      <c r="U266" t="n">
+        <v>21</v>
+      </c>
+      <c r="V266" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W266" t="n">
+        <v>55</v>
+      </c>
+      <c r="X266" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">

--- a/Jogos_da_Semana_FlashScore_2025-04-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-27.xlsx
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J4" t="n">
         <v>1.06</v>
@@ -933,10 +933,10 @@
         <v>15</v>
       </c>
       <c r="U4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W4" t="n">
         <v>67</v>
@@ -948,7 +948,7 @@
         <v>51</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
         <v>7.5</v>
@@ -963,16 +963,16 @@
         <v>401</v>
       </c>
       <c r="AE4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF4" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>7</v>
       </c>
       <c r="AG4" t="n">
         <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>13</v>
@@ -1138,28 +1138,28 @@
         <v>4.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
         <v>1.8</v>
       </c>
       <c r="J6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P6" t="n">
         <v>1.33</v>
@@ -1174,7 +1174,7 @@
         <v>2.05</v>
       </c>
       <c r="T6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U6" t="n">
         <v>23</v>
@@ -1189,7 +1189,7 @@
         <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
         <v>12</v>
@@ -1204,10 +1204,10 @@
         <v>41</v>
       </c>
       <c r="AD6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
         <v>4.75</v>
@@ -2123,34 +2123,34 @@
         <v>1.06</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N14" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="O14" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="P14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S14" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U14" t="n">
         <v>8</v>
@@ -2165,10 +2165,10 @@
         <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA14" t="n">
         <v>7</v>
@@ -2180,7 +2180,7 @@
         <v>51</v>
       </c>
       <c r="AD14" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE14" t="n">
         <v>12</v>
@@ -2496,10 +2496,10 @@
         <v>3.4</v>
       </c>
       <c r="N17" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="O17" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="P17" t="n">
         <v>1.4</v>
@@ -2606,10 +2606,10 @@
         <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
         <v>1.3</v>
@@ -2975,19 +2975,19 @@
         <v>1.03</v>
       </c>
       <c r="K21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L21" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O21" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P21" t="n">
         <v>1.29</v>
@@ -3216,10 +3216,10 @@
         <v>4.5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
         <v>1.44</v>
@@ -3228,10 +3228,10 @@
         <v>2.63</v>
       </c>
       <c r="N23" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P23" t="n">
         <v>1.5</v>
@@ -3704,16 +3704,16 @@
         <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
         <v>3.4</v>
@@ -3826,10 +3826,10 @@
         <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.62</v>
@@ -3856,13 +3856,13 @@
         <v>1.53</v>
       </c>
       <c r="T28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U28" t="n">
         <v>10</v>
       </c>
       <c r="V28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W28" t="n">
         <v>26</v>
@@ -3939,19 +3939,19 @@
         </is>
       </c>
       <c r="G29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H29" t="n">
         <v>2.55</v>
       </c>
-      <c r="H29" t="n">
-        <v>2.63</v>
-      </c>
       <c r="I29" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J29" t="n">
         <v>1.17</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L29" t="n">
         <v>1.67</v>
@@ -3966,37 +3966,37 @@
         <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R29" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S29" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T29" t="n">
         <v>6</v>
       </c>
       <c r="U29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z29" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AA29" t="n">
         <v>5.5</v>
@@ -4011,16 +4011,16 @@
         <v>101</v>
       </c>
       <c r="AE29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI29" t="n">
         <v>34</v>
@@ -4070,10 +4070,10 @@
         <v>6.25</v>
       </c>
       <c r="J30" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L30" t="n">
         <v>1.5</v>
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
         <v>3.4</v>
@@ -4198,10 +4198,10 @@
         <v>6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M31" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N31" t="n">
         <v>2.7</v>
@@ -4210,10 +4210,10 @@
         <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R31" t="n">
         <v>2.25</v>
@@ -4255,7 +4255,7 @@
         <v>101</v>
       </c>
       <c r="AE31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF31" t="n">
         <v>15</v>
@@ -4305,7 +4305,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H32" t="n">
         <v>2.7</v>
@@ -4320,16 +4320,16 @@
         <v>5.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M32" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N32" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O32" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
         <v>1.62</v>
@@ -4347,16 +4347,16 @@
         <v>6</v>
       </c>
       <c r="U32" t="n">
+        <v>10</v>
+      </c>
+      <c r="V32" t="n">
         <v>11</v>
-      </c>
-      <c r="V32" t="n">
-        <v>12</v>
       </c>
       <c r="W32" t="n">
         <v>26</v>
       </c>
       <c r="X32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y32" t="n">
         <v>41</v>
@@ -4368,7 +4368,7 @@
         <v>5.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC32" t="n">
         <v>81</v>
@@ -4377,10 +4377,10 @@
         <v>101</v>
       </c>
       <c r="AE32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG32" t="n">
         <v>13</v>
@@ -4487,7 +4487,7 @@
         <v>6</v>
       </c>
       <c r="AA33" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB33" t="n">
         <v>21</v>
@@ -4549,13 +4549,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I34" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J34" t="n">
         <v>1.18</v>
@@ -4564,22 +4564,22 @@
         <v>4.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="N34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P34" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R34" t="n">
         <v>2.75</v>
@@ -4588,7 +4588,7 @@
         <v>1.4</v>
       </c>
       <c r="T34" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U34" t="n">
         <v>8</v>
@@ -4621,13 +4621,13 @@
         <v>101</v>
       </c>
       <c r="AE34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF34" t="n">
         <v>19</v>
       </c>
       <c r="AG34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH34" t="n">
         <v>51</v>
@@ -4680,13 +4680,13 @@
         <v>7.5</v>
       </c>
       <c r="J35" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K35" t="n">
         <v>19</v>
       </c>
       <c r="L35" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M35" t="n">
         <v>5.5</v>
@@ -4805,10 +4805,10 @@
         <v>1.01</v>
       </c>
       <c r="K36" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="L36" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="M36" t="n">
         <v>7</v>
@@ -4936,10 +4936,10 @@
         <v>4</v>
       </c>
       <c r="N37" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O37" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P37" t="n">
         <v>1.33</v>
@@ -5037,13 +5037,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H38" t="n">
         <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J38" t="n">
         <v>1.04</v>
@@ -5052,16 +5052,16 @@
         <v>13</v>
       </c>
       <c r="L38" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N38" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O38" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P38" t="n">
         <v>1.33</v>
@@ -5076,13 +5076,13 @@
         <v>2.2</v>
       </c>
       <c r="T38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W38" t="n">
         <v>41</v>
@@ -5112,13 +5112,13 @@
         <v>9</v>
       </c>
       <c r="AF38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI38" t="n">
         <v>15</v>
@@ -5402,36 +5402,92 @@
           <t>Araz</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.91</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="inlineStr"/>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T41" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="U41" t="n">
+        <v>20</v>
+      </c>
+      <c r="V41" t="n">
+        <v>13</v>
+      </c>
+      <c r="W41" t="n">
+        <v>60</v>
+      </c>
+      <c r="X41" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5957,13 +6013,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
         <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="J48" t="n">
         <v>1.05</v>
@@ -5999,16 +6055,16 @@
         <v>11</v>
       </c>
       <c r="U48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y48" t="n">
         <v>29</v>
@@ -6029,13 +6085,13 @@
         <v>151</v>
       </c>
       <c r="AE48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG48" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>10</v>
       </c>
       <c r="AH48" t="n">
         <v>23</v>
@@ -6079,13 +6135,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H49" t="n">
         <v>4.75</v>
       </c>
       <c r="I49" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J49" t="n">
         <v>1.03</v>
@@ -6121,13 +6177,13 @@
         <v>9</v>
       </c>
       <c r="U49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V49" t="n">
         <v>8.5</v>
       </c>
       <c r="W49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X49" t="n">
         <v>12</v>
@@ -6151,10 +6207,10 @@
         <v>151</v>
       </c>
       <c r="AE49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG49" t="n">
         <v>15</v>
@@ -6445,13 +6501,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H52" t="n">
         <v>3.4</v>
       </c>
       <c r="I52" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J52" t="n">
         <v>1.05</v>
@@ -6487,7 +6543,7 @@
         <v>11</v>
       </c>
       <c r="U52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V52" t="n">
         <v>11</v>
@@ -6514,16 +6570,16 @@
         <v>41</v>
       </c>
       <c r="AD52" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE52" t="n">
         <v>8.5</v>
       </c>
       <c r="AF52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG52" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH52" t="n">
         <v>21</v>
@@ -6878,10 +6934,10 @@
         <v>1.45</v>
       </c>
       <c r="H57" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I57" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J57" t="n">
         <v>1.07</v>
@@ -6920,7 +6976,7 @@
         <v>6</v>
       </c>
       <c r="V57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W57" t="n">
         <v>9.5</v>
@@ -6935,7 +6991,7 @@
         <v>9</v>
       </c>
       <c r="AA57" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB57" t="n">
         <v>21</v>
@@ -6947,7 +7003,7 @@
         <v>501</v>
       </c>
       <c r="AE57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF57" t="n">
         <v>41</v>
@@ -6962,7 +7018,7 @@
         <v>51</v>
       </c>
       <c r="AJ57" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58">
@@ -7610,16 +7666,16 @@
         <v>2.15</v>
       </c>
       <c r="H63" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="I63" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J63" t="n">
         <v>1.13</v>
       </c>
       <c r="K63" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L63" t="n">
         <v>1.55</v>
@@ -7637,7 +7693,7 @@
         <v>1.57</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R63" t="n">
         <v>2.12</v>
@@ -7646,31 +7702,31 @@
         <v>1.65</v>
       </c>
       <c r="T63" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="U63" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="V63" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W63" t="n">
         <v>21</v>
       </c>
       <c r="X63" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y63" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z63" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AA63" t="n">
         <v>5.7</v>
       </c>
       <c r="AB63" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC63" t="n">
         <v>120</v>
@@ -7679,22 +7735,22 @@
         <v>101</v>
       </c>
       <c r="AE63" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AF63" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG63" t="n">
         <v>13.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI63" t="n">
         <v>45</v>
       </c>
       <c r="AJ63" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64">
@@ -7729,94 +7785,94 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.18</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
-        <v>2.57</v>
+        <v>2.95</v>
       </c>
       <c r="I64" t="n">
-        <v>4.35</v>
+        <v>4.7</v>
       </c>
       <c r="J64" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="K64" t="n">
-        <v>4.75</v>
+        <v>5.3</v>
       </c>
       <c r="L64" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="M64" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="N64" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="O64" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="P64" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R64" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S64" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T64" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="U64" t="n">
-        <v>9.25</v>
+        <v>7.7</v>
       </c>
       <c r="V64" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W64" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="X64" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y64" t="n">
         <v>40</v>
       </c>
       <c r="Z64" t="n">
-        <v>4.75</v>
+        <v>5.3</v>
       </c>
       <c r="AA64" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="AB64" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AC64" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD64" t="n">
         <v>101</v>
       </c>
       <c r="AE64" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF64" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG64" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AH64" t="n">
         <v>90</v>
       </c>
       <c r="AI64" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ64" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
@@ -8335,7 +8391,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="H69" t="n">
         <v>3.35</v>
@@ -8353,7 +8409,7 @@
         <v>1.33</v>
       </c>
       <c r="M69" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N69" t="n">
         <v>1.98</v>
@@ -8368,13 +8424,13 @@
         <v>2.65</v>
       </c>
       <c r="R69" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S69" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T69" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U69" t="n">
         <v>14.5</v>
@@ -8389,7 +8445,7 @@
         <v>25</v>
       </c>
       <c r="Y69" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z69" t="n">
         <v>7.5</v>
@@ -8398,28 +8454,28 @@
         <v>6.7</v>
       </c>
       <c r="AB69" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC69" t="n">
         <v>75</v>
       </c>
       <c r="AD69" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE69" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AF69" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG69" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH69" t="n">
         <v>28</v>
       </c>
       <c r="AI69" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ69" t="n">
         <v>35</v>
@@ -9433,13 +9489,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H78" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I78" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J78" t="n">
         <v>1.04</v>
@@ -9508,16 +9564,16 @@
         <v>9</v>
       </c>
       <c r="AF78" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG78" t="n">
         <v>9</v>
       </c>
       <c r="AH78" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI78" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ78" t="n">
         <v>23</v>
@@ -9576,10 +9632,10 @@
         <v>4.5</v>
       </c>
       <c r="N79" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O79" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P79" t="n">
         <v>1.29</v>
@@ -9944,10 +10000,10 @@
         <v>1.42</v>
       </c>
       <c r="P82" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R82" t="n">
         <v>2.22</v>
@@ -9956,19 +10012,19 @@
         <v>1.52</v>
       </c>
       <c r="T82" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="U82" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="V82" t="n">
         <v>9</v>
       </c>
       <c r="W82" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X82" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y82" t="n">
         <v>45</v>
@@ -9983,13 +10039,13 @@
         <v>22</v>
       </c>
       <c r="AC82" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD82" t="n">
         <v>101</v>
       </c>
       <c r="AE82" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF82" t="n">
         <v>29</v>
@@ -10001,10 +10057,10 @@
         <v>120</v>
       </c>
       <c r="AI82" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ82" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83">
@@ -10281,19 +10337,19 @@
         <v>3.5</v>
       </c>
       <c r="I85" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="J85" t="n">
         <v>1.07</v>
       </c>
       <c r="K85" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L85" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M85" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N85" t="n">
         <v>2.1</v>
@@ -10397,7 +10453,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H86" t="n">
         <v>3.3</v>
@@ -10519,10 +10575,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H87" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I87" t="n">
         <v>3.8</v>
@@ -10759,13 +10815,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H89" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I89" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -10785,19 +10841,19 @@
         <v>1.44</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R89" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S89" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T89" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="U89" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="V89" t="n">
         <v>8.5</v>
@@ -10827,16 +10883,16 @@
         <v>900</v>
       </c>
       <c r="AE89" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF89" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG89" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH89" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI89" t="n">
         <v>40</v>
@@ -10877,13 +10933,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="H90" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I90" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -10903,61 +10959,61 @@
         <v>1.44</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R90" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S90" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T90" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="U90" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V90" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="W90" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="X90" t="n">
         <v>40</v>
       </c>
       <c r="Y90" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z90" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA90" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB90" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC90" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD90" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE90" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AF90" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AG90" t="n">
         <v>8.5</v>
       </c>
       <c r="AH90" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI90" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>16</v>
       </c>
       <c r="AJ90" t="n">
         <v>32</v>
@@ -11382,10 +11438,10 @@
         <v>3</v>
       </c>
       <c r="N94" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O94" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P94" t="n">
         <v>1.5</v>
@@ -12132,7 +12188,7 @@
         <v>2</v>
       </c>
       <c r="T100" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U100" t="n">
         <v>19</v>
@@ -12224,40 +12280,40 @@
         <v>3.5</v>
       </c>
       <c r="J101" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K101" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L101" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M101" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N101" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O101" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
         <v>1.8</v>
       </c>
-      <c r="P101" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R101" t="n">
-        <v>1.83</v>
-      </c>
       <c r="S101" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T101" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U101" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V101" t="n">
         <v>9</v>
@@ -12269,7 +12325,7 @@
         <v>17</v>
       </c>
       <c r="Y101" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z101" t="n">
         <v>10</v>
@@ -12302,7 +12358,7 @@
         <v>29</v>
       </c>
       <c r="AJ101" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102">
@@ -12358,10 +12414,10 @@
         <v>3.75</v>
       </c>
       <c r="N102" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O102" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P102" t="n">
         <v>1.36</v>
@@ -12724,10 +12780,10 @@
         <v>5</v>
       </c>
       <c r="N105" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O105" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P105" t="n">
         <v>1.25</v>
@@ -12787,7 +12843,7 @@
         <v>34</v>
       </c>
       <c r="AI105" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ105" t="n">
         <v>23</v>
@@ -12834,13 +12890,13 @@
         <v>4.33</v>
       </c>
       <c r="J106" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K106" t="n">
         <v>17</v>
       </c>
       <c r="L106" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
@@ -12956,13 +13012,13 @@
         <v>3.75</v>
       </c>
       <c r="J107" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K107" t="n">
         <v>11</v>
       </c>
       <c r="L107" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M107" t="n">
         <v>3.75</v>
@@ -13078,13 +13134,13 @@
         <v>2.05</v>
       </c>
       <c r="J108" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K108" t="n">
         <v>8.5</v>
       </c>
       <c r="L108" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
@@ -13200,16 +13256,16 @@
         <v>3.6</v>
       </c>
       <c r="J109" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K109" t="n">
         <v>8</v>
       </c>
       <c r="L109" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M109" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N109" t="n">
         <v>2.4</v>
@@ -13322,13 +13378,13 @@
         <v>3.3</v>
       </c>
       <c r="J110" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K110" t="n">
         <v>8.5</v>
       </c>
       <c r="L110" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M110" t="n">
         <v>3</v>
@@ -13444,22 +13500,22 @@
         <v>6.25</v>
       </c>
       <c r="J111" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K111" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L111" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
       </c>
       <c r="N111" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O111" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P111" t="n">
         <v>1.33</v>
@@ -13474,7 +13530,7 @@
         <v>1.91</v>
       </c>
       <c r="T111" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U111" t="n">
         <v>7</v>
@@ -13489,10 +13545,10 @@
         <v>12</v>
       </c>
       <c r="Y111" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z111" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA111" t="n">
         <v>8</v>
@@ -13504,7 +13560,7 @@
         <v>51</v>
       </c>
       <c r="AD111" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE111" t="n">
         <v>17</v>
@@ -13513,7 +13569,7 @@
         <v>34</v>
       </c>
       <c r="AG111" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH111" t="n">
         <v>67</v>
@@ -13522,7 +13578,7 @@
         <v>51</v>
       </c>
       <c r="AJ111" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112">
@@ -13557,13 +13613,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="H112" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I112" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -13571,72 +13627,72 @@
         <v>1.23</v>
       </c>
       <c r="M112" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="N112" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O112" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S112" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="T112" t="n">
         <v>6.9</v>
       </c>
       <c r="U112" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="V112" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="W112" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="X112" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="Y112" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z112" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA112" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AB112" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC112" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD112" t="n">
         <v>250</v>
       </c>
       <c r="AE112" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF112" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG112" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AH112" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AI112" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ112" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113">
@@ -13671,13 +13727,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H113" t="n">
         <v>3.65</v>
       </c>
       <c r="I113" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -13688,69 +13744,69 @@
         <v>3.7</v>
       </c>
       <c r="N113" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O113" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="S113" t="n">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="T113" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="U113" t="n">
         <v>16</v>
       </c>
       <c r="V113" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W113" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X113" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y113" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z113" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA113" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB113" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AC113" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD113" t="n">
         <v>250</v>
       </c>
       <c r="AE113" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AF113" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AG113" t="n">
         <v>7.2</v>
       </c>
       <c r="AH113" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI113" t="n">
         <v>11.5</v>
       </c>
       <c r="AJ113" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="114">
@@ -13922,16 +13978,16 @@
         <v>15</v>
       </c>
       <c r="L115" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M115" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N115" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O115" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P115" t="n">
         <v>1.3</v>
@@ -14032,38 +14088,84 @@
         <v>1.5</v>
       </c>
       <c r="H116" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="I116" t="n">
         <v>5.4</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="N116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O116" t="n">
+        <v>2.5</v>
+      </c>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
-      <c r="Z116" t="inlineStr"/>
-      <c r="AA116" t="inlineStr"/>
-      <c r="AB116" t="inlineStr"/>
-      <c r="AC116" t="inlineStr"/>
-      <c r="AD116" t="inlineStr"/>
-      <c r="AE116" t="inlineStr"/>
-      <c r="AF116" t="inlineStr"/>
-      <c r="AG116" t="inlineStr"/>
-      <c r="AH116" t="inlineStr"/>
-      <c r="AI116" t="inlineStr"/>
-      <c r="AJ116" t="inlineStr"/>
+      <c r="R116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T116" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="U116" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W116" t="n">
+        <v>12</v>
+      </c>
+      <c r="X116" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14340,7 +14442,7 @@
         <v>23</v>
       </c>
       <c r="L119" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="M119" t="n">
         <v>6.5</v>
@@ -14456,22 +14558,22 @@
         <v>2.15</v>
       </c>
       <c r="J120" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K120" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L120" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="M120" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N120" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O120" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P120" t="n">
         <v>1.33</v>
@@ -14578,13 +14680,13 @@
         <v>3.25</v>
       </c>
       <c r="J121" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K121" t="n">
         <v>15</v>
       </c>
       <c r="L121" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M121" t="n">
         <v>5</v>
@@ -14691,25 +14793,25 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H122" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I122" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J122" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K122" t="n">
         <v>15</v>
       </c>
       <c r="L122" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M122" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N122" t="n">
         <v>1.65</v>
@@ -14772,7 +14874,7 @@
         <v>9</v>
       </c>
       <c r="AH122" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI122" t="n">
         <v>15</v>
@@ -14825,7 +14927,7 @@
         <v>1.07</v>
       </c>
       <c r="K123" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L123" t="n">
         <v>1.33</v>
@@ -14947,7 +15049,7 @@
         <v>1.04</v>
       </c>
       <c r="K124" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L124" t="n">
         <v>1.22</v>
@@ -15633,13 +15735,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="H130" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="I130" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -15664,10 +15766,10 @@
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="U130" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="V130" t="n">
         <v>7.5</v>
@@ -15679,7 +15781,7 @@
         <v>16.5</v>
       </c>
       <c r="Y130" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z130" t="n">
         <v>5.3</v>
@@ -15700,7 +15802,7 @@
         <v>7.4</v>
       </c>
       <c r="AF130" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG130" t="n">
         <v>12</v>
@@ -15869,13 +15971,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I132" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J132" t="n">
         <v>1.08</v>
@@ -15890,10 +15992,10 @@
         <v>2.75</v>
       </c>
       <c r="N132" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O132" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P132" t="n">
         <v>1.5</v>
@@ -15914,10 +16016,10 @@
         <v>9</v>
       </c>
       <c r="V132" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W132" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X132" t="n">
         <v>19</v>
@@ -15944,10 +16046,10 @@
         <v>9.5</v>
       </c>
       <c r="AF132" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG132" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH132" t="n">
         <v>41</v>
@@ -16134,16 +16236,16 @@
         <v>4.15</v>
       </c>
       <c r="N134" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O134" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="P134" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="Q134" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="R134" t="n">
         <v>1.47</v>
@@ -16152,22 +16254,22 @@
         <v>2.5</v>
       </c>
       <c r="T134" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="U134" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="V134" t="n">
         <v>9.25</v>
       </c>
       <c r="W134" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X134" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y134" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z134" t="n">
         <v>8.5</v>
@@ -16182,25 +16284,25 @@
         <v>35</v>
       </c>
       <c r="AD134" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AE134" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AF134" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG134" t="n">
         <v>9.75</v>
       </c>
       <c r="AH134" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI134" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AJ134" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135">
@@ -16597,7 +16699,7 @@
         <v>1.03</v>
       </c>
       <c r="K138" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L138" t="n">
         <v>1.17</v>
@@ -16612,10 +16714,10 @@
         <v>2.35</v>
       </c>
       <c r="P138" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q138" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R138" t="n">
         <v>1.73</v>
@@ -16642,7 +16744,7 @@
         <v>41</v>
       </c>
       <c r="Z138" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA138" t="n">
         <v>9</v>
@@ -16651,7 +16753,7 @@
         <v>17</v>
       </c>
       <c r="AC138" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD138" t="n">
         <v>201</v>
@@ -16672,7 +16774,7 @@
         <v>11</v>
       </c>
       <c r="AJ138" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139">
@@ -16707,13 +16809,13 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H139" t="n">
         <v>3.3</v>
       </c>
       <c r="I139" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J139" t="n">
         <v>1.05</v>
@@ -16728,10 +16830,10 @@
         <v>3.75</v>
       </c>
       <c r="N139" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O139" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P139" t="n">
         <v>1.36</v>
@@ -16776,10 +16878,10 @@
         <v>41</v>
       </c>
       <c r="AD139" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE139" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF139" t="n">
         <v>13</v>
@@ -16838,10 +16940,10 @@
         <v>3.1</v>
       </c>
       <c r="J140" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K140" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L140" t="n">
         <v>1.5</v>
@@ -16951,10 +17053,10 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H141" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I141" t="n">
         <v>3.1</v>
@@ -16963,7 +17065,7 @@
         <v>1.08</v>
       </c>
       <c r="K141" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L141" t="n">
         <v>1.37</v>
@@ -16978,10 +17080,10 @@
         <v>1.65</v>
       </c>
       <c r="P141" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q141" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="R141" t="n">
         <v>1.85</v>
@@ -16990,7 +17092,7 @@
         <v>1.85</v>
       </c>
       <c r="T141" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U141" t="n">
         <v>10</v>
@@ -17008,16 +17110,16 @@
         <v>32</v>
       </c>
       <c r="Z141" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA141" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB141" t="n">
         <v>15</v>
       </c>
       <c r="AC141" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD141" t="n">
         <v>700</v>
@@ -17198,46 +17300,46 @@
         <v>3.4</v>
       </c>
       <c r="H143" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I143" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="J143" t="n">
         <v>1.1</v>
       </c>
       <c r="K143" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L143" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N143" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O143" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P143" t="n">
         <v>1.5</v>
       </c>
-      <c r="M143" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="N143" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O143" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P143" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q143" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R143" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S143" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T143" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="U143" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V143" t="n">
         <v>13</v>
@@ -17246,19 +17348,19 @@
         <v>50</v>
       </c>
       <c r="X143" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y143" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z143" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AA143" t="n">
         <v>6.3</v>
       </c>
       <c r="AB143" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC143" t="n">
         <v>120</v>
@@ -17273,16 +17375,16 @@
         <v>8.5</v>
       </c>
       <c r="AG143" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH143" t="n">
         <v>18.5</v>
       </c>
       <c r="AI143" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ143" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144">
@@ -17439,25 +17541,25 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="H145" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I145" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="J145" t="n">
         <v>1.08</v>
       </c>
       <c r="K145" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="L145" t="n">
         <v>1.36</v>
       </c>
       <c r="M145" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="N145" t="n">
         <v>2.05</v>
@@ -17466,64 +17568,64 @@
         <v>1.7</v>
       </c>
       <c r="P145" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q145" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="R145" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="S145" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T145" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="U145" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V145" t="n">
         <v>8.5</v>
       </c>
       <c r="W145" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="X145" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y145" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z145" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA145" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB145" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC145" t="n">
         <v>75</v>
       </c>
       <c r="AD145" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE145" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF145" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AG145" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH145" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI145" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ145" t="n">
         <v>45</v>
@@ -17683,94 +17785,94 @@
         </is>
       </c>
       <c r="G147" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I147" t="n">
+        <v>4</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K147" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N147" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O147" t="n">
         <v>1.7</v>
       </c>
-      <c r="H147" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I147" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J147" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K147" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="L147" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M147" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="N147" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O147" t="n">
-        <v>1.8</v>
-      </c>
       <c r="P147" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="R147" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="S147" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="T147" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="U147" t="n">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="V147" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W147" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="X147" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="Y147" t="n">
         <v>26</v>
       </c>
       <c r="Z147" t="n">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="AA147" t="n">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="AB147" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AC147" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH147" t="n">
         <v>75</v>
       </c>
-      <c r="AD147" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE147" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF147" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG147" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH147" t="n">
-        <v>90</v>
-      </c>
       <c r="AI147" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AJ147" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148">
@@ -17805,70 +17907,70 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="H148" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I148" t="n">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="J148" t="n">
         <v>1.08</v>
       </c>
       <c r="K148" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L148" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M148" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="N148" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O148" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P148" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q148" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R148" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S148" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T148" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="U148" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="V148" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="W148" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="X148" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y148" t="n">
         <v>45</v>
       </c>
       <c r="Z148" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA148" t="n">
         <v>6.4</v>
       </c>
-      <c r="AA148" t="n">
-        <v>6.1</v>
-      </c>
       <c r="AB148" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC148" t="n">
         <v>80</v>
@@ -17877,22 +17979,22 @@
         <v>700</v>
       </c>
       <c r="AE148" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AF148" t="n">
-        <v>9.75</v>
+        <v>8.25</v>
       </c>
       <c r="AG148" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH148" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI148" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ148" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149">
@@ -17927,94 +18029,94 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H149" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I149" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="J149" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K149" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="L149" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="M149" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N149" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O149" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="P149" t="n">
         <v>1.42</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R149" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="S149" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T149" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="U149" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="V149" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W149" t="n">
         <v>13</v>
       </c>
       <c r="X149" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y149" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Z149" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA149" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AB149" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC149" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AD149" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="AE149" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AF149" t="n">
         <v>27</v>
       </c>
       <c r="AG149" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH149" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AI149" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ149" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150">
@@ -18091,13 +18193,13 @@
         <v>6</v>
       </c>
       <c r="U150" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="V150" t="n">
         <v>9</v>
       </c>
       <c r="W150" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X150" t="n">
         <v>18</v>
@@ -18136,7 +18238,7 @@
         <v>37</v>
       </c>
       <c r="AJ150" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="151">
@@ -18171,49 +18273,49 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H151" t="n">
         <v>3.05</v>
       </c>
       <c r="I151" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J151" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K151" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="L151" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M151" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="N151" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O151" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P151" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="R151" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S151" t="n">
         <v>1.88</v>
       </c>
-      <c r="S151" t="n">
-        <v>1.82</v>
-      </c>
       <c r="T151" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="U151" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V151" t="n">
         <v>8.75</v>
@@ -18222,31 +18324,31 @@
         <v>20</v>
       </c>
       <c r="X151" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y151" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z151" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AA151" t="n">
         <v>6</v>
       </c>
       <c r="AB151" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC151" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD151" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE151" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF151" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG151" t="n">
         <v>12</v>
@@ -18909,43 +19011,43 @@
         <v>2.95</v>
       </c>
       <c r="I157" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="J157" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K157" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="L157" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="M157" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="N157" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="O157" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="P157" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q157" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="R157" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S157" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="T157" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="U157" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="V157" t="n">
         <v>9</v>
@@ -18954,31 +19056,31 @@
         <v>28</v>
       </c>
       <c r="X157" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y157" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z157" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AA157" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB157" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AC157" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD157" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE157" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AF157" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AG157" t="n">
         <v>10</v>
@@ -18987,10 +19089,10 @@
         <v>40</v>
       </c>
       <c r="AI157" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ157" t="n">
         <v>25</v>
-      </c>
-      <c r="AJ157" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="158">
@@ -19147,90 +19249,90 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H159" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I159" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M159" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="N159" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="O159" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="P159" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="R159" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="S159" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="T159" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="U159" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="V159" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="W159" t="n">
         <v>8.25</v>
       </c>
       <c r="X159" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="Y159" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z159" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AA159" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB159" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC159" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD159" t="n">
         <v>101</v>
       </c>
       <c r="AE159" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AF159" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG159" t="n">
         <v>17</v>
       </c>
       <c r="AH159" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI159" t="n">
         <v>60</v>
       </c>
       <c r="AJ159" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="160">
@@ -19276,79 +19378,79 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M160" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="N160" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O160" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="P160" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q160" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="R160" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S160" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="T160" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="U160" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V160" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W160" t="n">
         <v>35</v>
       </c>
       <c r="X160" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y160" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z160" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AA160" t="n">
         <v>5.4</v>
       </c>
       <c r="AB160" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC160" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AD160" t="n">
         <v>450</v>
       </c>
       <c r="AE160" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="AF160" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AG160" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AH160" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI160" t="n">
         <v>15</v>
       </c>
-      <c r="AI160" t="n">
-        <v>14</v>
-      </c>
       <c r="AJ160" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="161">
@@ -19627,13 +19729,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H163" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="I163" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -19641,7 +19743,7 @@
         <v>1.2</v>
       </c>
       <c r="M163" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="N163" t="n">
         <v>1.6</v>
@@ -19652,61 +19754,61 @@
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S163" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="T163" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="U163" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="V163" t="n">
         <v>8</v>
       </c>
       <c r="W163" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X163" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB163" t="n">
         <v>14.5</v>
       </c>
-      <c r="X163" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y163" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z163" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA163" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB163" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AC163" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD163" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE163" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF163" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG163" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH163" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI163" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ163" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="164">
@@ -19864,10 +19966,10 @@
         <v>6</v>
       </c>
       <c r="J165" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K165" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L165" t="n">
         <v>1.14</v>
@@ -19894,16 +19996,16 @@
         <v>2.2</v>
       </c>
       <c r="T165" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U165" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V165" t="n">
         <v>8.5</v>
       </c>
       <c r="W165" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X165" t="n">
         <v>11</v>
@@ -20352,16 +20454,16 @@
         <v>1.91</v>
       </c>
       <c r="J169" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K169" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L169" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M169" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N169" t="n">
         <v>2.1</v>
@@ -20840,10 +20942,10 @@
         <v>4.33</v>
       </c>
       <c r="J173" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K173" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L173" t="n">
         <v>1.2</v>
@@ -20852,10 +20954,10 @@
         <v>4.33</v>
       </c>
       <c r="N173" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O173" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P173" t="n">
         <v>1.3</v>
@@ -20974,10 +21076,10 @@
         <v>3.75</v>
       </c>
       <c r="N174" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O174" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P174" t="n">
         <v>1.33</v>
@@ -21221,7 +21323,7 @@
         <v>2.5</v>
       </c>
       <c r="O176" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P176" t="n">
         <v>1.57</v>
@@ -21343,7 +21445,7 @@
         <v>2.4</v>
       </c>
       <c r="O177" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P177" t="n">
         <v>1.5</v>
@@ -21687,19 +21789,19 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H181" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I181" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J181" t="n">
         <v>1.07</v>
       </c>
       <c r="K181" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L181" t="n">
         <v>1.33</v>
@@ -21720,31 +21822,31 @@
         <v>2.63</v>
       </c>
       <c r="R181" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S181" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T181" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U181" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V181" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W181" t="n">
+        <v>13</v>
+      </c>
+      <c r="X181" t="n">
         <v>15</v>
-      </c>
-      <c r="X181" t="n">
-        <v>17</v>
       </c>
       <c r="Y181" t="n">
         <v>29</v>
       </c>
       <c r="Z181" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA181" t="n">
         <v>6.5</v>
@@ -21759,13 +21861,13 @@
         <v>351</v>
       </c>
       <c r="AE181" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF181" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG181" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH181" t="n">
         <v>51</v>
@@ -21774,7 +21876,7 @@
         <v>41</v>
       </c>
       <c r="AJ181" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="182">
@@ -21952,10 +22054,10 @@
         <v>3.75</v>
       </c>
       <c r="N183" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O183" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P183" t="n">
         <v>1.36</v>
@@ -22208,7 +22310,7 @@
         <v>3</v>
       </c>
       <c r="R185" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S185" t="n">
         <v>2.05</v>
@@ -22330,10 +22432,10 @@
         <v>2.63</v>
       </c>
       <c r="R186" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S186" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T186" t="n">
         <v>8</v>
@@ -22452,7 +22554,7 @@
         <v>3.4</v>
       </c>
       <c r="R187" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S187" t="n">
         <v>2.2</v>
@@ -22574,10 +22676,10 @@
         <v>2.75</v>
       </c>
       <c r="R188" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S188" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T188" t="n">
         <v>11</v>
@@ -22854,7 +22956,7 @@
         <v>101</v>
       </c>
       <c r="AD190" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE190" t="n">
         <v>41</v>
@@ -23160,10 +23262,10 @@
         <v>2.7</v>
       </c>
       <c r="J193" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K193" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L193" t="n">
         <v>1.33</v>
@@ -24257,75 +24359,75 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H206" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="I206" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="M206" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="N206" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="O206" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="P206" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="Q206" t="n">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="R206" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S206" t="n">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="T206" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="U206" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="V206" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W206" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="X206" t="n">
         <v>9.75</v>
       </c>
       <c r="Y206" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z206" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AA206" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB206" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC206" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AD206" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AE206" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AF206" t="n">
         <v>80</v>
@@ -24337,10 +24439,10 @@
         <v>250</v>
       </c>
       <c r="AI206" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ206" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="207">
@@ -24378,10 +24480,10 @@
         <v>1.75</v>
       </c>
       <c r="H207" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I207" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J207" t="n">
         <v>1.04</v>
@@ -24402,10 +24504,10 @@
         <v>2.05</v>
       </c>
       <c r="P207" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q207" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R207" t="n">
         <v>1.65</v>
@@ -24435,7 +24537,7 @@
         <v>8.25</v>
       </c>
       <c r="AA207" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB207" t="n">
         <v>14</v>
@@ -24456,13 +24558,13 @@
         <v>13</v>
       </c>
       <c r="AH207" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI207" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ207" t="n">
         <v>35</v>
-      </c>
-      <c r="AJ207" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="208">
@@ -24542,10 +24644,10 @@
         <v>10.75</v>
       </c>
       <c r="V208" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W208" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X208" t="n">
         <v>14.5</v>
@@ -24622,10 +24724,10 @@
         <v>1.88</v>
       </c>
       <c r="H209" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I209" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="J209" t="n">
         <v>1.09</v>
@@ -24658,10 +24760,10 @@
         <v>1.78</v>
       </c>
       <c r="T209" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="U209" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="V209" t="n">
         <v>9</v>
@@ -24670,7 +24772,7 @@
         <v>17</v>
       </c>
       <c r="X209" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y209" t="n">
         <v>35</v>
@@ -24679,7 +24781,7 @@
         <v>6.7</v>
       </c>
       <c r="AA209" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB209" t="n">
         <v>18</v>
@@ -24697,16 +24799,16 @@
         <v>24</v>
       </c>
       <c r="AG209" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH209" t="n">
         <v>80</v>
       </c>
       <c r="AI209" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ209" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210">
@@ -24985,19 +25087,19 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H212" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I212" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="J212" t="n">
         <v>1.07</v>
       </c>
       <c r="K212" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="L212" t="n">
         <v>1.32</v>
@@ -25012,16 +25114,16 @@
         <v>1.75</v>
       </c>
       <c r="P212" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q212" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="R212" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S212" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T212" t="n">
         <v>8.5</v>
@@ -25033,28 +25135,28 @@
         <v>9.5</v>
       </c>
       <c r="W212" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X212" t="n">
         <v>21</v>
       </c>
       <c r="Y212" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z212" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AA212" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB212" t="n">
         <v>13.5</v>
       </c>
       <c r="AC212" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD212" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE212" t="n">
         <v>8.25</v>
@@ -25066,10 +25168,10 @@
         <v>9.75</v>
       </c>
       <c r="AH212" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI212" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ212" t="n">
         <v>32</v>
@@ -25107,13 +25209,13 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H213" t="n">
         <v>3.25</v>
       </c>
       <c r="I213" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J213" t="n">
         <v>1.07</v>
@@ -25149,7 +25251,7 @@
         <v>9</v>
       </c>
       <c r="U213" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V213" t="n">
         <v>12</v>
@@ -25229,19 +25331,19 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H214" t="n">
         <v>3.2</v>
       </c>
       <c r="I214" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J214" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K214" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L214" t="n">
         <v>1.36</v>
@@ -25256,10 +25358,10 @@
         <v>1.65</v>
       </c>
       <c r="P214" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q214" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R214" t="n">
         <v>1.83</v>
@@ -25280,7 +25382,7 @@
         <v>21</v>
       </c>
       <c r="X214" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y214" t="n">
         <v>34</v>
@@ -25351,13 +25453,13 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H215" t="n">
         <v>3.4</v>
       </c>
       <c r="I215" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J215" t="n">
         <v>1.05</v>
@@ -25378,10 +25480,10 @@
         <v>1.95</v>
       </c>
       <c r="P215" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q215" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R215" t="n">
         <v>1.67</v>
@@ -25426,7 +25528,7 @@
         <v>9</v>
       </c>
       <c r="AF215" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG215" t="n">
         <v>9.5</v>
@@ -27434,10 +27536,10 @@
         <v>3.9</v>
       </c>
       <c r="J232" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K232" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L232" t="n">
         <v>1.3</v>
@@ -27547,7 +27649,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H233" t="n">
         <v>3.6</v>
@@ -27556,13 +27658,13 @@
         <v>5.25</v>
       </c>
       <c r="J233" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K233" t="n">
         <v>7.5</v>
       </c>
       <c r="L233" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M233" t="n">
         <v>3</v>
@@ -27583,7 +27685,7 @@
         <v>2.2</v>
       </c>
       <c r="S233" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T233" t="n">
         <v>6</v>
@@ -27669,25 +27771,25 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H234" t="n">
         <v>3.6</v>
       </c>
       <c r="I234" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J234" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K234" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L234" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M234" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N234" t="n">
         <v>1.7</v>
@@ -27702,10 +27804,10 @@
         <v>3.4</v>
       </c>
       <c r="R234" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S234" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T234" t="n">
         <v>12</v>
@@ -27720,7 +27822,7 @@
         <v>34</v>
       </c>
       <c r="X234" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y234" t="n">
         <v>26</v>
@@ -27741,7 +27843,7 @@
         <v>151</v>
       </c>
       <c r="AE234" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF234" t="n">
         <v>12</v>
@@ -27916,10 +28018,10 @@
         <v>2.3</v>
       </c>
       <c r="H236" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I236" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J236" t="n">
         <v>1.06</v>
@@ -27928,28 +28030,28 @@
         <v>10</v>
       </c>
       <c r="L236" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M236" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N236" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O236" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P236" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q236" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R236" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S236" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T236" t="n">
         <v>7.5</v>
@@ -27964,25 +28066,25 @@
         <v>21</v>
       </c>
       <c r="X236" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y236" t="n">
         <v>29</v>
       </c>
       <c r="Z236" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA236" t="n">
         <v>6.5</v>
       </c>
       <c r="AB236" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC236" t="n">
         <v>51</v>
       </c>
       <c r="AD236" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE236" t="n">
         <v>8.5</v>
@@ -27994,10 +28096,10 @@
         <v>11</v>
       </c>
       <c r="AH236" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI236" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ236" t="n">
         <v>34</v>
@@ -28544,10 +28646,10 @@
         <v>3.75</v>
       </c>
       <c r="N241" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O241" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P241" t="n">
         <v>1.36</v>
@@ -29389,7 +29491,7 @@
         <v>1.01</v>
       </c>
       <c r="K248" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L248" t="n">
         <v>1.11</v>
@@ -29865,13 +29967,13 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H252" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I252" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="J252" t="n">
         <v>1.03</v>
@@ -29898,10 +30000,10 @@
         <v>3.75</v>
       </c>
       <c r="R252" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S252" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="T252" t="n">
         <v>26</v>
@@ -29913,10 +30015,10 @@
         <v>29</v>
       </c>
       <c r="W252" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="X252" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="Y252" t="n">
         <v>67</v>
@@ -29925,28 +30027,28 @@
         <v>15</v>
       </c>
       <c r="AA252" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB252" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC252" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD252" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AE252" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF252" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG252" t="n">
         <v>9.5</v>
       </c>
       <c r="AH252" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI252" t="n">
         <v>11</v>
@@ -31387,10 +31489,10 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H265" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I265" t="n">
         <v>1.88</v>
@@ -31399,34 +31501,34 @@
         <v>1.04</v>
       </c>
       <c r="K265" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="L265" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M265" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N265" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O265" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P265" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="Q265" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="R265" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S265" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="T265" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="U265" t="n">
         <v>21</v>
@@ -31435,19 +31537,19 @@
         <v>12</v>
       </c>
       <c r="W265" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X265" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y265" t="n">
         <v>30</v>
       </c>
       <c r="Z265" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA265" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AB265" t="n">
         <v>13</v>
@@ -31459,10 +31561,10 @@
         <v>300</v>
       </c>
       <c r="AE265" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF265" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AG265" t="n">
         <v>8.5</v>
@@ -31471,10 +31573,10 @@
         <v>16.5</v>
       </c>
       <c r="AI265" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ265" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="266">
@@ -31753,19 +31855,19 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H268" t="n">
         <v>3</v>
       </c>
       <c r="I268" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J268" t="n">
         <v>1.08</v>
       </c>
       <c r="K268" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L268" t="n">
         <v>1.36</v>
@@ -31780,10 +31882,10 @@
         <v>1.65</v>
       </c>
       <c r="P268" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q268" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R268" t="n">
         <v>1.91</v>
@@ -31801,7 +31903,7 @@
         <v>9</v>
       </c>
       <c r="W268" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X268" t="n">
         <v>17</v>
@@ -31834,7 +31936,7 @@
         <v>15</v>
       </c>
       <c r="AH268" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI268" t="n">
         <v>41</v>
@@ -32482,10 +32584,10 @@
         <v>4</v>
       </c>
       <c r="J274" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K274" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L274" t="n">
         <v>1.25</v>
@@ -32595,13 +32697,13 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H275" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I275" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J275" t="n">
         <v>1.03</v>
@@ -32628,16 +32730,16 @@
         <v>3.75</v>
       </c>
       <c r="R275" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S275" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T275" t="n">
+        <v>10</v>
+      </c>
+      <c r="U275" t="n">
         <v>9.5</v>
-      </c>
-      <c r="U275" t="n">
-        <v>9</v>
       </c>
       <c r="V275" t="n">
         <v>8.5</v>
@@ -32649,7 +32751,7 @@
         <v>12</v>
       </c>
       <c r="Y275" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z275" t="n">
         <v>17</v>
@@ -32658,19 +32760,19 @@
         <v>8.5</v>
       </c>
       <c r="AB275" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC275" t="n">
         <v>41</v>
       </c>
       <c r="AD275" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE275" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF275" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG275" t="n">
         <v>15</v>
@@ -33023,13 +33125,13 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H279" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I279" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
@@ -33058,16 +33160,16 @@
         <v>1.7</v>
       </c>
       <c r="T279" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="U279" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="V279" t="n">
         <v>8.5</v>
       </c>
       <c r="W279" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="X279" t="n">
         <v>17.5</v>
@@ -33088,16 +33190,16 @@
         <v>100</v>
       </c>
       <c r="AD279" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE279" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF279" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG279" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH279" t="n">
         <v>75</v>

--- a/Jogos_da_Semana_FlashScore_2025-04-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-27.xlsx
@@ -656,10 +656,10 @@
         <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
         <v>1.22</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -912,16 +912,16 @@
         <v>3.5</v>
       </c>
       <c r="N4" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="O4" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="P4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
         <v>2</v>
@@ -948,7 +948,7 @@
         <v>51</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
         <v>7.5</v>
@@ -963,16 +963,16 @@
         <v>401</v>
       </c>
       <c r="AE4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG4" t="n">
         <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>13</v>
@@ -1278,10 +1278,10 @@
         <v>3.5</v>
       </c>
       <c r="N7" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="O7" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="P7" t="n">
         <v>1.4</v>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I8" t="n">
         <v>6</v>
@@ -1418,7 +1418,7 @@
         <v>2.1</v>
       </c>
       <c r="T8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U8" t="n">
         <v>8.5</v>
@@ -1451,13 +1451,13 @@
         <v>151</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
         <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
         <v>67</v>
@@ -1510,10 +1510,10 @@
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
         <v>1.25</v>
@@ -1522,10 +1522,10 @@
         <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>1.33</v>
@@ -1534,13 +1534,13 @@
         <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U9" t="n">
         <v>12</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
         <v>3.5</v>
@@ -2001,7 +2001,7 @@
         <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.36</v>
@@ -2034,7 +2034,7 @@
         <v>8</v>
       </c>
       <c r="V13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W13" t="n">
         <v>15</v>
@@ -2061,7 +2061,7 @@
         <v>401</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
         <v>21</v>
@@ -2111,19 +2111,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
         <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
         <v>1.06</v>
       </c>
       <c r="K14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L14" t="n">
         <v>1.33</v>
@@ -2132,10 +2132,10 @@
         <v>3.4</v>
       </c>
       <c r="N14" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="O14" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="P14" t="n">
         <v>1.4</v>
@@ -2144,13 +2144,13 @@
         <v>2.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S14" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U14" t="n">
         <v>8</v>
@@ -2159,7 +2159,7 @@
         <v>8.5</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X14" t="n">
         <v>15</v>
@@ -2168,7 +2168,7 @@
         <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA14" t="n">
         <v>7</v>
@@ -2180,13 +2180,13 @@
         <v>51</v>
       </c>
       <c r="AD14" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE14" t="n">
         <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
         <v>15</v>
@@ -2254,10 +2254,10 @@
         <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="P15" t="n">
         <v>1.29</v>
@@ -2490,16 +2490,16 @@
         <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N17" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="O17" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="P17" t="n">
         <v>1.4</v>
@@ -2728,10 +2728,10 @@
         <v>5.75</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L19" t="n">
         <v>1.17</v>
@@ -2856,10 +2856,10 @@
         <v>13</v>
       </c>
       <c r="L20" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N20" t="n">
         <v>1.7</v>
@@ -2963,13 +2963,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
         <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J21" t="n">
         <v>1.03</v>
@@ -3020,7 +3020,7 @@
         <v>23</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="n">
         <v>7.5</v>
@@ -3029,13 +3029,13 @@
         <v>12</v>
       </c>
       <c r="AC21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD21" t="n">
         <v>126</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF21" t="n">
         <v>15</v>
@@ -3695,13 +3695,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="J27" t="n">
         <v>1.14</v>
@@ -3728,61 +3728,61 @@
         <v>2.1</v>
       </c>
       <c r="R27" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S27" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T27" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="U27" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="V27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W27" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="X27" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y27" t="n">
         <v>51</v>
       </c>
       <c r="Z27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD27" t="n">
         <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF27" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH27" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -4680,13 +4680,13 @@
         <v>7.5</v>
       </c>
       <c r="J35" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K35" t="n">
         <v>19</v>
       </c>
       <c r="L35" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="M35" t="n">
         <v>5.5</v>
@@ -4802,13 +4802,13 @@
         <v>2.63</v>
       </c>
       <c r="J36" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K36" t="n">
         <v>21</v>
       </c>
       <c r="L36" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="M36" t="n">
         <v>7</v>
@@ -5052,16 +5052,16 @@
         <v>13</v>
       </c>
       <c r="L38" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M38" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N38" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O38" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P38" t="n">
         <v>1.33</v>
@@ -5403,13 +5403,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I41" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -5417,7 +5417,7 @@
         <v>1.37</v>
       </c>
       <c r="M41" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="N41" t="n">
         <v>2.07</v>
@@ -5432,19 +5432,19 @@
         <v>2.35</v>
       </c>
       <c r="R41" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S41" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T41" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="U41" t="n">
         <v>20</v>
       </c>
       <c r="V41" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="W41" t="n">
         <v>60</v>
@@ -5453,40 +5453,40 @@
         <v>40</v>
       </c>
       <c r="Y41" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z41" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD41" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE41" t="n">
         <v>6.1</v>
       </c>
       <c r="AF41" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AG41" t="n">
         <v>8.75</v>
       </c>
       <c r="AH41" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ41" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
@@ -6013,13 +6013,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H48" t="n">
         <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J48" t="n">
         <v>1.05</v>
@@ -6055,13 +6055,13 @@
         <v>11</v>
       </c>
       <c r="U48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V48" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X48" t="n">
         <v>23</v>
@@ -6085,7 +6085,7 @@
         <v>151</v>
       </c>
       <c r="AE48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF48" t="n">
         <v>12</v>
@@ -6266,22 +6266,22 @@
         <v>2.75</v>
       </c>
       <c r="J50" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L50" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M50" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N50" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="O50" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="P50" t="n">
         <v>1.36</v>
@@ -6394,16 +6394,16 @@
         <v>13</v>
       </c>
       <c r="L51" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M51" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N51" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O51" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P51" t="n">
         <v>1.3</v>
@@ -6806,36 +6806,90 @@
           <t>Velez Mostar</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.42</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T55" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="U55" t="n">
+        <v>50</v>
+      </c>
+      <c r="V55" t="n">
+        <v>27</v>
+      </c>
+      <c r="W55" t="n">
+        <v>250</v>
+      </c>
+      <c r="X55" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>175</v>
+      </c>
       <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="inlineStr"/>
-      <c r="AG55" t="inlineStr"/>
-      <c r="AH55" t="inlineStr"/>
-      <c r="AI55" t="inlineStr"/>
-      <c r="AJ55" t="inlineStr"/>
+      <c r="AE55" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6868,36 +6922,88 @@
           <t>Siroki Brijeg</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I56" t="n">
+        <v>8.25</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.87</v>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="inlineStr"/>
-      <c r="AG56" t="inlineStr"/>
-      <c r="AH56" t="inlineStr"/>
-      <c r="AI56" t="inlineStr"/>
-      <c r="AJ56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T56" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U56" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="V56" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W56" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X56" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>250</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6940,10 +7046,10 @@
         <v>7.5</v>
       </c>
       <c r="J57" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L57" t="n">
         <v>1.33</v>
@@ -6952,10 +7058,10 @@
         <v>3.4</v>
       </c>
       <c r="N57" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="O57" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="P57" t="n">
         <v>1.4</v>
@@ -7006,7 +7112,7 @@
         <v>15</v>
       </c>
       <c r="AF57" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG57" t="n">
         <v>23</v>
@@ -7068,10 +7174,10 @@
         <v>9</v>
       </c>
       <c r="L58" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M58" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N58" t="n">
         <v>2.15</v>
@@ -7178,16 +7284,16 @@
         <v>1.62</v>
       </c>
       <c r="H59" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I59" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J59" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L59" t="n">
         <v>1.3</v>
@@ -7196,10 +7302,10 @@
         <v>3.5</v>
       </c>
       <c r="N59" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="O59" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="P59" t="n">
         <v>1.36</v>
@@ -7666,19 +7772,19 @@
         <v>2.15</v>
       </c>
       <c r="H63" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="I63" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J63" t="n">
         <v>1.13</v>
       </c>
       <c r="K63" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L63" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="M63" t="n">
         <v>2.32</v>
@@ -7693,7 +7799,7 @@
         <v>1.57</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R63" t="n">
         <v>2.12</v>
@@ -7720,7 +7826,7 @@
         <v>40</v>
       </c>
       <c r="Z63" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AA63" t="n">
         <v>5.7</v>
@@ -7744,7 +7850,7 @@
         <v>13.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI63" t="n">
         <v>45</v>
@@ -7785,13 +7891,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H64" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="I64" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J64" t="n">
         <v>1.12</v>
@@ -7800,10 +7906,10 @@
         <v>5.3</v>
       </c>
       <c r="L64" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M64" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="N64" t="n">
         <v>2.5</v>
@@ -7818,25 +7924,25 @@
         <v>2.3</v>
       </c>
       <c r="R64" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S64" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T64" t="n">
         <v>5.3</v>
       </c>
       <c r="U64" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="V64" t="n">
         <v>8.75</v>
       </c>
       <c r="W64" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="X64" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y64" t="n">
         <v>40</v>
@@ -7845,10 +7951,10 @@
         <v>5.3</v>
       </c>
       <c r="AA64" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AB64" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC64" t="n">
         <v>120</v>
@@ -7857,13 +7963,13 @@
         <v>101</v>
       </c>
       <c r="AE64" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF64" t="n">
         <v>25</v>
       </c>
       <c r="AG64" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH64" t="n">
         <v>90</v>
@@ -7872,7 +7978,7 @@
         <v>60</v>
       </c>
       <c r="AJ64" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65">
@@ -8341,7 +8447,7 @@
         <v>101</v>
       </c>
       <c r="AE68" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AF68" t="n">
         <v>16</v>
@@ -8409,7 +8515,7 @@
         <v>1.33</v>
       </c>
       <c r="M69" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="N69" t="n">
         <v>1.98</v>
@@ -8460,7 +8566,7 @@
         <v>75</v>
       </c>
       <c r="AD69" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE69" t="n">
         <v>7.9</v>
@@ -8650,16 +8756,16 @@
         <v>11</v>
       </c>
       <c r="L71" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M71" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N71" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O71" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P71" t="n">
         <v>1.4</v>
@@ -9367,19 +9473,19 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H77" t="n">
         <v>3.5</v>
       </c>
       <c r="I77" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J77" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K77" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L77" t="n">
         <v>1.25</v>
@@ -9388,16 +9494,16 @@
         <v>3.75</v>
       </c>
       <c r="N77" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O77" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="P77" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q77" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R77" t="n">
         <v>1.67</v>
@@ -9412,13 +9518,13 @@
         <v>13</v>
       </c>
       <c r="V77" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W77" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X77" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y77" t="n">
         <v>26</v>
@@ -9439,16 +9545,16 @@
         <v>151</v>
       </c>
       <c r="AE77" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF77" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG77" t="n">
         <v>10</v>
       </c>
       <c r="AH77" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI77" t="n">
         <v>21</v>
@@ -9614,7 +9720,7 @@
         <v>1.75</v>
       </c>
       <c r="H79" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I79" t="n">
         <v>4.2</v>
@@ -9650,7 +9756,7 @@
         <v>2.2</v>
       </c>
       <c r="T79" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U79" t="n">
         <v>9.5</v>
@@ -9698,7 +9804,7 @@
         <v>29</v>
       </c>
       <c r="AJ79" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
@@ -10021,7 +10127,7 @@
         <v>9</v>
       </c>
       <c r="W82" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X82" t="n">
         <v>18.5</v>
@@ -10030,7 +10136,7 @@
         <v>45</v>
       </c>
       <c r="Z82" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AA82" t="n">
         <v>6.3</v>
@@ -10051,10 +10157,10 @@
         <v>29</v>
       </c>
       <c r="AG82" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH82" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI82" t="n">
         <v>75</v>
@@ -10337,7 +10443,7 @@
         <v>3.5</v>
       </c>
       <c r="I85" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="J85" t="n">
         <v>1.07</v>
@@ -10453,7 +10559,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="H86" t="n">
         <v>3.3</v>
@@ -10575,10 +10681,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H87" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I87" t="n">
         <v>3.8</v>
@@ -10818,7 +10924,7 @@
         <v>1.82</v>
       </c>
       <c r="H89" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I89" t="n">
         <v>4.05</v>
@@ -10844,10 +10950,10 @@
         <v>2.4</v>
       </c>
       <c r="R89" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S89" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T89" t="n">
         <v>6.1</v>
@@ -10898,7 +11004,7 @@
         <v>40</v>
       </c>
       <c r="AJ89" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90">
@@ -10939,7 +11045,7 @@
         <v>3.45</v>
       </c>
       <c r="I90" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -10947,7 +11053,7 @@
         <v>1.34</v>
       </c>
       <c r="M90" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="N90" t="n">
         <v>2</v>
@@ -10962,13 +11068,13 @@
         <v>2.42</v>
       </c>
       <c r="R90" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S90" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T90" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="U90" t="n">
         <v>21</v>
@@ -10980,7 +11086,7 @@
         <v>65</v>
       </c>
       <c r="X90" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y90" t="n">
         <v>55</v>
@@ -10995,7 +11101,7 @@
         <v>17.5</v>
       </c>
       <c r="AC90" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD90" t="n">
         <v>900</v>
@@ -11295,13 +11401,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H93" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I93" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J93" t="n">
         <v>1.07</v>
@@ -11334,7 +11440,7 @@
         <v>1.8</v>
       </c>
       <c r="T93" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U93" t="n">
         <v>21</v>
@@ -11346,7 +11452,7 @@
         <v>41</v>
       </c>
       <c r="X93" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y93" t="n">
         <v>41</v>
@@ -11438,10 +11544,10 @@
         <v>3</v>
       </c>
       <c r="N94" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O94" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P94" t="n">
         <v>1.5</v>
@@ -12039,7 +12145,7 @@
         <v>1.04</v>
       </c>
       <c r="K99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L99" t="n">
         <v>1.25</v>
@@ -12048,10 +12154,10 @@
         <v>3.75</v>
       </c>
       <c r="N99" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O99" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P99" t="n">
         <v>1.33</v>
@@ -12414,10 +12520,10 @@
         <v>3.75</v>
       </c>
       <c r="N102" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O102" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P102" t="n">
         <v>1.36</v>
@@ -12637,19 +12743,19 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H104" t="n">
         <v>3.5</v>
       </c>
       <c r="I104" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J104" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K104" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L104" t="n">
         <v>1.36</v>
@@ -12682,7 +12788,7 @@
         <v>15</v>
       </c>
       <c r="V104" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W104" t="n">
         <v>34</v>
@@ -12706,19 +12812,19 @@
         <v>51</v>
       </c>
       <c r="AD104" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE104" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF104" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG104" t="n">
         <v>9.5</v>
       </c>
       <c r="AH104" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI104" t="n">
         <v>19</v>
@@ -12759,13 +12865,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H105" t="n">
         <v>3.9</v>
       </c>
       <c r="I105" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J105" t="n">
         <v>1.03</v>
@@ -12786,16 +12892,16 @@
         <v>2.35</v>
       </c>
       <c r="P105" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q105" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R105" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S105" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T105" t="n">
         <v>11</v>
@@ -12810,13 +12916,13 @@
         <v>19</v>
       </c>
       <c r="X105" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y105" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z105" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA105" t="n">
         <v>8</v>
@@ -12828,25 +12934,25 @@
         <v>34</v>
       </c>
       <c r="AD105" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE105" t="n">
         <v>15</v>
       </c>
       <c r="AF105" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG105" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH105" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI105" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ105" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106">
@@ -12890,13 +12996,13 @@
         <v>4.33</v>
       </c>
       <c r="J106" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K106" t="n">
         <v>17</v>
       </c>
       <c r="L106" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
@@ -13012,22 +13118,22 @@
         <v>3.75</v>
       </c>
       <c r="J107" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K107" t="n">
         <v>11</v>
       </c>
       <c r="L107" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M107" t="n">
         <v>3.75</v>
       </c>
       <c r="N107" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O107" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P107" t="n">
         <v>1.36</v>
@@ -13134,13 +13240,13 @@
         <v>2.05</v>
       </c>
       <c r="J108" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K108" t="n">
         <v>8.5</v>
       </c>
       <c r="L108" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
@@ -13256,16 +13362,16 @@
         <v>3.6</v>
       </c>
       <c r="J109" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K109" t="n">
         <v>8</v>
       </c>
       <c r="L109" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M109" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N109" t="n">
         <v>2.4</v>
@@ -13378,13 +13484,13 @@
         <v>3.3</v>
       </c>
       <c r="J110" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K110" t="n">
         <v>8.5</v>
       </c>
       <c r="L110" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M110" t="n">
         <v>3</v>
@@ -13491,22 +13597,22 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H111" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I111" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J111" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K111" t="n">
         <v>15</v>
       </c>
       <c r="L111" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
@@ -13518,10 +13624,10 @@
         <v>2.1</v>
       </c>
       <c r="P111" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q111" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R111" t="n">
         <v>1.91</v>
@@ -13545,22 +13651,22 @@
         <v>12</v>
       </c>
       <c r="Y111" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z111" t="n">
         <v>13</v>
       </c>
       <c r="AA111" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB111" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC111" t="n">
         <v>51</v>
       </c>
       <c r="AD111" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE111" t="n">
         <v>17</v>
@@ -13569,7 +13675,7 @@
         <v>34</v>
       </c>
       <c r="AG111" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH111" t="n">
         <v>67</v>
@@ -13727,27 +13833,27 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="H113" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I113" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M113" t="n">
         <v>3.7</v>
       </c>
       <c r="N113" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O113" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P113" t="inlineStr"/>
       <c r="Q113" t="inlineStr"/>
@@ -13755,31 +13861,31 @@
         <v>1.69</v>
       </c>
       <c r="S113" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="T113" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="U113" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V113" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W113" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X113" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y113" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z113" t="n">
         <v>12</v>
       </c>
       <c r="AA113" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB113" t="n">
         <v>11.75</v>
@@ -13794,16 +13900,16 @@
         <v>7</v>
       </c>
       <c r="AF113" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AG113" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AH113" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI113" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ113" t="n">
         <v>18.5</v>
@@ -13850,22 +13956,22 @@
         <v>2.2</v>
       </c>
       <c r="J114" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K114" t="n">
         <v>11</v>
       </c>
       <c r="L114" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M114" t="n">
         <v>3.5</v>
       </c>
       <c r="N114" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O114" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P114" t="n">
         <v>1.4</v>
@@ -13972,13 +14078,13 @@
         <v>1.38</v>
       </c>
       <c r="J115" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K115" t="n">
         <v>15</v>
       </c>
       <c r="L115" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M115" t="n">
         <v>4.5</v>
@@ -14199,13 +14305,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H117" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I117" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -14216,60 +14322,60 @@
         <v>6.2</v>
       </c>
       <c r="N117" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="O117" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
       <c r="R117" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S117" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="T117" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U117" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V117" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W117" t="n">
         <v>30</v>
       </c>
       <c r="X117" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y117" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y117" t="n">
-        <v>17</v>
-      </c>
       <c r="Z117" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA117" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB117" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC117" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD117" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AE117" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF117" t="n">
         <v>20</v>
       </c>
       <c r="AG117" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH117" t="n">
         <v>32</v>
@@ -14278,7 +14384,7 @@
         <v>17</v>
       </c>
       <c r="AJ117" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="118">
@@ -14442,7 +14548,7 @@
         <v>23</v>
       </c>
       <c r="L119" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="M119" t="n">
         <v>6.5</v>
@@ -14558,22 +14664,22 @@
         <v>2.15</v>
       </c>
       <c r="J120" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K120" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L120" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="M120" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N120" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O120" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P120" t="n">
         <v>1.33</v>
@@ -14680,13 +14786,13 @@
         <v>3.25</v>
       </c>
       <c r="J121" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K121" t="n">
         <v>15</v>
       </c>
       <c r="L121" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M121" t="n">
         <v>5</v>
@@ -14802,13 +14908,13 @@
         <v>2.05</v>
       </c>
       <c r="J122" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K122" t="n">
         <v>15</v>
       </c>
       <c r="L122" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M122" t="n">
         <v>4.33</v>
@@ -15162,16 +15268,16 @@
         <v>2.3</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I125" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J125" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K125" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L125" t="n">
         <v>1.44</v>
@@ -15180,10 +15286,10 @@
         <v>2.63</v>
       </c>
       <c r="N125" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O125" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P125" t="n">
         <v>1.5</v>
@@ -15204,7 +15310,7 @@
         <v>10</v>
       </c>
       <c r="V125" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W125" t="n">
         <v>21</v>
@@ -15225,10 +15331,10 @@
         <v>17</v>
       </c>
       <c r="AC125" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD125" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE125" t="n">
         <v>8.5</v>
@@ -15290,10 +15396,10 @@
         <v>3.8</v>
       </c>
       <c r="J126" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L126" t="n">
         <v>1.29</v>
@@ -15302,10 +15408,10 @@
         <v>3.5</v>
       </c>
       <c r="N126" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O126" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P126" t="n">
         <v>1.36</v>
@@ -15531,8 +15637,12 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M128" t="n">
+        <v>3.6</v>
+      </c>
       <c r="N128" t="n">
         <v>1.78</v>
       </c>
@@ -15541,8 +15651,12 @@
       </c>
       <c r="P128" t="inlineStr"/>
       <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
+      <c r="R128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S128" t="n">
+        <v>1.54</v>
+      </c>
       <c r="T128" t="n">
         <v>15.5</v>
       </c>
@@ -15735,21 +15849,21 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.05</v>
+        <v>2.42</v>
       </c>
       <c r="H130" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="I130" t="n">
-        <v>4.35</v>
+        <v>3.55</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M130" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N130" t="n">
         <v>2.05</v>
@@ -15758,63 +15872,63 @@
         <v>1.62</v>
       </c>
       <c r="P130" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="n">
-        <v>4.45</v>
+        <v>4.85</v>
       </c>
       <c r="U130" t="n">
-        <v>7.1</v>
+        <v>8.75</v>
       </c>
       <c r="V130" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="W130" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="X130" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="Y130" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z130" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="AA130" t="n">
-        <v>4.65</v>
+        <v>4.4</v>
       </c>
       <c r="AB130" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC130" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD130" t="n">
         <v>450</v>
       </c>
       <c r="AE130" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="AF130" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG130" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH130" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AI130" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ130" t="n">
         <v>40</v>
-      </c>
-      <c r="AJ130" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="131">
@@ -16699,7 +16813,7 @@
         <v>1.03</v>
       </c>
       <c r="K138" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L138" t="n">
         <v>1.17</v>
@@ -16940,10 +17054,10 @@
         <v>3.1</v>
       </c>
       <c r="J140" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K140" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L140" t="n">
         <v>1.5</v>
@@ -17053,13 +17167,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H141" t="n">
         <v>3.1</v>
       </c>
       <c r="I141" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J141" t="n">
         <v>1.08</v>
@@ -17083,28 +17197,28 @@
         <v>1.44</v>
       </c>
       <c r="Q141" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R141" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S141" t="n">
         <v>1.85</v>
       </c>
       <c r="T141" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="U141" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V141" t="n">
         <v>9</v>
       </c>
       <c r="W141" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X141" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y141" t="n">
         <v>32</v>
@@ -17119,25 +17233,25 @@
         <v>15</v>
       </c>
       <c r="AC141" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD141" t="n">
         <v>700</v>
       </c>
       <c r="AE141" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF141" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG141" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH141" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI141" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ141" t="n">
         <v>40</v>
@@ -17458,7 +17572,7 @@
         <v>1.7</v>
       </c>
       <c r="T144" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U144" t="n">
         <v>9.75</v>
@@ -17470,7 +17584,7 @@
         <v>22</v>
       </c>
       <c r="X144" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y144" t="n">
         <v>40</v>
@@ -17491,13 +17605,13 @@
         <v>101</v>
       </c>
       <c r="AE144" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AF144" t="n">
         <v>16</v>
       </c>
       <c r="AG144" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH144" t="n">
         <v>50</v>
@@ -17506,7 +17620,7 @@
         <v>37</v>
       </c>
       <c r="AJ144" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145">
@@ -17541,7 +17655,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H145" t="n">
         <v>3.15</v>
@@ -17553,7 +17667,7 @@
         <v>1.08</v>
       </c>
       <c r="K145" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L145" t="n">
         <v>1.36</v>
@@ -17571,34 +17685,34 @@
         <v>1.4</v>
       </c>
       <c r="Q145" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="R145" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S145" t="n">
         <v>1.85</v>
       </c>
       <c r="T145" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="U145" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V145" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W145" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="X145" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y145" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z145" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA145" t="n">
         <v>6.2</v>
@@ -17613,19 +17727,19 @@
         <v>700</v>
       </c>
       <c r="AE145" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF145" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG145" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH145" t="n">
         <v>65</v>
       </c>
       <c r="AI145" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ145" t="n">
         <v>45</v>
@@ -17681,10 +17795,10 @@
         <v>1.35</v>
       </c>
       <c r="M146" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="N146" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O146" t="n">
         <v>1.7</v>
@@ -17699,19 +17813,19 @@
         <v>1.82</v>
       </c>
       <c r="S146" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T146" t="n">
         <v>8</v>
       </c>
       <c r="U146" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V146" t="n">
         <v>10</v>
       </c>
       <c r="W146" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X146" t="n">
         <v>23</v>
@@ -17726,7 +17840,7 @@
         <v>6.2</v>
       </c>
       <c r="AB146" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC146" t="n">
         <v>75</v>
@@ -17735,7 +17849,7 @@
         <v>600</v>
       </c>
       <c r="AE146" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AF146" t="n">
         <v>12</v>
@@ -17744,7 +17858,7 @@
         <v>9.75</v>
       </c>
       <c r="AH146" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI146" t="n">
         <v>21</v>
@@ -17907,7 +18021,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H148" t="n">
         <v>3.25</v>
@@ -17979,7 +18093,7 @@
         <v>700</v>
       </c>
       <c r="AE148" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AF148" t="n">
         <v>8.25</v>
@@ -17991,7 +18105,7 @@
         <v>15.5</v>
       </c>
       <c r="AI148" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ148" t="n">
         <v>32</v>
@@ -18029,94 +18143,94 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="H149" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="I149" t="n">
-        <v>4.65</v>
+        <v>3.95</v>
       </c>
       <c r="J149" t="n">
         <v>1.06</v>
       </c>
       <c r="K149" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="L149" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M149" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N149" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="O149" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="P149" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="R149" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="S149" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="T149" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="U149" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="V149" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W149" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="X149" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y149" t="n">
         <v>26</v>
       </c>
       <c r="Z149" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AA149" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB149" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AC149" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AD149" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AE149" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF149" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG149" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH149" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AI149" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AJ149" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150">
@@ -19166,7 +19280,7 @@
         <v>2.02</v>
       </c>
       <c r="T158" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U158" t="n">
         <v>11.25</v>
@@ -19187,7 +19301,7 @@
         <v>7.2</v>
       </c>
       <c r="AA158" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB158" t="n">
         <v>13.5</v>
@@ -19202,16 +19316,16 @@
         <v>9.25</v>
       </c>
       <c r="AF158" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG158" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH158" t="n">
         <v>37</v>
       </c>
       <c r="AI158" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ158" t="n">
         <v>32</v>
@@ -19255,7 +19369,7 @@
         <v>3.6</v>
       </c>
       <c r="I159" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -19290,13 +19404,13 @@
         <v>5.4</v>
       </c>
       <c r="V159" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="W159" t="n">
         <v>8.25</v>
       </c>
       <c r="X159" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y159" t="n">
         <v>26</v>
@@ -19305,7 +19419,7 @@
         <v>8.25</v>
       </c>
       <c r="AA159" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB159" t="n">
         <v>17</v>
@@ -19320,16 +19434,16 @@
         <v>11</v>
       </c>
       <c r="AF159" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG159" t="n">
         <v>17</v>
       </c>
       <c r="AH159" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI159" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ159" t="n">
         <v>65</v>
@@ -19367,10 +19481,10 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H160" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I160" t="n">
         <v>2.02</v>
@@ -19402,7 +19516,7 @@
         <v>1.72</v>
       </c>
       <c r="T160" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="U160" t="n">
         <v>13</v>
@@ -19414,7 +19528,7 @@
         <v>35</v>
       </c>
       <c r="X160" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y160" t="n">
         <v>37</v>
@@ -19423,7 +19537,7 @@
         <v>7.6</v>
       </c>
       <c r="AA160" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB160" t="n">
         <v>14</v>
@@ -19450,7 +19564,7 @@
         <v>15</v>
       </c>
       <c r="AJ160" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161">
@@ -19732,10 +19846,10 @@
         <v>1.62</v>
       </c>
       <c r="H163" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I163" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -19754,22 +19868,22 @@
       <c r="P163" t="inlineStr"/>
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S163" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T163" t="n">
         <v>8.25</v>
       </c>
       <c r="U163" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V163" t="n">
         <v>8</v>
       </c>
       <c r="W163" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="X163" t="n">
         <v>12</v>
@@ -19778,16 +19892,16 @@
         <v>22</v>
       </c>
       <c r="Z163" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA163" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AB163" t="n">
         <v>14.5</v>
       </c>
       <c r="AC163" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD163" t="n">
         <v>400</v>
@@ -19796,7 +19910,7 @@
         <v>15</v>
       </c>
       <c r="AF163" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG163" t="n">
         <v>14.5</v>
@@ -19843,13 +19957,13 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H164" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I164" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -19868,55 +19982,55 @@
       <c r="P164" t="inlineStr"/>
       <c r="Q164" t="inlineStr"/>
       <c r="R164" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S164" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T164" t="n">
         <v>8.5</v>
       </c>
       <c r="U164" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="V164" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W164" t="n">
         <v>13</v>
       </c>
       <c r="X164" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y164" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z164" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA164" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AB164" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC164" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD164" t="n">
         <v>350</v>
       </c>
       <c r="AE164" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF164" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG164" t="n">
         <v>14.5</v>
       </c>
       <c r="AH164" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI164" t="n">
         <v>37</v>
@@ -19960,7 +20074,7 @@
         <v>1.5</v>
       </c>
       <c r="H165" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I165" t="n">
         <v>6</v>
@@ -19996,10 +20110,10 @@
         <v>2.2</v>
       </c>
       <c r="T165" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U165" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V165" t="n">
         <v>8.5</v>
@@ -20038,7 +20152,7 @@
         <v>19</v>
       </c>
       <c r="AH165" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI165" t="n">
         <v>41</v>
@@ -20094,16 +20208,16 @@
         <v>15</v>
       </c>
       <c r="L166" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M166" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N166" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O166" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P166" t="n">
         <v>1.29</v>
@@ -20210,10 +20324,10 @@
         <v>10</v>
       </c>
       <c r="J167" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K167" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L167" t="n">
         <v>1.17</v>
@@ -20222,10 +20336,10 @@
         <v>5</v>
       </c>
       <c r="N167" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O167" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P167" t="n">
         <v>1.29</v>
@@ -20445,25 +20559,25 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H169" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I169" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J169" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K169" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L169" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M169" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N169" t="n">
         <v>2.1</v>
@@ -20484,13 +20598,13 @@
         <v>1.8</v>
       </c>
       <c r="T169" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U169" t="n">
         <v>21</v>
       </c>
       <c r="V169" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W169" t="n">
         <v>41</v>
@@ -20526,7 +20640,7 @@
         <v>9</v>
       </c>
       <c r="AH169" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI169" t="n">
         <v>17</v>
@@ -20588,10 +20702,10 @@
         <v>4</v>
       </c>
       <c r="N170" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O170" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="P170" t="n">
         <v>1.33</v>
@@ -20933,13 +21047,13 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H173" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I173" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J173" t="n">
         <v>1.03</v>
@@ -20975,13 +21089,13 @@
         <v>8.5</v>
       </c>
       <c r="U173" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V173" t="n">
         <v>8.5</v>
       </c>
       <c r="W173" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X173" t="n">
         <v>13</v>
@@ -21008,13 +21122,13 @@
         <v>15</v>
       </c>
       <c r="AF173" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG173" t="n">
         <v>15</v>
       </c>
       <c r="AH173" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI173" t="n">
         <v>34</v>
@@ -21076,10 +21190,10 @@
         <v>3.75</v>
       </c>
       <c r="N174" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O174" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="P174" t="n">
         <v>1.33</v>
@@ -21198,10 +21312,10 @@
         <v>4.33</v>
       </c>
       <c r="N175" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O175" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P175" t="n">
         <v>1.3</v>
@@ -21604,9 +21718,15 @@
           <t>Encarnacion FC</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr"/>
+      <c r="G179" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H179" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I179" t="n">
+        <v>4.3</v>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
@@ -21679,19 +21799,19 @@
         <v>1.06</v>
       </c>
       <c r="K180" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L180" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M180" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N180" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O180" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P180" t="n">
         <v>1.4</v>
@@ -22054,10 +22174,10 @@
         <v>3.75</v>
       </c>
       <c r="N183" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O183" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P183" t="n">
         <v>1.36</v>
@@ -22399,13 +22519,13 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H186" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I186" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J186" t="n">
         <v>1.07</v>
@@ -22447,7 +22567,7 @@
         <v>11</v>
       </c>
       <c r="W186" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X186" t="n">
         <v>23</v>
@@ -22456,7 +22576,7 @@
         <v>34</v>
       </c>
       <c r="Z186" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA186" t="n">
         <v>6</v>
@@ -22474,7 +22594,7 @@
         <v>8</v>
       </c>
       <c r="AF186" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG186" t="n">
         <v>11</v>
@@ -22521,13 +22641,13 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H187" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I187" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J187" t="n">
         <v>1.03</v>
@@ -22542,10 +22662,10 @@
         <v>4.5</v>
       </c>
       <c r="N187" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O187" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P187" t="n">
         <v>1.3</v>
@@ -22608,7 +22728,7 @@
         <v>29</v>
       </c>
       <c r="AJ187" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="188">
@@ -22643,19 +22763,19 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H188" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I188" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J188" t="n">
         <v>1.06</v>
       </c>
       <c r="K188" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L188" t="n">
         <v>1.29</v>
@@ -22700,7 +22820,7 @@
         <v>41</v>
       </c>
       <c r="Z188" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA188" t="n">
         <v>6.5</v>
@@ -22724,7 +22844,7 @@
         <v>9</v>
       </c>
       <c r="AH188" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI188" t="n">
         <v>15</v>
@@ -22765,13 +22885,13 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H189" t="n">
         <v>3</v>
       </c>
       <c r="I189" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J189" t="n">
         <v>1.08</v>
@@ -22798,28 +22918,28 @@
         <v>2.63</v>
       </c>
       <c r="R189" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S189" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T189" t="n">
         <v>7</v>
       </c>
       <c r="U189" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V189" t="n">
         <v>9.5</v>
       </c>
       <c r="W189" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X189" t="n">
         <v>19</v>
       </c>
       <c r="Y189" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z189" t="n">
         <v>8</v>
@@ -22849,7 +22969,7 @@
         <v>41</v>
       </c>
       <c r="AI189" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ189" t="n">
         <v>41</v>
@@ -22920,10 +23040,10 @@
         <v>5</v>
       </c>
       <c r="R190" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S190" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T190" t="n">
         <v>12</v>
@@ -22935,10 +23055,10 @@
         <v>13</v>
       </c>
       <c r="W190" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X190" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y190" t="n">
         <v>34</v>
@@ -22956,7 +23076,7 @@
         <v>101</v>
       </c>
       <c r="AD190" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE190" t="n">
         <v>41</v>
@@ -22965,16 +23085,16 @@
         <v>101</v>
       </c>
       <c r="AG190" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH190" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AI190" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ190" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="191">
@@ -23143,7 +23263,7 @@
         <v>1.03</v>
       </c>
       <c r="K192" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L192" t="n">
         <v>1.17</v>
@@ -23253,19 +23373,19 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H193" t="n">
         <v>3.1</v>
       </c>
       <c r="I193" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J193" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K193" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L193" t="n">
         <v>1.33</v>
@@ -23292,10 +23412,10 @@
         <v>1.91</v>
       </c>
       <c r="T193" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U193" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V193" t="n">
         <v>10</v>
@@ -23334,7 +23454,7 @@
         <v>11</v>
       </c>
       <c r="AH193" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI193" t="n">
         <v>23</v>
@@ -24359,13 +24479,13 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H206" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="I206" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
@@ -24382,67 +24502,67 @@
         <v>3.55</v>
       </c>
       <c r="P206" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Q206" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="R206" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S206" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="T206" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="U206" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V206" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W206" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X206" t="n">
         <v>9.75</v>
       </c>
       <c r="Y206" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z206" t="n">
         <v>35</v>
       </c>
       <c r="AA206" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB206" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC206" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD206" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE206" t="n">
         <v>45</v>
       </c>
       <c r="AF206" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG206" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AH206" t="n">
         <v>250</v>
       </c>
       <c r="AI206" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ206" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="207">
@@ -24602,16 +24722,16 @@
         <v>1.98</v>
       </c>
       <c r="H208" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I208" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J208" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K208" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L208" t="n">
         <v>1.23</v>
@@ -24629,7 +24749,7 @@
         <v>1.36</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="R208" t="n">
         <v>1.6</v>
@@ -24638,10 +24758,10 @@
         <v>2.2</v>
       </c>
       <c r="T208" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U208" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V208" t="n">
         <v>8.5</v>
@@ -24650,13 +24770,13 @@
         <v>18.5</v>
       </c>
       <c r="X208" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y208" t="n">
         <v>22</v>
       </c>
       <c r="Z208" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA208" t="n">
         <v>6.9</v>
@@ -24671,7 +24791,7 @@
         <v>300</v>
       </c>
       <c r="AE208" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF208" t="n">
         <v>20</v>
@@ -24683,10 +24803,10 @@
         <v>45</v>
       </c>
       <c r="AI208" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ208" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209">
@@ -24727,7 +24847,7 @@
         <v>3.25</v>
       </c>
       <c r="I209" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="J209" t="n">
         <v>1.09</v>
@@ -24751,7 +24871,7 @@
         <v>1.47</v>
       </c>
       <c r="Q209" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R209" t="n">
         <v>1.93</v>
@@ -24769,7 +24889,7 @@
         <v>9</v>
       </c>
       <c r="W209" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="X209" t="n">
         <v>17</v>
@@ -25126,13 +25246,13 @@
         <v>1.98</v>
       </c>
       <c r="T212" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U212" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V212" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W212" t="n">
         <v>28</v>
@@ -25159,7 +25279,7 @@
         <v>500</v>
       </c>
       <c r="AE212" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF212" t="n">
         <v>13</v>
@@ -25174,7 +25294,7 @@
         <v>22</v>
       </c>
       <c r="AJ212" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213">
@@ -25233,7 +25353,7 @@
         <v>2.15</v>
       </c>
       <c r="O213" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P213" t="n">
         <v>1.44</v>
@@ -25340,22 +25460,22 @@
         <v>3.3</v>
       </c>
       <c r="J214" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K214" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L214" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M214" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N214" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O214" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P214" t="n">
         <v>1.44</v>
@@ -25382,13 +25502,13 @@
         <v>21</v>
       </c>
       <c r="X214" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y214" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z214" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA214" t="n">
         <v>6</v>
@@ -25400,13 +25520,13 @@
         <v>51</v>
       </c>
       <c r="AD214" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE214" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF214" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG214" t="n">
         <v>12</v>
@@ -25474,10 +25594,10 @@
         <v>3.75</v>
       </c>
       <c r="N215" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="O215" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="P215" t="n">
         <v>1.36</v>
@@ -25599,7 +25719,7 @@
         <v>2.2</v>
       </c>
       <c r="O216" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P216" t="n">
         <v>1.44</v>
@@ -25697,19 +25817,19 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H217" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I217" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J217" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K217" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L217" t="n">
         <v>1.33</v>
@@ -25721,19 +25841,19 @@
         <v>2.05</v>
       </c>
       <c r="O217" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P217" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q217" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R217" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S217" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T217" t="n">
         <v>6</v>
@@ -25745,7 +25865,7 @@
         <v>8.5</v>
       </c>
       <c r="W217" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X217" t="n">
         <v>15</v>
@@ -25760,7 +25880,7 @@
         <v>7.5</v>
       </c>
       <c r="AB217" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC217" t="n">
         <v>67</v>
@@ -25772,7 +25892,7 @@
         <v>12</v>
       </c>
       <c r="AF217" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG217" t="n">
         <v>17</v>
@@ -25784,7 +25904,7 @@
         <v>41</v>
       </c>
       <c r="AJ217" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="218">
@@ -25828,13 +25948,13 @@
         <v>4.33</v>
       </c>
       <c r="J218" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K218" t="n">
         <v>10</v>
       </c>
       <c r="L218" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M218" t="n">
         <v>3.25</v>
@@ -25941,43 +26061,43 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H219" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I219" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J219" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K219" t="n">
         <v>15</v>
       </c>
       <c r="L219" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="M219" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N219" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O219" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P219" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q219" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R219" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S219" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T219" t="n">
         <v>9.5</v>
@@ -25998,10 +26118,10 @@
         <v>21</v>
       </c>
       <c r="Z219" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA219" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB219" t="n">
         <v>13</v>
@@ -26010,13 +26130,13 @@
         <v>41</v>
       </c>
       <c r="AD219" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE219" t="n">
         <v>15</v>
       </c>
       <c r="AF219" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG219" t="n">
         <v>13</v>
@@ -26072,22 +26192,22 @@
         <v>2.55</v>
       </c>
       <c r="J220" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K220" t="n">
         <v>11</v>
       </c>
       <c r="L220" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M220" t="n">
         <v>3.75</v>
       </c>
       <c r="N220" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O220" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P220" t="n">
         <v>1.36</v>
@@ -26188,19 +26308,19 @@
         <v>2.3</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I221" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J221" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K221" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L221" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M221" t="n">
         <v>2.5</v>
@@ -26218,13 +26338,13 @@
         <v>2.25</v>
       </c>
       <c r="R221" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S221" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T221" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U221" t="n">
         <v>9.5</v>
@@ -26242,16 +26362,16 @@
         <v>41</v>
       </c>
       <c r="Z221" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA221" t="n">
         <v>6</v>
       </c>
       <c r="AB221" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC221" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD221" t="n">
         <v>101</v>
@@ -26272,7 +26392,7 @@
         <v>34</v>
       </c>
       <c r="AJ221" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="222">
@@ -26316,22 +26436,22 @@
         <v>4.33</v>
       </c>
       <c r="J222" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K222" t="n">
         <v>8</v>
       </c>
       <c r="L222" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M222" t="n">
         <v>2.75</v>
       </c>
       <c r="N222" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O222" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P222" t="n">
         <v>1.44</v>
@@ -26438,13 +26558,13 @@
         <v>1.91</v>
       </c>
       <c r="J223" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K223" t="n">
         <v>8</v>
       </c>
       <c r="L223" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M223" t="n">
         <v>3.4</v>
@@ -26453,7 +26573,7 @@
         <v>2.03</v>
       </c>
       <c r="O223" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P223" t="n">
         <v>1.4</v>
@@ -26551,13 +26671,13 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H224" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I224" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J224" t="n">
         <v>1.1</v>
@@ -26593,16 +26713,16 @@
         <v>6</v>
       </c>
       <c r="U224" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V224" t="n">
         <v>10</v>
       </c>
       <c r="W224" t="n">
+        <v>19</v>
+      </c>
+      <c r="X224" t="n">
         <v>21</v>
-      </c>
-      <c r="X224" t="n">
-        <v>23</v>
       </c>
       <c r="Y224" t="n">
         <v>41</v>
@@ -26611,10 +26731,10 @@
         <v>6.5</v>
       </c>
       <c r="AA224" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB224" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC224" t="n">
         <v>81</v>
@@ -26638,7 +26758,7 @@
         <v>34</v>
       </c>
       <c r="AJ224" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="225">
@@ -26926,10 +27046,10 @@
         <v>3</v>
       </c>
       <c r="J227" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K227" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L227" t="n">
         <v>1.36</v>
@@ -26950,16 +27070,16 @@
         <v>2.63</v>
       </c>
       <c r="R227" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S227" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T227" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U227" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V227" t="n">
         <v>10</v>
@@ -26998,10 +27118,10 @@
         <v>12</v>
       </c>
       <c r="AH227" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI227" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ227" t="n">
         <v>41</v>
@@ -27048,10 +27168,10 @@
         <v>3</v>
       </c>
       <c r="J228" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K228" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L228" t="n">
         <v>1.33</v>
@@ -27111,7 +27231,7 @@
         <v>500</v>
       </c>
       <c r="AE228" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF228" t="n">
         <v>15</v>
@@ -27120,7 +27240,7 @@
         <v>12</v>
       </c>
       <c r="AH228" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI228" t="n">
         <v>26</v>
@@ -27292,10 +27412,10 @@
         <v>3.1</v>
       </c>
       <c r="J230" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K230" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L230" t="n">
         <v>1.33</v>
@@ -27325,7 +27445,7 @@
         <v>7.5</v>
       </c>
       <c r="U230" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V230" t="n">
         <v>10</v>
@@ -27361,13 +27481,13 @@
         <v>15</v>
       </c>
       <c r="AG230" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH230" t="n">
         <v>34</v>
       </c>
       <c r="AI230" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ230" t="n">
         <v>41</v>
@@ -27536,28 +27656,28 @@
         <v>3.9</v>
       </c>
       <c r="J232" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K232" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L232" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M232" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N232" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O232" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P232" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q232" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R232" t="n">
         <v>1.83</v>
@@ -27566,7 +27686,7 @@
         <v>1.83</v>
       </c>
       <c r="T232" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U232" t="n">
         <v>9</v>
@@ -27575,7 +27695,7 @@
         <v>9</v>
       </c>
       <c r="W232" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X232" t="n">
         <v>17</v>
@@ -27584,7 +27704,7 @@
         <v>29</v>
       </c>
       <c r="Z232" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA232" t="n">
         <v>6.5</v>
@@ -27596,10 +27716,10 @@
         <v>51</v>
       </c>
       <c r="AD232" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE232" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF232" t="n">
         <v>21</v>
@@ -27649,7 +27769,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H233" t="n">
         <v>3.6</v>
@@ -27658,13 +27778,13 @@
         <v>5.25</v>
       </c>
       <c r="J233" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K233" t="n">
         <v>7.5</v>
       </c>
       <c r="L233" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M233" t="n">
         <v>3</v>
@@ -27685,7 +27805,7 @@
         <v>2.2</v>
       </c>
       <c r="S233" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T233" t="n">
         <v>6</v>
@@ -28021,7 +28141,7 @@
         <v>3.6</v>
       </c>
       <c r="I236" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J236" t="n">
         <v>1.06</v>
@@ -28030,16 +28150,16 @@
         <v>10</v>
       </c>
       <c r="L236" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M236" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N236" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O236" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P236" t="n">
         <v>1.4</v>
@@ -28084,7 +28204,7 @@
         <v>51</v>
       </c>
       <c r="AD236" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE236" t="n">
         <v>8.5</v>
@@ -28381,13 +28501,13 @@
         </is>
       </c>
       <c r="G239" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H239" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I239" t="n">
         <v>2.63</v>
-      </c>
-      <c r="H239" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>2.55</v>
       </c>
       <c r="J239" t="n">
         <v>1.05</v>
@@ -28402,10 +28522,10 @@
         <v>3.5</v>
       </c>
       <c r="N239" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O239" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P239" t="n">
         <v>1.4</v>
@@ -28414,10 +28534,10 @@
         <v>2.75</v>
       </c>
       <c r="R239" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S239" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T239" t="n">
         <v>8.5</v>
@@ -28438,22 +28558,22 @@
         <v>29</v>
       </c>
       <c r="Z239" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA239" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB239" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC239" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD239" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE239" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF239" t="n">
         <v>13</v>
@@ -28646,10 +28766,10 @@
         <v>3.75</v>
       </c>
       <c r="N241" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O241" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P241" t="n">
         <v>1.36</v>
@@ -28869,25 +28989,25 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="H243" t="n">
         <v>3.2</v>
       </c>
       <c r="I243" t="n">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="J243" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K243" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="L243" t="n">
         <v>1.31</v>
       </c>
       <c r="M243" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="N243" t="n">
         <v>1.91</v>
@@ -28911,31 +29031,31 @@
         <v>8.5</v>
       </c>
       <c r="U243" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V243" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W243" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="X243" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y243" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z243" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA243" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB243" t="n">
         <v>13</v>
       </c>
       <c r="AC243" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD243" t="n">
         <v>450</v>
@@ -28944,19 +29064,19 @@
         <v>8.75</v>
       </c>
       <c r="AF243" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG243" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AH243" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AI243" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AJ243" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="244">
@@ -29363,7 +29483,7 @@
         <v>3.1</v>
       </c>
       <c r="I247" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="J247" t="n">
         <v>1.06</v>
@@ -29396,7 +29516,7 @@
         <v>2.27</v>
       </c>
       <c r="T247" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="U247" t="n">
         <v>14</v>
@@ -29405,7 +29525,7 @@
         <v>9</v>
       </c>
       <c r="W247" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X247" t="n">
         <v>18.5</v>
@@ -29420,7 +29540,7 @@
         <v>6.1</v>
       </c>
       <c r="AB247" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AC247" t="n">
         <v>40</v>
@@ -29429,10 +29549,10 @@
         <v>250</v>
       </c>
       <c r="AE247" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF247" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG247" t="n">
         <v>10</v>
@@ -29444,7 +29564,7 @@
         <v>23</v>
       </c>
       <c r="AJ247" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="248">
@@ -29866,10 +29986,10 @@
         <v>3.75</v>
       </c>
       <c r="N251" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="O251" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="P251" t="n">
         <v>1.36</v>
@@ -29967,94 +30087,94 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="H252" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I252" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="J252" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K252" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L252" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M252" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N252" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="O252" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="P252" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q252" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R252" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S252" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="T252" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U252" t="n">
         <v>51</v>
       </c>
       <c r="V252" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="W252" t="n">
         <v>126</v>
       </c>
       <c r="X252" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Y252" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="Z252" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA252" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB252" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC252" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD252" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AE252" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AF252" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG252" t="n">
         <v>9.5</v>
       </c>
       <c r="AH252" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI252" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ252" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="253">
@@ -30092,19 +30212,19 @@
         <v>1.8</v>
       </c>
       <c r="H253" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I253" t="n">
         <v>3.9</v>
       </c>
       <c r="J253" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K253" t="n">
         <v>15</v>
       </c>
       <c r="L253" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M253" t="n">
         <v>4.5</v>
@@ -30176,7 +30296,7 @@
         <v>29</v>
       </c>
       <c r="AJ253" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="254">
@@ -30220,13 +30340,13 @@
         <v>3.25</v>
       </c>
       <c r="J254" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K254" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L254" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M254" t="n">
         <v>4</v>
@@ -30238,19 +30358,19 @@
         <v>2</v>
       </c>
       <c r="P254" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q254" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R254" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S254" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T254" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U254" t="n">
         <v>11</v>
@@ -30259,34 +30379,34 @@
         <v>9</v>
       </c>
       <c r="W254" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X254" t="n">
         <v>17</v>
       </c>
       <c r="Y254" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z254" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA254" t="n">
         <v>6.5</v>
       </c>
       <c r="AB254" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC254" t="n">
         <v>41</v>
       </c>
       <c r="AD254" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE254" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF254" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG254" t="n">
         <v>12</v>
@@ -30298,7 +30418,7 @@
         <v>26</v>
       </c>
       <c r="AJ254" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="255">
@@ -30342,13 +30462,13 @@
         <v>4.5</v>
       </c>
       <c r="J255" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K255" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L255" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M255" t="n">
         <v>4</v>
@@ -30360,10 +30480,10 @@
         <v>2.05</v>
       </c>
       <c r="P255" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q255" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R255" t="n">
         <v>1.73</v>
@@ -30399,7 +30519,7 @@
         <v>15</v>
       </c>
       <c r="AC255" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD255" t="n">
         <v>201</v>
@@ -30467,10 +30587,10 @@
         <v>1.03</v>
       </c>
       <c r="K256" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L256" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M256" t="n">
         <v>4</v>
@@ -30482,10 +30602,10 @@
         <v>2.1</v>
       </c>
       <c r="P256" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q256" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R256" t="n">
         <v>1.67</v>
@@ -30509,10 +30629,10 @@
         <v>13</v>
       </c>
       <c r="Y256" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z256" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA256" t="n">
         <v>7.5</v>
@@ -30524,16 +30644,16 @@
         <v>41</v>
       </c>
       <c r="AD256" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE256" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF256" t="n">
         <v>23</v>
       </c>
       <c r="AG256" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH256" t="n">
         <v>41</v>
@@ -30586,22 +30706,22 @@
         <v>4.5</v>
       </c>
       <c r="J257" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K257" t="n">
         <v>11</v>
       </c>
       <c r="L257" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M257" t="n">
         <v>3.5</v>
       </c>
       <c r="N257" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O257" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="P257" t="n">
         <v>1.4</v>
@@ -30628,7 +30748,7 @@
         <v>13</v>
       </c>
       <c r="X257" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y257" t="n">
         <v>26</v>
@@ -30708,13 +30828,13 @@
         <v>2.3</v>
       </c>
       <c r="J258" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K258" t="n">
         <v>10</v>
       </c>
       <c r="L258" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M258" t="n">
         <v>3.4</v>
@@ -30723,7 +30843,7 @@
         <v>2</v>
       </c>
       <c r="O258" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="P258" t="n">
         <v>1.4</v>
@@ -30780,7 +30900,7 @@
         <v>9.5</v>
       </c>
       <c r="AH258" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI258" t="n">
         <v>19</v>
@@ -30955,7 +31075,7 @@
         <v>1.06</v>
       </c>
       <c r="K260" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L260" t="n">
         <v>1.33</v>
@@ -30970,10 +31090,10 @@
         <v>1.75</v>
       </c>
       <c r="P260" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q260" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R260" t="n">
         <v>1.83</v>
@@ -30982,7 +31102,7 @@
         <v>1.83</v>
       </c>
       <c r="T260" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U260" t="n">
         <v>15</v>
@@ -31371,13 +31491,13 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="H264" t="n">
         <v>3.15</v>
       </c>
       <c r="I264" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
@@ -31388,7 +31508,7 @@
         <v>3</v>
       </c>
       <c r="N264" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="O264" t="n">
         <v>1.75</v>
@@ -31397,7 +31517,7 @@
         <v>1.4</v>
       </c>
       <c r="Q264" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R264" t="n">
         <v>1.65</v>
@@ -31406,28 +31526,28 @@
         <v>1.98</v>
       </c>
       <c r="T264" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="U264" t="n">
         <v>10.75</v>
       </c>
       <c r="V264" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W264" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X264" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y264" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z264" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA264" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB264" t="n">
         <v>13</v>
@@ -31439,22 +31559,22 @@
         <v>450</v>
       </c>
       <c r="AE264" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF264" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG264" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH264" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI264" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ264" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="265">
@@ -31733,7 +31853,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="H267" t="n">
         <v>3.25</v>
@@ -31742,13 +31862,13 @@
         <v>2.45</v>
       </c>
       <c r="J267" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K267" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L267" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M267" t="n">
         <v>3.25</v>
@@ -31855,7 +31975,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H268" t="n">
         <v>3</v>
@@ -31864,13 +31984,13 @@
         <v>4.5</v>
       </c>
       <c r="J268" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K268" t="n">
         <v>7.5</v>
       </c>
       <c r="L268" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M268" t="n">
         <v>3</v>
@@ -31983,25 +32103,25 @@
         <v>3.4</v>
       </c>
       <c r="I269" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="J269" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K269" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L269" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M269" t="n">
         <v>3.5</v>
       </c>
       <c r="N269" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O269" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P269" t="n">
         <v>1.4</v>
@@ -32099,7 +32219,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H270" t="n">
         <v>3.7</v>
@@ -32108,16 +32228,16 @@
         <v>9</v>
       </c>
       <c r="J270" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K270" t="n">
         <v>7</v>
       </c>
       <c r="L270" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M270" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N270" t="n">
         <v>2.35</v>
@@ -32221,13 +32341,13 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H271" t="n">
         <v>3.25</v>
       </c>
       <c r="I271" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
@@ -32247,7 +32367,7 @@
         <v>1.5</v>
       </c>
       <c r="Q271" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R271" t="n">
         <v>2.07</v>
@@ -32256,13 +32376,13 @@
         <v>1.6</v>
       </c>
       <c r="T271" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U271" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="V271" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="W271" t="n">
         <v>60</v>
@@ -32277,7 +32397,7 @@
         <v>7.1</v>
       </c>
       <c r="AA271" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB271" t="n">
         <v>20</v>
@@ -32292,13 +32412,13 @@
         <v>5.5</v>
       </c>
       <c r="AF271" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AG271" t="n">
         <v>9</v>
       </c>
       <c r="AH271" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI271" t="n">
         <v>18.5</v>
@@ -32697,13 +32817,13 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H275" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I275" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J275" t="n">
         <v>1.03</v>
@@ -32739,13 +32859,13 @@
         <v>10</v>
       </c>
       <c r="U275" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V275" t="n">
         <v>8.5</v>
       </c>
       <c r="W275" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X275" t="n">
         <v>12</v>
@@ -32775,16 +32895,16 @@
         <v>26</v>
       </c>
       <c r="AG275" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH275" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI275" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ275" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="276">
@@ -32840,10 +32960,10 @@
         <v>4</v>
       </c>
       <c r="N276" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O276" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P276" t="n">
         <v>1.33</v>
@@ -33062,36 +33182,96 @@
           <t>Dep. Tachira</t>
         </is>
       </c>
-      <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="inlineStr"/>
-      <c r="N278" t="inlineStr"/>
-      <c r="O278" t="inlineStr"/>
-      <c r="P278" t="inlineStr"/>
-      <c r="Q278" t="inlineStr"/>
-      <c r="R278" t="inlineStr"/>
-      <c r="S278" t="inlineStr"/>
-      <c r="T278" t="inlineStr"/>
-      <c r="U278" t="inlineStr"/>
-      <c r="V278" t="inlineStr"/>
-      <c r="W278" t="inlineStr"/>
-      <c r="X278" t="inlineStr"/>
-      <c r="Y278" t="inlineStr"/>
-      <c r="Z278" t="inlineStr"/>
-      <c r="AA278" t="inlineStr"/>
-      <c r="AB278" t="inlineStr"/>
-      <c r="AC278" t="inlineStr"/>
-      <c r="AD278" t="inlineStr"/>
-      <c r="AE278" t="inlineStr"/>
-      <c r="AF278" t="inlineStr"/>
-      <c r="AG278" t="inlineStr"/>
-      <c r="AH278" t="inlineStr"/>
-      <c r="AI278" t="inlineStr"/>
-      <c r="AJ278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H278" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I278" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J278" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K278" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L278" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M278" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N278" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O278" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P278" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R278" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S278" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T278" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U278" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="V278" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W278" t="n">
+        <v>30</v>
+      </c>
+      <c r="X278" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">

--- a/Jogos_da_Semana_FlashScore_2025-04-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-04-27.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
         <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -680,16 +680,16 @@
         <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V2" t="n">
         <v>9</v>
@@ -784,10 +784,10 @@
         <v>23</v>
       </c>
       <c r="L3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N3" t="n">
         <v>1.33</v>
@@ -808,10 +808,10 @@
         <v>2.1</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V3" t="n">
         <v>11</v>
@@ -823,10 +823,10 @@
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
@@ -847,10 +847,10 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI3" t="n">
         <v>67</v>
@@ -912,10 +912,10 @@
         <v>3.5</v>
       </c>
       <c r="N4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="P4" t="n">
         <v>1.36</v>
@@ -1257,46 +1257,46 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="O7" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="P7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U7" t="n">
         <v>15</v>
@@ -1311,13 +1311,13 @@
         <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB7" t="n">
         <v>13</v>
@@ -1335,16 +1335,16 @@
         <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH7" t="n">
         <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -1501,31 +1501,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P9" t="n">
         <v>1.33</v>
@@ -1534,16 +1534,16 @@
         <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V9" t="n">
         <v>9.5</v>
@@ -1558,7 +1558,7 @@
         <v>23</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
         <v>6.5</v>
@@ -1570,10 +1570,10 @@
         <v>41</v>
       </c>
       <c r="AD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
         <v>17</v>
@@ -1585,10 +1585,10 @@
         <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1644,10 +1644,10 @@
         <v>3.75</v>
       </c>
       <c r="N10" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="O10" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="P10" t="n">
         <v>1.36</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J12" t="n">
         <v>1.04</v>
@@ -1921,7 +1921,7 @@
         <v>34</v>
       </c>
       <c r="Y12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z12" t="n">
         <v>13</v>
@@ -2001,7 +2001,7 @@
         <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
         <v>1.36</v>
@@ -2120,22 +2120,22 @@
         <v>4.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N14" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="O14" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="P14" t="n">
         <v>1.4</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I17" t="n">
         <v>8</v>
@@ -2487,7 +2487,7 @@
         <v>1.06</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.3</v>
@@ -2514,7 +2514,7 @@
         <v>1.62</v>
       </c>
       <c r="T17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U17" t="n">
         <v>6</v>
@@ -2547,7 +2547,7 @@
         <v>501</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
@@ -2728,10 +2728,10 @@
         <v>5.75</v>
       </c>
       <c r="J19" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L19" t="n">
         <v>1.17</v>
@@ -2841,13 +2841,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J20" t="n">
         <v>1.04</v>
@@ -2856,10 +2856,10 @@
         <v>13</v>
       </c>
       <c r="L20" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M20" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
         <v>1.7</v>
@@ -2883,13 +2883,13 @@
         <v>9</v>
       </c>
       <c r="U20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V20" t="n">
         <v>8.5</v>
       </c>
       <c r="W20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X20" t="n">
         <v>15</v>
@@ -2916,7 +2916,7 @@
         <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG20" t="n">
         <v>12</v>
@@ -3085,13 +3085,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J22" t="n">
         <v>1.03</v>
@@ -3100,16 +3100,16 @@
         <v>15</v>
       </c>
       <c r="L22" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="O22" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P22" t="n">
         <v>1.3</v>
@@ -3118,13 +3118,13 @@
         <v>3.4</v>
       </c>
       <c r="R22" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S22" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U22" t="n">
         <v>7</v>
@@ -3133,16 +3133,16 @@
         <v>8.5</v>
       </c>
       <c r="W22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X22" t="n">
         <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA22" t="n">
         <v>9.5</v>
@@ -3154,16 +3154,16 @@
         <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH22" t="n">
         <v>67</v>
@@ -3240,13 +3240,13 @@
         <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S23" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U23" t="n">
         <v>8</v>
@@ -3255,7 +3255,7 @@
         <v>9</v>
       </c>
       <c r="W23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X23" t="n">
         <v>19</v>
@@ -3279,7 +3279,7 @@
         <v>501</v>
       </c>
       <c r="AE23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF23" t="n">
         <v>21</v>
@@ -3695,13 +3695,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J27" t="n">
         <v>1.14</v>
@@ -3728,22 +3728,22 @@
         <v>2.1</v>
       </c>
       <c r="R27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V27" t="n">
         <v>11</v>
       </c>
       <c r="W27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X27" t="n">
         <v>23</v>
@@ -3761,16 +3761,16 @@
         <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD27" t="n">
         <v>101</v>
       </c>
       <c r="AE27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
         <v>17</v>
@@ -3779,7 +3779,7 @@
         <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ27" t="n">
         <v>67</v>
@@ -3951,7 +3951,7 @@
         <v>1.17</v>
       </c>
       <c r="K29" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
         <v>1.67</v>
@@ -4070,22 +4070,22 @@
         <v>6.25</v>
       </c>
       <c r="J30" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M30" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N30" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O30" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P30" t="n">
         <v>1.57</v>
@@ -4192,10 +4192,10 @@
         <v>3.4</v>
       </c>
       <c r="J31" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L31" t="n">
         <v>1.57</v>
@@ -4793,13 +4793,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>4.1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J36" t="n">
         <v>1.02</v>
@@ -4835,7 +4835,7 @@
         <v>17</v>
       </c>
       <c r="U36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V36" t="n">
         <v>10</v>
@@ -4850,7 +4850,7 @@
         <v>17</v>
       </c>
       <c r="Z36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA36" t="n">
         <v>9</v>
@@ -4877,7 +4877,7 @@
         <v>29</v>
       </c>
       <c r="AI36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ36" t="n">
         <v>19</v>
@@ -4936,10 +4936,10 @@
         <v>4</v>
       </c>
       <c r="N37" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O37" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P37" t="n">
         <v>1.33</v>
@@ -5052,16 +5052,16 @@
         <v>13</v>
       </c>
       <c r="L38" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N38" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O38" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P38" t="n">
         <v>1.33</v>
@@ -5403,84 +5403,84 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H41" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I41" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M41" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="N41" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="O41" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="P41" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R41" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S41" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U41" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="V41" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="W41" t="n">
+        <v>75</v>
+      </c>
+      <c r="X41" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y41" t="n">
         <v>60</v>
       </c>
-      <c r="X41" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>55</v>
-      </c>
       <c r="Z41" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB41" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC41" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD41" t="n">
         <v>900</v>
       </c>
       <c r="AE41" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AF41" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AG41" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI41" t="n">
         <v>16.5</v>
@@ -5520,36 +5520,88 @@
           <t>Qarabag</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.52</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2</v>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T42" t="n">
+        <v>16</v>
+      </c>
+      <c r="U42" t="n">
+        <v>35</v>
+      </c>
+      <c r="V42" t="n">
+        <v>17</v>
+      </c>
+      <c r="W42" t="n">
+        <v>100</v>
+      </c>
+      <c r="X42" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5897,7 +5949,7 @@
         <v>4.15</v>
       </c>
       <c r="I47" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J47" t="n">
         <v>1.05</v>
@@ -5915,13 +5967,13 @@
         <v>1.75</v>
       </c>
       <c r="O47" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="P47" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R47" t="n">
         <v>1.8</v>
@@ -5930,7 +5982,7 @@
         <v>1.95</v>
       </c>
       <c r="T47" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="U47" t="n">
         <v>8</v>
@@ -5942,7 +5994,7 @@
         <v>12</v>
       </c>
       <c r="X47" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y47" t="n">
         <v>26</v>
@@ -5969,16 +6021,16 @@
         <v>37</v>
       </c>
       <c r="AG47" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH47" t="n">
         <v>120</v>
       </c>
       <c r="AI47" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ47" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48">
@@ -6379,13 +6431,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H51" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I51" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J51" t="n">
         <v>1.04</v>
@@ -6400,10 +6452,10 @@
         <v>4.33</v>
       </c>
       <c r="N51" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O51" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P51" t="n">
         <v>1.3</v>
@@ -6436,10 +6488,10 @@
         <v>23</v>
       </c>
       <c r="Z51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA51" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB51" t="n">
         <v>15</v>
@@ -6516,16 +6568,16 @@
         <v>11</v>
       </c>
       <c r="L52" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M52" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N52" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O52" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="P52" t="n">
         <v>1.36</v>
@@ -6744,36 +6796,92 @@
           <t>Zeljeznicar</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4.45</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr"/>
-      <c r="AG54" t="inlineStr"/>
-      <c r="AH54" t="inlineStr"/>
-      <c r="AI54" t="inlineStr"/>
-      <c r="AJ54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T54" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U54" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W54" t="n">
+        <v>13</v>
+      </c>
+      <c r="X54" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6854,7 +6962,7 @@
         <v>250</v>
       </c>
       <c r="X55" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Y55" t="n">
         <v>120</v>
@@ -6923,13 +7031,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H56" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="I56" t="n">
-        <v>8.25</v>
+        <v>10.5</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -6937,7 +7045,7 @@
         <v>1.25</v>
       </c>
       <c r="M56" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N56" t="n">
         <v>1.75</v>
@@ -6954,31 +7062,31 @@
         <v>1.55</v>
       </c>
       <c r="T56" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U56" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="V56" t="n">
         <v>8.75</v>
       </c>
       <c r="W56" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X56" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y56" t="n">
         <v>35</v>
       </c>
       <c r="Z56" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AA56" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB56" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC56" t="n">
         <v>150</v>
@@ -6987,22 +7095,22 @@
         <v>101</v>
       </c>
       <c r="AE56" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AF56" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AG56" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AH56" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="AI56" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AJ56" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57">
@@ -7284,7 +7392,7 @@
         <v>1.62</v>
       </c>
       <c r="H59" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I59" t="n">
         <v>5.5</v>
@@ -7296,28 +7404,28 @@
         <v>10</v>
       </c>
       <c r="L59" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M59" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N59" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="O59" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="P59" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q59" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R59" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S59" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T59" t="n">
         <v>6.5</v>
@@ -7329,7 +7437,7 @@
         <v>8.5</v>
       </c>
       <c r="W59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X59" t="n">
         <v>13</v>
@@ -7347,10 +7455,10 @@
         <v>19</v>
       </c>
       <c r="AC59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD59" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE59" t="n">
         <v>13</v>
@@ -7368,7 +7476,7 @@
         <v>41</v>
       </c>
       <c r="AJ59" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60">
@@ -7436,10 +7544,10 @@
         <v>2.5</v>
       </c>
       <c r="R60" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S60" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T60" t="n">
         <v>6.5</v>
@@ -7472,7 +7580,7 @@
         <v>67</v>
       </c>
       <c r="AD60" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE60" t="n">
         <v>7.5</v>
@@ -7891,13 +7999,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H64" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="I64" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J64" t="n">
         <v>1.12</v>
@@ -7906,10 +8014,10 @@
         <v>5.3</v>
       </c>
       <c r="L64" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M64" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="N64" t="n">
         <v>2.5</v>
@@ -7933,28 +8041,28 @@
         <v>5.3</v>
       </c>
       <c r="U64" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="V64" t="n">
         <v>8.75</v>
       </c>
       <c r="W64" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="X64" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y64" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z64" t="n">
         <v>5.3</v>
       </c>
       <c r="AA64" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB64" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC64" t="n">
         <v>120</v>
@@ -7963,22 +8071,22 @@
         <v>101</v>
       </c>
       <c r="AE64" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF64" t="n">
         <v>25</v>
       </c>
       <c r="AG64" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH64" t="n">
         <v>90</v>
       </c>
       <c r="AI64" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ64" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
@@ -8135,19 +8243,19 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H66" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I66" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K66" t="n">
         <v>9</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K66" t="n">
-        <v>7.5</v>
       </c>
       <c r="L66" t="n">
         <v>1.36</v>
@@ -8156,10 +8264,10 @@
         <v>3</v>
       </c>
       <c r="N66" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O66" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P66" t="n">
         <v>1.44</v>
@@ -8174,16 +8282,16 @@
         <v>1.5</v>
       </c>
       <c r="T66" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U66" t="n">
         <v>5.5</v>
       </c>
       <c r="V66" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W66" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X66" t="n">
         <v>15</v>
@@ -8198,7 +8306,7 @@
         <v>8</v>
       </c>
       <c r="AB66" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC66" t="n">
         <v>101</v>
@@ -8207,7 +8315,7 @@
         <v>1250</v>
       </c>
       <c r="AE66" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF66" t="n">
         <v>41</v>
@@ -8741,13 +8849,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H71" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="J71" t="n">
         <v>1.05</v>
@@ -8768,10 +8876,10 @@
         <v>1.95</v>
       </c>
       <c r="P71" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R71" t="n">
         <v>1.73</v>
@@ -8798,7 +8906,7 @@
         <v>41</v>
       </c>
       <c r="Z71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA71" t="n">
         <v>6.5</v>
@@ -8807,7 +8915,7 @@
         <v>15</v>
       </c>
       <c r="AC71" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD71" t="n">
         <v>201</v>
@@ -9229,19 +9337,19 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H75" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J75" t="n">
         <v>1.11</v>
       </c>
       <c r="K75" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L75" t="n">
         <v>1.47</v>
@@ -9250,10 +9358,10 @@
         <v>2.55</v>
       </c>
       <c r="N75" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O75" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P75" t="n">
         <v>1.52</v>
@@ -9262,61 +9370,61 @@
         <v>2.42</v>
       </c>
       <c r="R75" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S75" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T75" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="U75" t="n">
         <v>16.5</v>
       </c>
       <c r="V75" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="W75" t="n">
         <v>50</v>
       </c>
       <c r="X75" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y75" t="n">
         <v>55</v>
       </c>
       <c r="Z75" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AA75" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB75" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC75" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD75" t="n">
         <v>1250</v>
       </c>
       <c r="AE75" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AF75" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG75" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH75" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI75" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ75" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
@@ -9473,13 +9581,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H77" t="n">
         <v>3.5</v>
       </c>
       <c r="I77" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J77" t="n">
         <v>1.05</v>
@@ -9500,22 +9608,22 @@
         <v>1.98</v>
       </c>
       <c r="P77" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q77" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R77" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S77" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T77" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U77" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V77" t="n">
         <v>9.5</v>
@@ -9530,7 +9638,7 @@
         <v>26</v>
       </c>
       <c r="Z77" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA77" t="n">
         <v>6.5</v>
@@ -9542,7 +9650,7 @@
         <v>41</v>
       </c>
       <c r="AD77" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE77" t="n">
         <v>10</v>
@@ -9560,7 +9668,7 @@
         <v>21</v>
       </c>
       <c r="AJ77" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -9616,10 +9724,10 @@
         <v>4</v>
       </c>
       <c r="N78" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O78" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P78" t="n">
         <v>1.33</v>
@@ -9738,10 +9846,10 @@
         <v>4.5</v>
       </c>
       <c r="N79" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O79" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P79" t="n">
         <v>1.29</v>
@@ -10201,10 +10309,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="H83" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I83" t="n">
         <v>9.75</v>
@@ -10212,51 +10320,55 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M83" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="N83" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="O83" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
+        <v>1.75</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2.55</v>
+      </c>
       <c r="R83" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S83" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="T83" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="U83" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="V83" t="n">
         <v>8.75</v>
       </c>
       <c r="W83" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X83" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y83" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z83" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AA83" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB83" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC83" t="n">
         <v>150</v>
@@ -10265,10 +10377,10 @@
         <v>1000</v>
       </c>
       <c r="AE83" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF83" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG83" t="n">
         <v>30</v>
@@ -10280,7 +10392,7 @@
         <v>150</v>
       </c>
       <c r="AJ83" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84">
@@ -10580,10 +10692,10 @@
         <v>2.75</v>
       </c>
       <c r="N86" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O86" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P86" t="n">
         <v>1.5</v>
@@ -11157,19 +11269,19 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H91" t="n">
         <v>3.2</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J91" t="n">
         <v>1.07</v>
       </c>
       <c r="K91" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L91" t="n">
         <v>1.33</v>
@@ -11190,19 +11302,19 @@
         <v>2.63</v>
       </c>
       <c r="R91" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S91" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T91" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U91" t="n">
         <v>11</v>
       </c>
       <c r="V91" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W91" t="n">
         <v>23</v>
@@ -11214,7 +11326,7 @@
         <v>29</v>
       </c>
       <c r="Z91" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA91" t="n">
         <v>6</v>
@@ -11238,7 +11350,7 @@
         <v>11</v>
       </c>
       <c r="AH91" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI91" t="n">
         <v>26</v>
@@ -12987,13 +13099,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H106" t="n">
         <v>3.9</v>
       </c>
       <c r="I106" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J106" t="n">
         <v>1.03</v>
@@ -13026,10 +13138,10 @@
         <v>2.25</v>
       </c>
       <c r="T106" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U106" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V106" t="n">
         <v>8.5</v>
@@ -13068,10 +13180,10 @@
         <v>15</v>
       </c>
       <c r="AH106" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI106" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ106" t="n">
         <v>34</v>
@@ -13487,7 +13599,7 @@
         <v>1.07</v>
       </c>
       <c r="K110" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L110" t="n">
         <v>1.36</v>
@@ -13606,10 +13718,10 @@
         <v>6.5</v>
       </c>
       <c r="J111" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K111" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L111" t="n">
         <v>1.22</v>
@@ -13618,10 +13730,10 @@
         <v>4</v>
       </c>
       <c r="N111" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O111" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P111" t="n">
         <v>1.3</v>
@@ -13733,45 +13845,45 @@
         <v>1.23</v>
       </c>
       <c r="M112" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="N112" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O112" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="P112" t="inlineStr"/>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="S112" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="T112" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="U112" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="V112" t="n">
         <v>7.2</v>
       </c>
       <c r="W112" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="X112" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y112" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z112" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA112" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB112" t="n">
         <v>10.5</v>
@@ -13780,25 +13892,25 @@
         <v>37</v>
       </c>
       <c r="AD112" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE112" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG112" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF112" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG112" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AH112" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI112" t="n">
         <v>21</v>
       </c>
       <c r="AJ112" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113">
@@ -13833,13 +13945,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H113" t="n">
         <v>3.7</v>
       </c>
       <c r="I113" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -13867,10 +13979,10 @@
         <v>10.5</v>
       </c>
       <c r="U113" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="V113" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W113" t="n">
         <v>40</v>
@@ -13897,19 +14009,19 @@
         <v>250</v>
       </c>
       <c r="AE113" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AF113" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AG113" t="n">
         <v>7.1</v>
       </c>
       <c r="AH113" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AI113" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AJ113" t="n">
         <v>18.5</v>
@@ -13956,13 +14068,13 @@
         <v>2.2</v>
       </c>
       <c r="J114" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K114" t="n">
         <v>11</v>
       </c>
       <c r="L114" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M114" t="n">
         <v>3.5</v>
@@ -14078,13 +14190,13 @@
         <v>1.38</v>
       </c>
       <c r="J115" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K115" t="n">
         <v>15</v>
       </c>
       <c r="L115" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M115" t="n">
         <v>4.5</v>
@@ -14194,7 +14306,7 @@
         <v>1.5</v>
       </c>
       <c r="H116" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="I116" t="n">
         <v>5.4</v>
@@ -14208,10 +14320,10 @@
         <v>5.4</v>
       </c>
       <c r="N116" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="O116" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="P116" t="inlineStr"/>
       <c r="Q116" t="inlineStr"/>
@@ -14219,31 +14331,31 @@
         <v>1.5</v>
       </c>
       <c r="S116" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="T116" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="U116" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V116" t="n">
         <v>8.25</v>
       </c>
       <c r="W116" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X116" t="n">
         <v>10.5</v>
       </c>
       <c r="Y116" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z116" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA116" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB116" t="n">
         <v>13.5</v>
@@ -14255,13 +14367,13 @@
         <v>250</v>
       </c>
       <c r="AE116" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF116" t="n">
         <v>40</v>
       </c>
       <c r="AG116" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH116" t="n">
         <v>110</v>
@@ -14798,10 +14910,10 @@
         <v>5</v>
       </c>
       <c r="N121" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O121" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P121" t="n">
         <v>1.3</v>
@@ -15143,19 +15255,19 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
         <v>3.5</v>
       </c>
       <c r="I124" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J124" t="n">
         <v>1.04</v>
       </c>
       <c r="K124" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L124" t="n">
         <v>1.22</v>
@@ -15170,10 +15282,10 @@
         <v>2.05</v>
       </c>
       <c r="P124" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q124" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R124" t="n">
         <v>1.67</v>
@@ -15182,16 +15294,16 @@
         <v>2.1</v>
       </c>
       <c r="T124" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V124" t="n">
         <v>9</v>
       </c>
       <c r="W124" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X124" t="n">
         <v>15</v>
@@ -15221,7 +15333,7 @@
         <v>19</v>
       </c>
       <c r="AG124" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH124" t="n">
         <v>41</v>
@@ -15230,7 +15342,7 @@
         <v>26</v>
       </c>
       <c r="AJ124" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125">
@@ -15408,10 +15520,10 @@
         <v>3.5</v>
       </c>
       <c r="N126" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O126" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P126" t="n">
         <v>1.36</v>
@@ -15627,7 +15739,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="H128" t="n">
         <v>4</v>
@@ -15658,10 +15770,10 @@
         <v>1.54</v>
       </c>
       <c r="T128" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="U128" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V128" t="n">
         <v>19</v>
@@ -15673,34 +15785,34 @@
         <v>70</v>
       </c>
       <c r="Y128" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z128" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA128" t="n">
         <v>7</v>
       </c>
       <c r="AB128" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC128" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD128" t="n">
         <v>500</v>
       </c>
       <c r="AE128" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AF128" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AG128" t="n">
         <v>7</v>
       </c>
       <c r="AH128" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AI128" t="n">
         <v>9.75</v>
@@ -15849,21 +15961,21 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="H130" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="I130" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="M130" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="N130" t="n">
         <v>2.05</v>
@@ -15872,54 +15984,54 @@
         <v>1.62</v>
       </c>
       <c r="P130" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="U130" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="V130" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="W130" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="X130" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Y130" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Z130" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="AA130" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AB130" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AC130" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AD130" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE130" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="AF130" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG130" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH130" t="n">
         <v>45</v>
@@ -15928,7 +16040,7 @@
         <v>32</v>
       </c>
       <c r="AJ130" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131">
@@ -16085,13 +16197,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H132" t="n">
         <v>3.1</v>
       </c>
       <c r="I132" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J132" t="n">
         <v>1.08</v>
@@ -16106,10 +16218,10 @@
         <v>2.75</v>
       </c>
       <c r="N132" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O132" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P132" t="n">
         <v>1.5</v>
@@ -16124,10 +16236,10 @@
         <v>1.73</v>
       </c>
       <c r="T132" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U132" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V132" t="n">
         <v>9</v>
@@ -16157,7 +16269,7 @@
         <v>1000</v>
       </c>
       <c r="AE132" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF132" t="n">
         <v>19</v>
@@ -16169,7 +16281,7 @@
         <v>41</v>
       </c>
       <c r="AI132" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ132" t="n">
         <v>41</v>
@@ -16207,7 +16319,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H133" t="n">
         <v>4.1</v>
@@ -16234,10 +16346,10 @@
         <v>2.25</v>
       </c>
       <c r="P133" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="Q133" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="R133" t="n">
         <v>1.65</v>
@@ -16246,16 +16358,16 @@
         <v>2.1</v>
       </c>
       <c r="T133" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U133" t="n">
         <v>37</v>
       </c>
       <c r="V133" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="W133" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="X133" t="n">
         <v>50</v>
@@ -16822,10 +16934,10 @@
         <v>5</v>
       </c>
       <c r="N138" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O138" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P138" t="n">
         <v>1.25</v>
@@ -16923,13 +17035,13 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H139" t="n">
         <v>3.3</v>
       </c>
       <c r="I139" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J139" t="n">
         <v>1.05</v>
@@ -16965,13 +17077,13 @@
         <v>9.5</v>
       </c>
       <c r="U139" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V139" t="n">
         <v>10</v>
       </c>
       <c r="W139" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X139" t="n">
         <v>21</v>
@@ -17004,10 +17116,10 @@
         <v>10</v>
       </c>
       <c r="AH139" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI139" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ139" t="n">
         <v>29</v>
@@ -17045,13 +17157,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H140" t="n">
         <v>3</v>
       </c>
       <c r="I140" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J140" t="n">
         <v>1.11</v>
@@ -17090,10 +17202,10 @@
         <v>11</v>
       </c>
       <c r="V140" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W140" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X140" t="n">
         <v>23</v>
@@ -17167,13 +17279,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H141" t="n">
         <v>3.1</v>
       </c>
       <c r="I141" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J141" t="n">
         <v>1.08</v>
@@ -17182,10 +17294,10 @@
         <v>6.5</v>
       </c>
       <c r="L141" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M141" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="N141" t="n">
         <v>2.1</v>
@@ -17197,28 +17309,28 @@
         <v>1.44</v>
       </c>
       <c r="Q141" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R141" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S141" t="n">
         <v>1.85</v>
       </c>
       <c r="T141" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="U141" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="V141" t="n">
         <v>9</v>
       </c>
       <c r="W141" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X141" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y141" t="n">
         <v>32</v>
@@ -17239,19 +17351,19 @@
         <v>700</v>
       </c>
       <c r="AE141" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF141" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG141" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH141" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI141" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ141" t="n">
         <v>40</v>
@@ -17411,37 +17523,37 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="H143" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I143" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="J143" t="n">
         <v>1.1</v>
       </c>
       <c r="K143" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L143" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M143" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="N143" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="O143" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P143" t="n">
         <v>1.5</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R143" t="n">
         <v>2.12</v>
@@ -17450,31 +17562,31 @@
         <v>1.65</v>
       </c>
       <c r="T143" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="U143" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="V143" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W143" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="X143" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Y143" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Z143" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AA143" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB143" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC143" t="n">
         <v>120</v>
@@ -17483,19 +17595,19 @@
         <v>900</v>
       </c>
       <c r="AE143" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AF143" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AG143" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH143" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI143" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ143" t="n">
         <v>40</v>
@@ -17655,13 +17767,13 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="H145" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I145" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J145" t="n">
         <v>1.08</v>
@@ -17673,7 +17785,7 @@
         <v>1.36</v>
       </c>
       <c r="M145" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="N145" t="n">
         <v>2.05</v>
@@ -17682,10 +17794,10 @@
         <v>1.7</v>
       </c>
       <c r="P145" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q145" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="R145" t="n">
         <v>1.85</v>
@@ -17703,19 +17815,19 @@
         <v>8.25</v>
       </c>
       <c r="W145" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X145" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y145" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z145" t="n">
         <v>6.5</v>
       </c>
       <c r="AA145" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB145" t="n">
         <v>15</v>
@@ -17730,19 +17842,19 @@
         <v>10.25</v>
       </c>
       <c r="AF145" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG145" t="n">
         <v>13.5</v>
       </c>
       <c r="AH145" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI145" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ145" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146">
@@ -17902,82 +18014,82 @@
         <v>2.07</v>
       </c>
       <c r="H147" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I147" t="n">
         <v>4</v>
       </c>
       <c r="J147" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K147" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L147" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M147" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="N147" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="O147" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P147" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="R147" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S147" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T147" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="U147" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V147" t="n">
         <v>8.25</v>
       </c>
       <c r="W147" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X147" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y147" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z147" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AA147" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB147" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC147" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD147" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE147" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AF147" t="n">
         <v>24</v>
       </c>
       <c r="AG147" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH147" t="n">
         <v>75</v>
@@ -17986,7 +18098,7 @@
         <v>40</v>
       </c>
       <c r="AJ147" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148">
@@ -18021,7 +18133,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H148" t="n">
         <v>3.25</v>
@@ -18105,7 +18217,7 @@
         <v>15.5</v>
       </c>
       <c r="AI148" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ148" t="n">
         <v>32</v>
@@ -18143,19 +18255,19 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I149" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="J149" t="n">
         <v>1.06</v>
       </c>
       <c r="K149" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="L149" t="n">
         <v>1.29</v>
@@ -18170,67 +18282,67 @@
         <v>1.83</v>
       </c>
       <c r="P149" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="R149" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="S149" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T149" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="U149" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="V149" t="n">
         <v>8.25</v>
       </c>
       <c r="W149" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="X149" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y149" t="n">
         <v>26</v>
       </c>
       <c r="Z149" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA149" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AB149" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AC149" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AD149" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AE149" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF149" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG149" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH149" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI149" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AJ149" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150">
@@ -18387,10 +18499,10 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H151" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I151" t="n">
         <v>3.4</v>
@@ -18399,19 +18511,19 @@
         <v>1.08</v>
       </c>
       <c r="K151" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="L151" t="n">
         <v>1.37</v>
       </c>
       <c r="M151" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="N151" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O151" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P151" t="n">
         <v>1.42</v>
@@ -18426,7 +18538,7 @@
         <v>1.88</v>
       </c>
       <c r="T151" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="U151" t="n">
         <v>10</v>
@@ -18435,34 +18547,34 @@
         <v>8.75</v>
       </c>
       <c r="W151" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X151" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y151" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z151" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AA151" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AB151" t="n">
         <v>14.5</v>
       </c>
       <c r="AC151" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD151" t="n">
         <v>600</v>
       </c>
       <c r="AE151" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF151" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG151" t="n">
         <v>12</v>
@@ -18474,7 +18586,7 @@
         <v>35</v>
       </c>
       <c r="AJ151" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="152">
@@ -18509,55 +18621,55 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="H152" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="I152" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="J152" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K152" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="L152" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M152" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="N152" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="O152" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="P152" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="R152" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S152" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T152" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="U152" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="V152" t="n">
         <v>8.25</v>
       </c>
       <c r="W152" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X152" t="n">
         <v>11.5</v>
@@ -18566,28 +18678,28 @@
         <v>28</v>
       </c>
       <c r="Z152" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA152" t="n">
         <v>8.25</v>
-      </c>
-      <c r="AA152" t="n">
-        <v>8.75</v>
       </c>
       <c r="AB152" t="n">
         <v>20</v>
       </c>
       <c r="AC152" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD152" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE152" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AF152" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG152" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH152" t="n">
         <v>200</v>
@@ -18596,7 +18708,7 @@
         <v>90</v>
       </c>
       <c r="AJ152" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="153">
@@ -18753,13 +18865,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H154" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I154" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J154" t="n">
         <v>1.07</v>
@@ -18780,10 +18892,10 @@
         <v>1.7</v>
       </c>
       <c r="P154" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q154" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="R154" t="n">
         <v>1.98</v>
@@ -18792,7 +18904,7 @@
         <v>1.75</v>
       </c>
       <c r="T154" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="U154" t="n">
         <v>7.1</v>
@@ -18801,10 +18913,10 @@
         <v>8.25</v>
       </c>
       <c r="W154" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X154" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y154" t="n">
         <v>30</v>
@@ -18813,34 +18925,34 @@
         <v>6.7</v>
       </c>
       <c r="AA154" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AB154" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC154" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD154" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE154" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF154" t="n">
         <v>29</v>
       </c>
       <c r="AG154" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH154" t="n">
         <v>100</v>
       </c>
       <c r="AI154" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ154" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ154" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="155">
@@ -18881,46 +18993,46 @@
         <v>2.55</v>
       </c>
       <c r="I155" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="J155" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="K155" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L155" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M155" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="N155" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O155" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P155" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q155" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R155" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S155" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T155" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="U155" t="n">
         <v>15.5</v>
       </c>
       <c r="V155" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W155" t="n">
         <v>45</v>
@@ -18932,22 +19044,22 @@
         <v>37</v>
       </c>
       <c r="Z155" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AA155" t="n">
         <v>5.1</v>
       </c>
       <c r="AB155" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC155" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD155" t="n">
         <v>600</v>
       </c>
       <c r="AE155" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AF155" t="n">
         <v>13.5</v>
@@ -18959,7 +19071,7 @@
         <v>35</v>
       </c>
       <c r="AI155" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ155" t="n">
         <v>35</v>
@@ -18997,13 +19109,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H156" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I156" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="J156" t="n">
         <v>1.11</v>
@@ -19018,7 +19130,7 @@
         <v>2.5</v>
       </c>
       <c r="N156" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="O156" t="n">
         <v>1.5</v>
@@ -19036,31 +19148,31 @@
         <v>1.7</v>
       </c>
       <c r="T156" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="U156" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="V156" t="n">
         <v>9.25</v>
       </c>
       <c r="W156" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X156" t="n">
         <v>21</v>
       </c>
       <c r="Y156" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z156" t="n">
         <v>5.6</v>
       </c>
       <c r="AA156" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB156" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC156" t="n">
         <v>110</v>
@@ -19069,10 +19181,10 @@
         <v>800</v>
       </c>
       <c r="AE156" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AF156" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AG156" t="n">
         <v>12.5</v>
@@ -19081,7 +19193,7 @@
         <v>50</v>
       </c>
       <c r="AI156" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ156" t="n">
         <v>55</v>
@@ -19241,37 +19353,37 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="H158" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I158" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="J158" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K158" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L158" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M158" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="N158" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O158" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="P158" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="R158" t="n">
         <v>1.72</v>
@@ -19283,28 +19395,28 @@
         <v>8</v>
       </c>
       <c r="U158" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="V158" t="n">
         <v>9</v>
       </c>
       <c r="W158" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X158" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y158" t="n">
         <v>27</v>
       </c>
       <c r="Z158" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA158" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB158" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC158" t="n">
         <v>60</v>
@@ -19325,7 +19437,7 @@
         <v>37</v>
       </c>
       <c r="AI158" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ158" t="n">
         <v>32</v>
@@ -19481,10 +19593,10 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H160" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I160" t="n">
         <v>2.02</v>
@@ -19516,7 +19628,7 @@
         <v>1.72</v>
       </c>
       <c r="T160" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="U160" t="n">
         <v>13</v>
@@ -19528,7 +19640,7 @@
         <v>35</v>
       </c>
       <c r="X160" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y160" t="n">
         <v>37</v>
@@ -19537,7 +19649,7 @@
         <v>7.6</v>
       </c>
       <c r="AA160" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB160" t="n">
         <v>14</v>
@@ -19564,7 +19676,7 @@
         <v>15</v>
       </c>
       <c r="AJ160" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="161">
@@ -19608,16 +19720,16 @@
         <v>2.8</v>
       </c>
       <c r="J161" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K161" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L161" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M161" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N161" t="n">
         <v>2.05</v>
@@ -19843,13 +19955,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H163" t="n">
         <v>3.9</v>
       </c>
       <c r="I163" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -19857,7 +19969,7 @@
         <v>1.2</v>
       </c>
       <c r="M163" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="N163" t="n">
         <v>1.6</v>
@@ -19874,16 +19986,16 @@
         <v>2.02</v>
       </c>
       <c r="T163" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U163" t="n">
         <v>8.75</v>
       </c>
       <c r="V163" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W163" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X163" t="n">
         <v>12</v>
@@ -19904,22 +20016,22 @@
         <v>55</v>
       </c>
       <c r="AD163" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE163" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF163" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG163" t="n">
         <v>14.5</v>
       </c>
       <c r="AH163" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI163" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ163" t="n">
         <v>40</v>
@@ -20324,10 +20436,10 @@
         <v>10</v>
       </c>
       <c r="J167" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K167" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L167" t="n">
         <v>1.17</v>
@@ -20336,10 +20448,10 @@
         <v>5</v>
       </c>
       <c r="N167" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O167" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P167" t="n">
         <v>1.29</v>
@@ -21190,10 +21302,10 @@
         <v>3.75</v>
       </c>
       <c r="N174" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O174" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="P174" t="n">
         <v>1.33</v>
@@ -21232,7 +21344,7 @@
         <v>8</v>
       </c>
       <c r="AB174" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC174" t="n">
         <v>51</v>
@@ -21544,10 +21656,10 @@
         <v>1.95</v>
       </c>
       <c r="J177" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K177" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L177" t="n">
         <v>1.44</v>
@@ -21656,36 +21768,92 @@
           <t>Guarani de Fram</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr"/>
+      <c r="G178" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H178" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I178" t="n">
+        <v>5.2</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="inlineStr"/>
-      <c r="N178" t="inlineStr"/>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="inlineStr"/>
-      <c r="T178" t="inlineStr"/>
-      <c r="U178" t="inlineStr"/>
-      <c r="V178" t="inlineStr"/>
-      <c r="W178" t="inlineStr"/>
-      <c r="X178" t="inlineStr"/>
-      <c r="Y178" t="inlineStr"/>
-      <c r="Z178" t="inlineStr"/>
-      <c r="AA178" t="inlineStr"/>
-      <c r="AB178" t="inlineStr"/>
-      <c r="AC178" t="inlineStr"/>
-      <c r="AD178" t="inlineStr"/>
-      <c r="AE178" t="inlineStr"/>
-      <c r="AF178" t="inlineStr"/>
-      <c r="AG178" t="inlineStr"/>
-      <c r="AH178" t="inlineStr"/>
-      <c r="AI178" t="inlineStr"/>
-      <c r="AJ178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M178" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N178" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="O178" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P178" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R178" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S178" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="T178" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U178" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="V178" t="n">
+        <v>7</v>
+      </c>
+      <c r="W178" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X178" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -21729,31 +21897,81 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="inlineStr"/>
-      <c r="N179" t="inlineStr"/>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="inlineStr"/>
-      <c r="T179" t="inlineStr"/>
-      <c r="U179" t="inlineStr"/>
-      <c r="V179" t="inlineStr"/>
-      <c r="W179" t="inlineStr"/>
-      <c r="X179" t="inlineStr"/>
-      <c r="Y179" t="inlineStr"/>
-      <c r="Z179" t="inlineStr"/>
-      <c r="AA179" t="inlineStr"/>
-      <c r="AB179" t="inlineStr"/>
-      <c r="AC179" t="inlineStr"/>
-      <c r="AD179" t="inlineStr"/>
-      <c r="AE179" t="inlineStr"/>
-      <c r="AF179" t="inlineStr"/>
-      <c r="AG179" t="inlineStr"/>
-      <c r="AH179" t="inlineStr"/>
-      <c r="AI179" t="inlineStr"/>
-      <c r="AJ179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M179" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="N179" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="O179" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P179" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R179" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S179" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T179" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U179" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="V179" t="n">
+        <v>7</v>
+      </c>
+      <c r="W179" t="n">
+        <v>12</v>
+      </c>
+      <c r="X179" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -21918,10 +22136,10 @@
         <v>5.25</v>
       </c>
       <c r="J181" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K181" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L181" t="n">
         <v>1.33</v>
@@ -21930,10 +22148,10 @@
         <v>3.25</v>
       </c>
       <c r="N181" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O181" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P181" t="n">
         <v>1.44</v>
@@ -22040,10 +22258,10 @@
         <v>11</v>
       </c>
       <c r="J182" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K182" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L182" t="n">
         <v>1.18</v>
@@ -22052,10 +22270,10 @@
         <v>4.5</v>
       </c>
       <c r="N182" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O182" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P182" t="n">
         <v>1.29</v>
@@ -23007,13 +23225,13 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="H190" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I190" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J190" t="n">
         <v>1.01</v>
@@ -23067,7 +23285,7 @@
         <v>29</v>
       </c>
       <c r="AA190" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB190" t="n">
         <v>41</v>
@@ -23076,10 +23294,10 @@
         <v>101</v>
       </c>
       <c r="AD190" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE190" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF190" t="n">
         <v>101</v>
@@ -23088,7 +23306,7 @@
         <v>51</v>
       </c>
       <c r="AH190" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AI190" t="n">
         <v>151</v>
@@ -23382,10 +23600,10 @@
         <v>2.63</v>
       </c>
       <c r="J193" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K193" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L193" t="n">
         <v>1.33</v>
@@ -23876,16 +24094,16 @@
         <v>9</v>
       </c>
       <c r="L197" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M197" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N197" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O197" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P197" t="n">
         <v>1.5</v>
@@ -25207,19 +25425,19 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="H212" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I212" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="J212" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K212" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="L212" t="n">
         <v>1.32</v>
@@ -25237,55 +25455,55 @@
         <v>1.44</v>
       </c>
       <c r="Q212" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R212" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S212" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T212" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U212" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V212" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W212" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X212" t="n">
         <v>21</v>
       </c>
       <c r="Y212" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z212" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA212" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB212" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC212" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD212" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE212" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF212" t="n">
         <v>13</v>
       </c>
       <c r="AG212" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH212" t="n">
         <v>29</v>
@@ -25294,7 +25512,7 @@
         <v>22</v>
       </c>
       <c r="AJ212" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="213">
@@ -25329,13 +25547,13 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H213" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I213" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J213" t="n">
         <v>1.07</v>
@@ -25353,7 +25571,7 @@
         <v>2.15</v>
       </c>
       <c r="O213" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P213" t="n">
         <v>1.44</v>
@@ -25380,7 +25598,7 @@
         <v>34</v>
       </c>
       <c r="X213" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y213" t="n">
         <v>41</v>
@@ -25404,7 +25622,7 @@
         <v>7</v>
       </c>
       <c r="AF213" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG213" t="n">
         <v>9.5</v>
@@ -25413,10 +25631,10 @@
         <v>21</v>
       </c>
       <c r="AI213" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ213" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="214">
@@ -25475,7 +25693,7 @@
         <v>2.1</v>
       </c>
       <c r="O214" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P214" t="n">
         <v>1.44</v>
@@ -25573,13 +25791,13 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H215" t="n">
         <v>3.4</v>
       </c>
       <c r="I215" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="J215" t="n">
         <v>1.05</v>
@@ -25594,10 +25812,10 @@
         <v>3.75</v>
       </c>
       <c r="N215" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="O215" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="P215" t="n">
         <v>1.36</v>
@@ -25615,13 +25833,13 @@
         <v>9.5</v>
       </c>
       <c r="U215" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V215" t="n">
         <v>10</v>
       </c>
       <c r="W215" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X215" t="n">
         <v>21</v>
@@ -25645,22 +25863,22 @@
         <v>201</v>
       </c>
       <c r="AE215" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF215" t="n">
         <v>13</v>
       </c>
       <c r="AG215" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH215" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI215" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ215" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="216">
@@ -25710,13 +25928,13 @@
         <v>8</v>
       </c>
       <c r="L216" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M216" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N216" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O216" t="n">
         <v>1.62</v>
@@ -25826,10 +26044,10 @@
         <v>5</v>
       </c>
       <c r="J217" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K217" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L217" t="n">
         <v>1.33</v>
@@ -25838,10 +26056,10 @@
         <v>3.25</v>
       </c>
       <c r="N217" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O217" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="P217" t="n">
         <v>1.4</v>
@@ -25948,22 +26166,22 @@
         <v>4.33</v>
       </c>
       <c r="J218" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K218" t="n">
         <v>10</v>
       </c>
       <c r="L218" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M218" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N218" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O218" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P218" t="n">
         <v>1.44</v>
@@ -26070,13 +26288,13 @@
         <v>3.8</v>
       </c>
       <c r="J219" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K219" t="n">
         <v>15</v>
       </c>
       <c r="L219" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M219" t="n">
         <v>4.5</v>
@@ -26192,22 +26410,22 @@
         <v>2.55</v>
       </c>
       <c r="J220" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K220" t="n">
         <v>11</v>
       </c>
       <c r="L220" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M220" t="n">
         <v>3.75</v>
       </c>
       <c r="N220" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O220" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="P220" t="n">
         <v>1.36</v>
@@ -26314,13 +26532,13 @@
         <v>3.3</v>
       </c>
       <c r="J221" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K221" t="n">
         <v>6.5</v>
       </c>
       <c r="L221" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M221" t="n">
         <v>2.5</v>
@@ -26436,13 +26654,13 @@
         <v>4.33</v>
       </c>
       <c r="J222" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K222" t="n">
         <v>8</v>
       </c>
       <c r="L222" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M222" t="n">
         <v>2.75</v>
@@ -26558,13 +26776,13 @@
         <v>1.91</v>
       </c>
       <c r="J223" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K223" t="n">
         <v>8</v>
       </c>
       <c r="L223" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M223" t="n">
         <v>3.4</v>
@@ -26573,7 +26791,7 @@
         <v>2.03</v>
       </c>
       <c r="O223" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P223" t="n">
         <v>1.4</v>
@@ -27900,16 +28118,16 @@
         <v>2.2</v>
       </c>
       <c r="J234" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K234" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L234" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M234" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N234" t="n">
         <v>1.7</v>
@@ -28135,19 +28353,19 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H236" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I236" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J236" t="n">
         <v>1.06</v>
       </c>
       <c r="K236" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L236" t="n">
         <v>1.36</v>
@@ -28162,16 +28380,16 @@
         <v>1.7</v>
       </c>
       <c r="P236" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q236" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R236" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S236" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T236" t="n">
         <v>7.5</v>
@@ -28183,22 +28401,22 @@
         <v>9.5</v>
       </c>
       <c r="W236" t="n">
+        <v>23</v>
+      </c>
+      <c r="X236" t="n">
         <v>21</v>
       </c>
-      <c r="X236" t="n">
-        <v>19</v>
-      </c>
       <c r="Y236" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z236" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA236" t="n">
         <v>6.5</v>
       </c>
       <c r="AB236" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC236" t="n">
         <v>51</v>
@@ -28207,10 +28425,10 @@
         <v>301</v>
       </c>
       <c r="AE236" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF236" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG236" t="n">
         <v>11</v>
@@ -28501,13 +28719,13 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H239" t="n">
         <v>3.25</v>
       </c>
       <c r="I239" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J239" t="n">
         <v>1.05</v>
@@ -28543,13 +28761,13 @@
         <v>8.5</v>
       </c>
       <c r="U239" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V239" t="n">
         <v>10</v>
       </c>
       <c r="W239" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X239" t="n">
         <v>21</v>
@@ -28582,7 +28800,7 @@
         <v>10</v>
       </c>
       <c r="AH239" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI239" t="n">
         <v>21</v>
@@ -28623,13 +28841,13 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H240" t="n">
         <v>3.4</v>
       </c>
       <c r="I240" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J240" t="n">
         <v>1.04</v>
@@ -28650,10 +28868,10 @@
         <v>2</v>
       </c>
       <c r="P240" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q240" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R240" t="n">
         <v>1.67</v>
@@ -28662,10 +28880,10 @@
         <v>2.1</v>
       </c>
       <c r="T240" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U240" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V240" t="n">
         <v>9</v>
@@ -28677,7 +28895,7 @@
         <v>17</v>
       </c>
       <c r="Y240" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z240" t="n">
         <v>12</v>
@@ -28745,13 +28963,13 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H241" t="n">
         <v>3.3</v>
       </c>
       <c r="I241" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J241" t="n">
         <v>1.05</v>
@@ -28760,16 +28978,16 @@
         <v>11</v>
       </c>
       <c r="L241" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M241" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N241" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O241" t="n">
         <v>1.9</v>
-      </c>
-      <c r="O241" t="n">
-        <v>1.95</v>
       </c>
       <c r="P241" t="n">
         <v>1.36</v>
@@ -28778,10 +28996,10 @@
         <v>3</v>
       </c>
       <c r="R241" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S241" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T241" t="n">
         <v>11</v>
@@ -28796,10 +29014,10 @@
         <v>34</v>
       </c>
       <c r="X241" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y241" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z241" t="n">
         <v>11</v>
@@ -28814,10 +29032,10 @@
         <v>41</v>
       </c>
       <c r="AD241" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE241" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF241" t="n">
         <v>11</v>
@@ -28832,7 +29050,7 @@
         <v>17</v>
       </c>
       <c r="AJ241" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="242">
@@ -28867,13 +29085,13 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="H242" t="n">
         <v>3.45</v>
       </c>
       <c r="I242" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="J242" t="n">
         <v>1.04</v>
@@ -28882,34 +29100,34 @@
         <v>8.25</v>
       </c>
       <c r="L242" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M242" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="N242" t="n">
         <v>1.65</v>
       </c>
       <c r="O242" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="P242" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q242" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R242" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S242" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T242" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="U242" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="V242" t="n">
         <v>10</v>
@@ -28918,19 +29136,19 @@
         <v>32</v>
       </c>
       <c r="X242" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y242" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z242" t="n">
         <v>8.25</v>
       </c>
       <c r="AA242" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB242" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC242" t="n">
         <v>40</v>
@@ -28939,22 +29157,22 @@
         <v>250</v>
       </c>
       <c r="AE242" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AF242" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG242" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH242" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI242" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ242" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243">
@@ -29111,25 +29329,25 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="H244" t="n">
         <v>3.45</v>
       </c>
       <c r="I244" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J244" t="n">
         <v>1.05</v>
       </c>
       <c r="K244" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="L244" t="n">
         <v>1.24</v>
       </c>
       <c r="M244" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="N244" t="n">
         <v>1.72</v>
@@ -29138,7 +29356,7 @@
         <v>2</v>
       </c>
       <c r="P244" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q244" t="n">
         <v>2.87</v>
@@ -29147,16 +29365,16 @@
         <v>1.6</v>
       </c>
       <c r="S244" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T244" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="U244" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V244" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W244" t="n">
         <v>32</v>
@@ -29168,7 +29386,7 @@
         <v>27</v>
       </c>
       <c r="Z244" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA244" t="n">
         <v>6.7</v>
@@ -29186,19 +29404,19 @@
         <v>9.5</v>
       </c>
       <c r="AF244" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG244" t="n">
         <v>9</v>
       </c>
       <c r="AH244" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI244" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ244" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="245">
@@ -29233,52 +29451,52 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H245" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I245" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="J245" t="n">
         <v>1.03</v>
       </c>
       <c r="K245" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="L245" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="M245" t="n">
-        <v>4.9</v>
+        <v>4.65</v>
       </c>
       <c r="N245" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="O245" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="P245" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="Q245" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="R245" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S245" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T245" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U245" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="V245" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W245" t="n">
         <v>10.5</v>
@@ -29287,25 +29505,25 @@
         <v>10.5</v>
       </c>
       <c r="Y245" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z245" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA245" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB245" t="n">
         <v>15.5</v>
       </c>
       <c r="AC245" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD245" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE245" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF245" t="n">
         <v>45</v>
@@ -29317,7 +29535,7 @@
         <v>120</v>
       </c>
       <c r="AI245" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ245" t="n">
         <v>45</v>
@@ -29480,10 +29698,10 @@
         <v>2.45</v>
       </c>
       <c r="H247" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I247" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="J247" t="n">
         <v>1.06</v>
@@ -29507,13 +29725,13 @@
         <v>1.4</v>
       </c>
       <c r="Q247" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="R247" t="n">
         <v>1.57</v>
       </c>
       <c r="S247" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="T247" t="n">
         <v>9.5</v>
@@ -29537,31 +29755,31 @@
         <v>7.5</v>
       </c>
       <c r="AA247" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB247" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AC247" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD247" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE247" t="n">
         <v>10.25</v>
       </c>
       <c r="AF247" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG247" t="n">
         <v>10</v>
       </c>
       <c r="AH247" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI247" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ247" t="n">
         <v>26</v>
@@ -29611,7 +29829,7 @@
         <v>1.01</v>
       </c>
       <c r="K248" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L248" t="n">
         <v>1.11</v>
@@ -29986,10 +30204,10 @@
         <v>3.75</v>
       </c>
       <c r="N251" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="O251" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="P251" t="n">
         <v>1.36</v>
@@ -30087,37 +30305,37 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H252" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="I252" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="J252" t="n">
         <v>1.02</v>
       </c>
       <c r="K252" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L252" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M252" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N252" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O252" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P252" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q252" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R252" t="n">
         <v>1.83</v>
@@ -30132,25 +30350,25 @@
         <v>51</v>
       </c>
       <c r="V252" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W252" t="n">
         <v>126</v>
       </c>
       <c r="X252" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Y252" t="n">
         <v>51</v>
       </c>
       <c r="Z252" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA252" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB252" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC252" t="n">
         <v>51</v>
@@ -30159,7 +30377,7 @@
         <v>251</v>
       </c>
       <c r="AE252" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF252" t="n">
         <v>7.5</v>
@@ -30209,7 +30427,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H253" t="n">
         <v>3.75</v>
@@ -30218,13 +30436,13 @@
         <v>3.9</v>
       </c>
       <c r="J253" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K253" t="n">
         <v>15</v>
       </c>
       <c r="L253" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M253" t="n">
         <v>4.5</v>
@@ -30340,16 +30558,16 @@
         <v>3.25</v>
       </c>
       <c r="J254" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K254" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L254" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="M254" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N254" t="n">
         <v>1.8</v>
@@ -30462,13 +30680,13 @@
         <v>4.5</v>
       </c>
       <c r="J255" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K255" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L255" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M255" t="n">
         <v>4</v>
@@ -30584,13 +30802,13 @@
         <v>4.1</v>
       </c>
       <c r="J256" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K256" t="n">
         <v>13</v>
       </c>
       <c r="L256" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M256" t="n">
         <v>4</v>
@@ -30706,28 +30924,28 @@
         <v>4.5</v>
       </c>
       <c r="J257" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K257" t="n">
         <v>11</v>
       </c>
       <c r="L257" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M257" t="n">
         <v>3.5</v>
       </c>
       <c r="N257" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O257" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="P257" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q257" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R257" t="n">
         <v>1.83</v>
@@ -30748,7 +30966,7 @@
         <v>13</v>
       </c>
       <c r="X257" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y257" t="n">
         <v>26</v>
@@ -30828,13 +31046,13 @@
         <v>2.3</v>
       </c>
       <c r="J258" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K258" t="n">
         <v>10</v>
       </c>
       <c r="L258" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M258" t="n">
         <v>3.4</v>
@@ -30843,7 +31061,7 @@
         <v>2</v>
       </c>
       <c r="O258" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="P258" t="n">
         <v>1.4</v>
@@ -30941,13 +31159,13 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H259" t="n">
         <v>3.4</v>
       </c>
       <c r="I259" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J259" t="n">
         <v>1.04</v>
@@ -30980,10 +31198,10 @@
         <v>2.1</v>
       </c>
       <c r="T259" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U259" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V259" t="n">
         <v>9.5</v>
@@ -31013,7 +31231,7 @@
         <v>151</v>
       </c>
       <c r="AE259" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF259" t="n">
         <v>15</v>
@@ -31075,7 +31293,7 @@
         <v>1.06</v>
       </c>
       <c r="K260" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L260" t="n">
         <v>1.33</v>
@@ -31084,10 +31302,10 @@
         <v>3.25</v>
       </c>
       <c r="N260" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O260" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P260" t="n">
         <v>1.4</v>
@@ -31369,13 +31587,13 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="H263" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I263" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="J263" t="n">
         <v>1.11</v>
@@ -31396,25 +31614,25 @@
         <v>1.4</v>
       </c>
       <c r="P263" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q263" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="R263" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S263" t="n">
         <v>1.6</v>
       </c>
       <c r="T263" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U263" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V263" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="W263" t="n">
         <v>37</v>
@@ -31441,16 +31659,16 @@
         <v>101</v>
       </c>
       <c r="AE263" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AF263" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AG263" t="n">
         <v>10.5</v>
       </c>
       <c r="AH263" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI263" t="n">
         <v>28</v>
@@ -31853,7 +32071,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="H267" t="n">
         <v>3.25</v>
@@ -31862,22 +32080,22 @@
         <v>2.45</v>
       </c>
       <c r="J267" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K267" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L267" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M267" t="n">
         <v>3.25</v>
       </c>
       <c r="N267" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O267" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P267" t="n">
         <v>1.44</v>
@@ -31975,7 +32193,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H268" t="n">
         <v>3</v>
@@ -31984,13 +32202,13 @@
         <v>4.5</v>
       </c>
       <c r="J268" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K268" t="n">
         <v>7.5</v>
       </c>
       <c r="L268" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M268" t="n">
         <v>3</v>
@@ -32103,25 +32321,25 @@
         <v>3.4</v>
       </c>
       <c r="I269" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="J269" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K269" t="n">
         <v>11</v>
       </c>
       <c r="L269" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M269" t="n">
         <v>3.5</v>
       </c>
       <c r="N269" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O269" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P269" t="n">
         <v>1.4</v>
@@ -32219,7 +32437,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="H270" t="n">
         <v>3.7</v>
@@ -32228,16 +32446,16 @@
         <v>9</v>
       </c>
       <c r="J270" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K270" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L270" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M270" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N270" t="n">
         <v>2.35</v>
@@ -32282,7 +32500,7 @@
         <v>8</v>
       </c>
       <c r="AB270" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC270" t="n">
         <v>101</v>
@@ -32838,10 +33056,10 @@
         <v>5</v>
       </c>
       <c r="N275" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O275" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P275" t="n">
         <v>1.25</v>
@@ -32960,10 +33178,10 @@
         <v>4</v>
       </c>
       <c r="N276" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O276" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P276" t="n">
         <v>1.33</v>
@@ -33061,19 +33279,19 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H277" t="n">
         <v>3.6</v>
       </c>
       <c r="I277" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J277" t="n">
         <v>1.03</v>
       </c>
       <c r="K277" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L277" t="n">
         <v>1.17</v>
@@ -33082,10 +33300,10 @@
         <v>5</v>
       </c>
       <c r="N277" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O277" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P277" t="n">
         <v>1.25</v>
@@ -33100,7 +33318,7 @@
         <v>2.5</v>
       </c>
       <c r="T277" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U277" t="n">
         <v>13</v>
@@ -33136,7 +33354,7 @@
         <v>15</v>
       </c>
       <c r="AF277" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG277" t="n">
         <v>12</v>
@@ -33145,10 +33363,10 @@
         <v>34</v>
       </c>
       <c r="AI277" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ277" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ277" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="278">
@@ -33183,37 +33401,37 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="H278" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="I278" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="J278" t="n">
         <v>1.12</v>
       </c>
       <c r="K278" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L278" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M278" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="N278" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="O278" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P278" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q278" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R278" t="n">
         <v>1.98</v>
@@ -33222,49 +33440,49 @@
         <v>1.65</v>
       </c>
       <c r="T278" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="U278" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="V278" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="W278" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="X278" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y278" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z278" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AA278" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB278" t="n">
         <v>16.5</v>
       </c>
       <c r="AC278" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD278" t="n">
         <v>101</v>
       </c>
       <c r="AE278" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="AF278" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG278" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH278" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI278" t="n">
         <v>32</v>
@@ -33426,10 +33644,10 @@
         <v>2.4</v>
       </c>
       <c r="H280" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="I280" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J280" t="n">
         <v>1.11</v>
@@ -33438,7 +33656,7 @@
         <v>5.8</v>
       </c>
       <c r="L280" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M280" t="n">
         <v>2.55</v>
@@ -33462,10 +33680,10 @@
         <v>1.78</v>
       </c>
       <c r="T280" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="U280" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="V280" t="n">
         <v>9.25</v>
@@ -33477,16 +33695,16 @@
         <v>21</v>
       </c>
       <c r="Y280" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z280" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA280" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB280" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC280" t="n">
         <v>80</v>
@@ -33495,19 +33713,19 @@
         <v>700</v>
       </c>
       <c r="AE280" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AF280" t="n">
         <v>15</v>
       </c>
       <c r="AG280" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH280" t="n">
         <v>40</v>
       </c>
       <c r="AI280" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ280" t="n">
         <v>45</v>
